--- a/산출물/테이블 명세서/MiniPX_테이블 명세서_V0.2.xlsx
+++ b/산출물/테이블 명세서/MiniPX_테이블 명세서_V0.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\miniPX\산출물\테이블 명세서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C1CD2E0-8129-420A-9739-A2ABB8BF1BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F41823-0C1E-4CB5-86C2-DDCF984E32C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="571" activeTab="1" xr2:uid="{C65CB968-5333-48BF-B9BC-AA4409770CFC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="571" activeTab="3" xr2:uid="{C65CB968-5333-48BF-B9BC-AA4409770CFC}"/>
   </bookViews>
   <sheets>
     <sheet name="개정이력" sheetId="7" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2212" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="715">
   <si>
     <t>의미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2590,26 +2590,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FST_REG_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FST_REG_DTTI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LST_UPD_ID</t>
-  </si>
-  <si>
-    <t>LST_UPD_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LST_UPD_DTTI</t>
   </si>
   <si>
     <t>LST_UPD_DTTI</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"item"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"market/item"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"상품 관련 대메뉴"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"상품 정보를 조회할 수 있는 메뉴입니다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"마켓"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LST_UPD_SEQ</t>
   </si>
 </sst>
 </file>
@@ -2829,7 +2841,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2912,7 +2924,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2930,26 +2945,31 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -3313,7 +3333,7 @@
   <dimension ref="B2:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -3341,7 +3361,7 @@
       <c r="B3" s="4">
         <v>0.1</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="33">
         <v>45809</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -3355,7 +3375,7 @@
       <c r="B4" s="4">
         <v>0.2</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="33">
         <v>45838</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -3507,8 +3527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3FA1B2-35B2-404A-91D2-564CF6C84D17}">
   <dimension ref="B2:J270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I274" sqref="I274"/>
+    <sheetView topLeftCell="A238" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I272" sqref="I272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -3526,16 +3546,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="36"/>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="6" t="s">
@@ -3571,15 +3591,15 @@
       <c r="B4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
       <c r="J4" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C3)</f>
         <v>CREATE TABLE TB_USER</v>
@@ -4030,7 +4050,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>459</v>
@@ -4050,7 +4070,7 @@
       </c>
       <c r="J21" t="str">
         <f t="shared" si="0"/>
-        <v>, LST_UPD_ID INT NOT NULL COMMENT '최종수정자일련번호'</v>
+        <v>, LST_UPD_SEQ INT NOT NULL COMMENT '최종수정자일련번호'</v>
       </c>
     </row>
     <row r="22" spans="2:10">
@@ -4058,7 +4078,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>68</v>
@@ -4088,16 +4108,16 @@
       </c>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="36"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="6" t="s">
@@ -4133,15 +4153,15 @@
       <c r="B26" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
       <c r="J26" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C25)</f>
         <v>CREATE TABLE TB_CODE_GROUP</v>
@@ -4320,7 +4340,7 @@
         <v>6</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>459</v>
@@ -4340,7 +4360,7 @@
       </c>
       <c r="J33" t="str">
         <f t="shared" si="1"/>
-        <v>, LST_UPD_ID INT NOT NULL COMMENT '최종수정자일련번호'</v>
+        <v>, LST_UPD_SEQ INT NOT NULL COMMENT '최종수정자일련번호'</v>
       </c>
     </row>
     <row r="34" spans="2:10">
@@ -4348,7 +4368,7 @@
         <v>7</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>68</v>
@@ -4381,17 +4401,17 @@
       <c r="B36" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37" t="s">
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
       <c r="J36" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C25," ADD CONSTRAINT ",C37," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_CODE_GROUP ADD CONSTRAINT PK_TB_CODE_GROUP PRIMARY KEY (</v>
@@ -4401,19 +4421,19 @@
       <c r="B37" s="4">
         <v>1</v>
       </c>
-      <c r="C37" s="32" t="str">
+      <c r="C37" s="39" t="str">
         <f>_xlfn.CONCAT("PK_",C25)</f>
         <v>PK_TB_CODE_GROUP</v>
       </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32" t="str">
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39" t="str">
         <f>C28</f>
         <v>CODE_GROUP</v>
       </c>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
       <c r="J37" t="str">
         <f>_xlfn.CONCAT(IF(B37=1,"",", "),F37)</f>
         <v>CODE_GROUP</v>
@@ -4426,16 +4446,16 @@
       </c>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="33" t="s">
+      <c r="B39" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="36"/>
     </row>
     <row r="40" spans="2:10">
       <c r="B40" s="6" t="s">
@@ -4471,15 +4491,15 @@
       <c r="B41" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="36" t="s">
+      <c r="C41" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
       <c r="J41" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C40)</f>
         <v>CREATE TABLE TB_CODE_DETAIL</v>
@@ -4714,7 +4734,7 @@
         <v>8</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>459</v>
@@ -4734,7 +4754,7 @@
       </c>
       <c r="J50" t="str">
         <f t="shared" si="2"/>
-        <v>, LST_UPD_ID INT NOT NULL COMMENT '최종수정자일련번호'</v>
+        <v>, LST_UPD_SEQ INT NOT NULL COMMENT '최종수정자일련번호'</v>
       </c>
     </row>
     <row r="51" spans="2:10">
@@ -4742,7 +4762,7 @@
         <v>9</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>68</v>
@@ -4775,17 +4795,17 @@
       <c r="B53" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="37" t="s">
+      <c r="C53" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37" t="s">
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="37"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
       <c r="J53" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C40," ADD CONSTRAINT ",C54," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_CODE_DETAIL ADD CONSTRAINT PK_TB_CODE_DETAIL PRIMARY KEY (</v>
@@ -4795,19 +4815,19 @@
       <c r="B54" s="4">
         <v>1</v>
       </c>
-      <c r="C54" s="32" t="str">
+      <c r="C54" s="39" t="str">
         <f>_xlfn.CONCAT("PK_",C40)</f>
         <v>PK_TB_CODE_DETAIL</v>
       </c>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32" t="str">
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39" t="str">
         <f>C43</f>
         <v>CODE_GROUP</v>
       </c>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="32"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="39"/>
       <c r="J54" t="str">
         <f>_xlfn.CONCAT(IF(B54=1,"",", "),F54)</f>
         <v>CODE_GROUP</v>
@@ -4817,19 +4837,19 @@
       <c r="B55" s="4">
         <v>2</v>
       </c>
-      <c r="C55" s="32" t="str">
+      <c r="C55" s="39" t="str">
         <f>_xlfn.CONCAT("PK_",C40)</f>
         <v>PK_TB_CODE_DETAIL</v>
       </c>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32" t="str">
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39" t="str">
         <f>C44</f>
         <v>CODE_DETAIL</v>
       </c>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="32"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
       <c r="J55" t="str">
         <f>_xlfn.CONCAT(IF(B55=1,"",", "),F55)</f>
         <v>, CODE_DETAIL</v>
@@ -4842,16 +4862,16 @@
       </c>
     </row>
     <row r="57" spans="2:10">
-      <c r="B57" s="33" t="s">
+      <c r="B57" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="34"/>
-      <c r="I57" s="35"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="36"/>
     </row>
     <row r="58" spans="2:10">
       <c r="B58" s="6" t="s">
@@ -4887,15 +4907,15 @@
       <c r="B59" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C59" s="36" t="s">
+      <c r="C59" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="D59" s="36"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
       <c r="J59" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C58)</f>
         <v>CREATE TABLE TB_LOG_LOGIN</v>
@@ -5106,16 +5126,16 @@
       </c>
     </row>
     <row r="68" spans="2:10">
-      <c r="B68" s="33" t="s">
+      <c r="B68" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="34"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="34"/>
-      <c r="G68" s="34"/>
-      <c r="H68" s="34"/>
-      <c r="I68" s="35"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="35"/>
+      <c r="I68" s="36"/>
     </row>
     <row r="69" spans="2:10">
       <c r="B69" s="6" t="s">
@@ -5151,15 +5171,15 @@
       <c r="B70" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C70" s="36" t="s">
+      <c r="C70" s="37" t="s">
         <v>183</v>
       </c>
-      <c r="D70" s="36"/>
-      <c r="E70" s="36"/>
-      <c r="F70" s="36"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="36"/>
-      <c r="I70" s="36"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="37"/>
       <c r="J70" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C69)</f>
         <v>CREATE TABLE TB_LOG_REQ</v>
@@ -5428,16 +5448,16 @@
       </c>
     </row>
     <row r="81" spans="2:10">
-      <c r="B81" s="33" t="s">
+      <c r="B81" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C81" s="34"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="34"/>
-      <c r="F81" s="34"/>
-      <c r="G81" s="34"/>
-      <c r="H81" s="34"/>
-      <c r="I81" s="35"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="35"/>
+      <c r="G81" s="35"/>
+      <c r="H81" s="35"/>
+      <c r="I81" s="36"/>
     </row>
     <row r="82" spans="2:10">
       <c r="B82" s="6" t="s">
@@ -5473,15 +5493,15 @@
       <c r="B83" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C83" s="36" t="s">
+      <c r="C83" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="D83" s="36"/>
-      <c r="E83" s="36"/>
-      <c r="F83" s="36"/>
-      <c r="G83" s="36"/>
-      <c r="H83" s="36"/>
-      <c r="I83" s="36"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
       <c r="J83" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C82)</f>
         <v>CREATE TABLE TB_BOARD_NOTICE</v>
@@ -5766,7 +5786,7 @@
         <v>10</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>459</v>
@@ -5786,7 +5806,7 @@
       </c>
       <c r="J94" t="str">
         <f t="shared" si="7"/>
-        <v>, LST_UPD_ID INT NOT NULL COMMENT '최종수정자일련번호'</v>
+        <v>, LST_UPD_SEQ INT NOT NULL COMMENT '최종수정자일련번호'</v>
       </c>
     </row>
     <row r="95" spans="2:10">
@@ -5794,7 +5814,7 @@
         <v>11</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>68</v>
@@ -5824,16 +5844,16 @@
       </c>
     </row>
     <row r="97" spans="2:10">
-      <c r="B97" s="33" t="s">
+      <c r="B97" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C97" s="34"/>
-      <c r="D97" s="34"/>
-      <c r="E97" s="34"/>
-      <c r="F97" s="34"/>
-      <c r="G97" s="34"/>
-      <c r="H97" s="34"/>
-      <c r="I97" s="35"/>
+      <c r="C97" s="35"/>
+      <c r="D97" s="35"/>
+      <c r="E97" s="35"/>
+      <c r="F97" s="35"/>
+      <c r="G97" s="35"/>
+      <c r="H97" s="35"/>
+      <c r="I97" s="36"/>
     </row>
     <row r="98" spans="2:10">
       <c r="B98" s="6" t="s">
@@ -5869,15 +5889,15 @@
       <c r="B99" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C99" s="36" t="s">
+      <c r="C99" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="D99" s="36"/>
-      <c r="E99" s="36"/>
-      <c r="F99" s="36"/>
-      <c r="G99" s="36"/>
-      <c r="H99" s="36"/>
-      <c r="I99" s="36"/>
+      <c r="D99" s="37"/>
+      <c r="E99" s="37"/>
+      <c r="F99" s="37"/>
+      <c r="G99" s="37"/>
+      <c r="H99" s="37"/>
+      <c r="I99" s="37"/>
       <c r="J99" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C98)</f>
         <v>CREATE TABLE TB_ATCFILE</v>
@@ -6204,7 +6224,7 @@
         <v>11</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>459</v>
@@ -6224,7 +6244,7 @@
       </c>
       <c r="J111" t="str">
         <f t="shared" si="8"/>
-        <v>, LST_UPD_ID INT NOT NULL COMMENT '최종수정자일련번호'</v>
+        <v>, LST_UPD_SEQ INT NOT NULL COMMENT '최종수정자일련번호'</v>
       </c>
     </row>
     <row r="112" spans="2:10">
@@ -6232,7 +6252,7 @@
         <v>12</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>67</v>
@@ -6265,17 +6285,17 @@
       <c r="B114" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C114" s="37" t="s">
+      <c r="C114" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="D114" s="37"/>
-      <c r="E114" s="37"/>
-      <c r="F114" s="37" t="s">
+      <c r="D114" s="38"/>
+      <c r="E114" s="38"/>
+      <c r="F114" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="G114" s="37"/>
-      <c r="H114" s="37"/>
-      <c r="I114" s="37"/>
+      <c r="G114" s="38"/>
+      <c r="H114" s="38"/>
+      <c r="I114" s="38"/>
       <c r="J114" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C98," ADD CONSTRAINT ",C115," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_ATCFILE ADD CONSTRAINT PK_TB_ATCFILE PRIMARY KEY (</v>
@@ -6285,19 +6305,19 @@
       <c r="B115" s="4">
         <v>1</v>
       </c>
-      <c r="C115" s="32" t="str">
+      <c r="C115" s="39" t="str">
         <f>_xlfn.CONCAT("PK_",C98)</f>
         <v>PK_TB_ATCFILE</v>
       </c>
-      <c r="D115" s="32"/>
-      <c r="E115" s="32"/>
-      <c r="F115" s="32" t="str">
+      <c r="D115" s="39"/>
+      <c r="E115" s="39"/>
+      <c r="F115" s="39" t="str">
         <f>C101</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G115" s="32"/>
-      <c r="H115" s="32"/>
-      <c r="I115" s="32"/>
+      <c r="G115" s="39"/>
+      <c r="H115" s="39"/>
+      <c r="I115" s="39"/>
       <c r="J115" t="str">
         <f>_xlfn.CONCAT(IF(B115=1,"",", "),F115)</f>
         <v>BOARD_SEQ</v>
@@ -6307,19 +6327,19 @@
       <c r="B116" s="4">
         <v>2</v>
       </c>
-      <c r="C116" s="32" t="str">
+      <c r="C116" s="39" t="str">
         <f>_xlfn.CONCAT("PK_",C98)</f>
         <v>PK_TB_ATCFILE</v>
       </c>
-      <c r="D116" s="32"/>
-      <c r="E116" s="32"/>
-      <c r="F116" s="32" t="str">
+      <c r="D116" s="39"/>
+      <c r="E116" s="39"/>
+      <c r="F116" s="39" t="str">
         <f>C102</f>
         <v>BOARD_CODE</v>
       </c>
-      <c r="G116" s="32"/>
-      <c r="H116" s="32"/>
-      <c r="I116" s="32"/>
+      <c r="G116" s="39"/>
+      <c r="H116" s="39"/>
+      <c r="I116" s="39"/>
       <c r="J116" t="str">
         <f>_xlfn.CONCAT(IF(B116=1,"",", "),F116)</f>
         <v>, BOARD_CODE</v>
@@ -6329,19 +6349,19 @@
       <c r="B117" s="4">
         <v>3</v>
       </c>
-      <c r="C117" s="32" t="str">
+      <c r="C117" s="39" t="str">
         <f>_xlfn.CONCAT("PK_",C98)</f>
         <v>PK_TB_ATCFILE</v>
       </c>
-      <c r="D117" s="32"/>
-      <c r="E117" s="32"/>
-      <c r="F117" s="32" t="str">
+      <c r="D117" s="39"/>
+      <c r="E117" s="39"/>
+      <c r="F117" s="39" t="str">
         <f>C103</f>
         <v>ATCFILE_NUM</v>
       </c>
-      <c r="G117" s="32"/>
-      <c r="H117" s="32"/>
-      <c r="I117" s="32"/>
+      <c r="G117" s="39"/>
+      <c r="H117" s="39"/>
+      <c r="I117" s="39"/>
       <c r="J117" t="str">
         <f>_xlfn.CONCAT(IF(B117=1,"",", "),F117)</f>
         <v>, ATCFILE_NUM</v>
@@ -6354,16 +6374,16 @@
       </c>
     </row>
     <row r="119" spans="2:10">
-      <c r="B119" s="33" t="s">
+      <c r="B119" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C119" s="34"/>
-      <c r="D119" s="34"/>
-      <c r="E119" s="34"/>
-      <c r="F119" s="34"/>
-      <c r="G119" s="34"/>
-      <c r="H119" s="34"/>
-      <c r="I119" s="35"/>
+      <c r="C119" s="35"/>
+      <c r="D119" s="35"/>
+      <c r="E119" s="35"/>
+      <c r="F119" s="35"/>
+      <c r="G119" s="35"/>
+      <c r="H119" s="35"/>
+      <c r="I119" s="36"/>
     </row>
     <row r="120" spans="2:10">
       <c r="B120" s="6" t="s">
@@ -6399,15 +6419,15 @@
       <c r="B121" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C121" s="36" t="s">
+      <c r="C121" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="D121" s="36"/>
-      <c r="E121" s="36"/>
-      <c r="F121" s="36"/>
-      <c r="G121" s="36"/>
-      <c r="H121" s="36"/>
-      <c r="I121" s="36"/>
+      <c r="D121" s="37"/>
+      <c r="E121" s="37"/>
+      <c r="F121" s="37"/>
+      <c r="G121" s="37"/>
+      <c r="H121" s="37"/>
+      <c r="I121" s="37"/>
       <c r="J121" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C120)</f>
         <v>CREATE TABLE TB_POLI</v>
@@ -6643,7 +6663,7 @@
         <v>11</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>459</v>
@@ -6663,7 +6683,7 @@
       </c>
       <c r="J130" t="str">
         <f t="shared" si="10"/>
-        <v>, LST_UPD_ID INT NOT NULL COMMENT '최종수정자일련번호'</v>
+        <v>, LST_UPD_SEQ INT NOT NULL COMMENT '최종수정자일련번호'</v>
       </c>
     </row>
     <row r="131" spans="2:10">
@@ -6671,7 +6691,7 @@
         <v>12</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>67</v>
@@ -6701,16 +6721,16 @@
       </c>
     </row>
     <row r="133" spans="2:10">
-      <c r="B133" s="33" t="s">
+      <c r="B133" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C133" s="34"/>
-      <c r="D133" s="34"/>
-      <c r="E133" s="34"/>
-      <c r="F133" s="34"/>
-      <c r="G133" s="34"/>
-      <c r="H133" s="34"/>
-      <c r="I133" s="35"/>
+      <c r="C133" s="35"/>
+      <c r="D133" s="35"/>
+      <c r="E133" s="35"/>
+      <c r="F133" s="35"/>
+      <c r="G133" s="35"/>
+      <c r="H133" s="35"/>
+      <c r="I133" s="36"/>
     </row>
     <row r="134" spans="2:10">
       <c r="B134" s="6" t="s">
@@ -6746,15 +6766,15 @@
       <c r="B135" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C135" s="36" t="s">
+      <c r="C135" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="D135" s="36"/>
-      <c r="E135" s="36"/>
-      <c r="F135" s="36"/>
-      <c r="G135" s="36"/>
-      <c r="H135" s="36"/>
-      <c r="I135" s="36"/>
+      <c r="D135" s="37"/>
+      <c r="E135" s="37"/>
+      <c r="F135" s="37"/>
+      <c r="G135" s="37"/>
+      <c r="H135" s="37"/>
+      <c r="I135" s="37"/>
       <c r="J135" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C134)</f>
         <v>CREATE TABLE TB_MNU</v>
@@ -7183,7 +7203,7 @@
         <v>14</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>459</v>
@@ -7203,7 +7223,7 @@
       </c>
       <c r="J151" t="str">
         <f t="shared" si="11"/>
-        <v>, LST_UPD_ID INT NOT NULL COMMENT '최종수정자일련번호'</v>
+        <v>, LST_UPD_SEQ INT NOT NULL COMMENT '최종수정자일련번호'</v>
       </c>
     </row>
     <row r="152" spans="2:10">
@@ -7211,7 +7231,7 @@
         <v>15</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>67</v>
@@ -7241,16 +7261,16 @@
       </c>
     </row>
     <row r="154" spans="2:10">
-      <c r="B154" s="33" t="s">
+      <c r="B154" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C154" s="34"/>
-      <c r="D154" s="34"/>
-      <c r="E154" s="34"/>
-      <c r="F154" s="34"/>
-      <c r="G154" s="34"/>
-      <c r="H154" s="34"/>
-      <c r="I154" s="35"/>
+      <c r="C154" s="35"/>
+      <c r="D154" s="35"/>
+      <c r="E154" s="35"/>
+      <c r="F154" s="35"/>
+      <c r="G154" s="35"/>
+      <c r="H154" s="35"/>
+      <c r="I154" s="36"/>
     </row>
     <row r="155" spans="2:10">
       <c r="B155" s="6" t="s">
@@ -7286,15 +7306,15 @@
       <c r="B156" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C156" s="36" t="s">
+      <c r="C156" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="D156" s="36"/>
-      <c r="E156" s="36"/>
-      <c r="F156" s="36"/>
-      <c r="G156" s="36"/>
-      <c r="H156" s="36"/>
-      <c r="I156" s="36"/>
+      <c r="D156" s="37"/>
+      <c r="E156" s="37"/>
+      <c r="F156" s="37"/>
+      <c r="G156" s="37"/>
+      <c r="H156" s="37"/>
+      <c r="I156" s="37"/>
       <c r="J156" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C155)</f>
         <v>CREATE TABLE TB_ROLE</v>
@@ -7502,7 +7522,7 @@
         <v>7</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>459</v>
@@ -7522,7 +7542,7 @@
       </c>
       <c r="J164" t="str">
         <f t="shared" si="14"/>
-        <v>, LST_UPD_ID INT NOT NULL COMMENT '최종수정자일련번호'</v>
+        <v>, LST_UPD_SEQ INT NOT NULL COMMENT '최종수정자일련번호'</v>
       </c>
     </row>
     <row r="165" spans="2:10">
@@ -7530,7 +7550,7 @@
         <v>8</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>67</v>
@@ -7560,16 +7580,16 @@
       </c>
     </row>
     <row r="167" spans="2:10">
-      <c r="B167" s="33" t="s">
+      <c r="B167" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C167" s="34"/>
-      <c r="D167" s="34"/>
-      <c r="E167" s="34"/>
-      <c r="F167" s="34"/>
-      <c r="G167" s="34"/>
-      <c r="H167" s="34"/>
-      <c r="I167" s="35"/>
+      <c r="C167" s="35"/>
+      <c r="D167" s="35"/>
+      <c r="E167" s="35"/>
+      <c r="F167" s="35"/>
+      <c r="G167" s="35"/>
+      <c r="H167" s="35"/>
+      <c r="I167" s="36"/>
     </row>
     <row r="168" spans="2:10">
       <c r="B168" s="6" t="s">
@@ -7605,15 +7625,15 @@
       <c r="B169" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C169" s="36" t="s">
+      <c r="C169" s="37" t="s">
         <v>256</v>
       </c>
-      <c r="D169" s="36"/>
-      <c r="E169" s="36"/>
-      <c r="F169" s="36"/>
-      <c r="G169" s="36"/>
-      <c r="H169" s="36"/>
-      <c r="I169" s="36"/>
+      <c r="D169" s="37"/>
+      <c r="E169" s="37"/>
+      <c r="F169" s="37"/>
+      <c r="G169" s="37"/>
+      <c r="H169" s="37"/>
+      <c r="I169" s="37"/>
       <c r="J169" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C168)</f>
         <v>CREATE TABLE TB_USER_ROLE_MAP</v>
@@ -7768,7 +7788,7 @@
         <v>5</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>459</v>
@@ -7788,7 +7808,7 @@
       </c>
       <c r="J175" t="str">
         <f t="shared" si="15"/>
-        <v>, LST_UPD_ID INT NOT NULL COMMENT '최종수정자일련번호'</v>
+        <v>, LST_UPD_SEQ INT NOT NULL COMMENT '최종수정자일련번호'</v>
       </c>
     </row>
     <row r="176" spans="2:10">
@@ -7796,7 +7816,7 @@
         <v>6</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>67</v>
@@ -7829,17 +7849,17 @@
       <c r="B178" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C178" s="37" t="s">
+      <c r="C178" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="D178" s="37"/>
-      <c r="E178" s="37"/>
-      <c r="F178" s="37" t="s">
+      <c r="D178" s="38"/>
+      <c r="E178" s="38"/>
+      <c r="F178" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="G178" s="37"/>
-      <c r="H178" s="37"/>
-      <c r="I178" s="37"/>
+      <c r="G178" s="38"/>
+      <c r="H178" s="38"/>
+      <c r="I178" s="38"/>
       <c r="J178" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C168," ADD CONSTRAINT ",C180," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_USER_ROLE_MAP ADD CONSTRAINT PK_TB_USER_ROLE_MAP PRIMARY KEY (</v>
@@ -7849,19 +7869,19 @@
       <c r="B179" s="4">
         <v>1</v>
       </c>
-      <c r="C179" s="32" t="str">
+      <c r="C179" s="39" t="str">
         <f>_xlfn.CONCAT("PK_",C168)</f>
         <v>PK_TB_USER_ROLE_MAP</v>
       </c>
-      <c r="D179" s="32"/>
-      <c r="E179" s="32"/>
-      <c r="F179" s="32" t="str">
+      <c r="D179" s="39"/>
+      <c r="E179" s="39"/>
+      <c r="F179" s="39" t="str">
         <f>C171</f>
         <v>USER_SEQ</v>
       </c>
-      <c r="G179" s="32"/>
-      <c r="H179" s="32"/>
-      <c r="I179" s="32"/>
+      <c r="G179" s="39"/>
+      <c r="H179" s="39"/>
+      <c r="I179" s="39"/>
       <c r="J179" t="str">
         <f>_xlfn.CONCAT(IF(B179=1,"",", "),F179)</f>
         <v>USER_SEQ</v>
@@ -7871,19 +7891,19 @@
       <c r="B180" s="4">
         <v>2</v>
       </c>
-      <c r="C180" s="32" t="str">
+      <c r="C180" s="39" t="str">
         <f>_xlfn.CONCAT("PK_",C168)</f>
         <v>PK_TB_USER_ROLE_MAP</v>
       </c>
-      <c r="D180" s="32"/>
-      <c r="E180" s="32"/>
-      <c r="F180" s="32" t="str">
+      <c r="D180" s="39"/>
+      <c r="E180" s="39"/>
+      <c r="F180" s="39" t="str">
         <f>C172</f>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="G180" s="32"/>
-      <c r="H180" s="32"/>
-      <c r="I180" s="32"/>
+      <c r="G180" s="39"/>
+      <c r="H180" s="39"/>
+      <c r="I180" s="39"/>
       <c r="J180" t="str">
         <f>_xlfn.CONCAT(IF(B180=1,"",", "),F180)</f>
         <v>, ROLE_SEQ</v>
@@ -7896,16 +7916,16 @@
       </c>
     </row>
     <row r="182" spans="2:10">
-      <c r="B182" s="33" t="s">
+      <c r="B182" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C182" s="34"/>
-      <c r="D182" s="34"/>
-      <c r="E182" s="34"/>
-      <c r="F182" s="34"/>
-      <c r="G182" s="34"/>
-      <c r="H182" s="34"/>
-      <c r="I182" s="35"/>
+      <c r="C182" s="35"/>
+      <c r="D182" s="35"/>
+      <c r="E182" s="35"/>
+      <c r="F182" s="35"/>
+      <c r="G182" s="35"/>
+      <c r="H182" s="35"/>
+      <c r="I182" s="36"/>
     </row>
     <row r="183" spans="2:10">
       <c r="B183" s="6" t="s">
@@ -7941,15 +7961,15 @@
       <c r="B184" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C184" s="36" t="s">
+      <c r="C184" s="37" t="s">
         <v>259</v>
       </c>
-      <c r="D184" s="36"/>
-      <c r="E184" s="36"/>
-      <c r="F184" s="36"/>
-      <c r="G184" s="36"/>
-      <c r="H184" s="36"/>
-      <c r="I184" s="36"/>
+      <c r="D184" s="37"/>
+      <c r="E184" s="37"/>
+      <c r="F184" s="37"/>
+      <c r="G184" s="37"/>
+      <c r="H184" s="37"/>
+      <c r="I184" s="37"/>
       <c r="J184" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C183)</f>
         <v>CREATE TABLE TB_AUTH</v>
@@ -8160,7 +8180,7 @@
         <v>7</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>459</v>
@@ -8180,7 +8200,7 @@
       </c>
       <c r="J192" t="str">
         <f t="shared" si="16"/>
-        <v>, LST_UPD_ID INT NOT NULL COMMENT '최종수정자일련번호'</v>
+        <v>, LST_UPD_SEQ INT NOT NULL COMMENT '최종수정자일련번호'</v>
       </c>
     </row>
     <row r="193" spans="2:10">
@@ -8188,7 +8208,7 @@
         <v>8</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>67</v>
@@ -8221,17 +8241,17 @@
       <c r="B195" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C195" s="37" t="s">
+      <c r="C195" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="D195" s="37"/>
-      <c r="E195" s="37"/>
-      <c r="F195" s="37" t="s">
+      <c r="D195" s="38"/>
+      <c r="E195" s="38"/>
+      <c r="F195" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="G195" s="37"/>
-      <c r="H195" s="37"/>
-      <c r="I195" s="37"/>
+      <c r="G195" s="38"/>
+      <c r="H195" s="38"/>
+      <c r="I195" s="38"/>
       <c r="J195" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C183," ADD CONSTRAINT ",C197," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_AUTH ADD CONSTRAINT PK_TB_AUTH PRIMARY KEY (</v>
@@ -8241,19 +8261,19 @@
       <c r="B196" s="4">
         <v>1</v>
       </c>
-      <c r="C196" s="32" t="str">
+      <c r="C196" s="39" t="str">
         <f>_xlfn.CONCAT("PK_",C183)</f>
         <v>PK_TB_AUTH</v>
       </c>
-      <c r="D196" s="32"/>
-      <c r="E196" s="32"/>
-      <c r="F196" s="32" t="str">
+      <c r="D196" s="39"/>
+      <c r="E196" s="39"/>
+      <c r="F196" s="39" t="str">
         <f>C186</f>
         <v>MNU_SEQ</v>
       </c>
-      <c r="G196" s="32"/>
-      <c r="H196" s="32"/>
-      <c r="I196" s="32"/>
+      <c r="G196" s="39"/>
+      <c r="H196" s="39"/>
+      <c r="I196" s="39"/>
       <c r="J196" t="str">
         <f>_xlfn.CONCAT(IF(B196=1,"",", "),F196)</f>
         <v>MNU_SEQ</v>
@@ -8263,19 +8283,19 @@
       <c r="B197" s="4">
         <v>2</v>
       </c>
-      <c r="C197" s="32" t="str">
+      <c r="C197" s="39" t="str">
         <f>_xlfn.CONCAT("PK_",C183)</f>
         <v>PK_TB_AUTH</v>
       </c>
-      <c r="D197" s="32"/>
-      <c r="E197" s="32"/>
-      <c r="F197" s="32" t="str">
+      <c r="D197" s="39"/>
+      <c r="E197" s="39"/>
+      <c r="F197" s="39" t="str">
         <f>C187</f>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="G197" s="32"/>
-      <c r="H197" s="32"/>
-      <c r="I197" s="32"/>
+      <c r="G197" s="39"/>
+      <c r="H197" s="39"/>
+      <c r="I197" s="39"/>
       <c r="J197" t="str">
         <f>_xlfn.CONCAT(IF(B197=1,"",", "),F197)</f>
         <v>, ROLE_SEQ</v>
@@ -8288,16 +8308,16 @@
       </c>
     </row>
     <row r="199" spans="2:10">
-      <c r="B199" s="33" t="s">
+      <c r="B199" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C199" s="34"/>
-      <c r="D199" s="34"/>
-      <c r="E199" s="34"/>
-      <c r="F199" s="34"/>
-      <c r="G199" s="34"/>
-      <c r="H199" s="34"/>
-      <c r="I199" s="35"/>
+      <c r="C199" s="35"/>
+      <c r="D199" s="35"/>
+      <c r="E199" s="35"/>
+      <c r="F199" s="35"/>
+      <c r="G199" s="35"/>
+      <c r="H199" s="35"/>
+      <c r="I199" s="36"/>
     </row>
     <row r="200" spans="2:10">
       <c r="B200" s="6" t="s">
@@ -8333,15 +8353,15 @@
       <c r="B201" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C201" s="36" t="s">
+      <c r="C201" s="37" t="s">
         <v>662</v>
       </c>
-      <c r="D201" s="36"/>
-      <c r="E201" s="36"/>
-      <c r="F201" s="36"/>
-      <c r="G201" s="36"/>
-      <c r="H201" s="36"/>
-      <c r="I201" s="36"/>
+      <c r="D201" s="37"/>
+      <c r="E201" s="37"/>
+      <c r="F201" s="37"/>
+      <c r="G201" s="37"/>
+      <c r="H201" s="37"/>
+      <c r="I201" s="37"/>
       <c r="J201" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C200)</f>
         <v>CREATE TABLE TB_ITEM</v>
@@ -8706,7 +8726,7 @@
         <v>13</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>459</v>
@@ -8726,7 +8746,7 @@
       </c>
       <c r="J215" t="str">
         <f t="shared" si="17"/>
-        <v>, LST_UPD_ID INT NOT NULL COMMENT '최종수정자일련번호'</v>
+        <v>, LST_UPD_SEQ INT NOT NULL COMMENT '최종수정자일련번호'</v>
       </c>
     </row>
     <row r="216" spans="2:10">
@@ -8734,7 +8754,7 @@
         <v>14</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>67</v>
@@ -8764,16 +8784,16 @@
       </c>
     </row>
     <row r="218" spans="2:10">
-      <c r="B218" s="33" t="s">
+      <c r="B218" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C218" s="34"/>
-      <c r="D218" s="34"/>
-      <c r="E218" s="34"/>
-      <c r="F218" s="34"/>
-      <c r="G218" s="34"/>
-      <c r="H218" s="34"/>
-      <c r="I218" s="35"/>
+      <c r="C218" s="35"/>
+      <c r="D218" s="35"/>
+      <c r="E218" s="35"/>
+      <c r="F218" s="35"/>
+      <c r="G218" s="35"/>
+      <c r="H218" s="35"/>
+      <c r="I218" s="36"/>
     </row>
     <row r="219" spans="2:10">
       <c r="B219" s="6" t="s">
@@ -8809,15 +8829,15 @@
       <c r="B220" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C220" s="36" t="s">
+      <c r="C220" s="37" t="s">
         <v>661</v>
       </c>
-      <c r="D220" s="36"/>
-      <c r="E220" s="36"/>
-      <c r="F220" s="36"/>
-      <c r="G220" s="36"/>
-      <c r="H220" s="36"/>
-      <c r="I220" s="36"/>
+      <c r="D220" s="37"/>
+      <c r="E220" s="37"/>
+      <c r="F220" s="37"/>
+      <c r="G220" s="37"/>
+      <c r="H220" s="37"/>
+      <c r="I220" s="37"/>
       <c r="J220" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C219)</f>
         <v>CREATE TABLE TB_BASKET</v>
@@ -9028,7 +9048,7 @@
         <v>7</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>459</v>
@@ -9048,7 +9068,7 @@
       </c>
       <c r="J228" t="str">
         <f t="shared" si="21"/>
-        <v>, LST_UPD_ID INT NOT NULL COMMENT '최종수정자일련번호'</v>
+        <v>, LST_UPD_SEQ INT NOT NULL COMMENT '최종수정자일련번호'</v>
       </c>
     </row>
     <row r="229" spans="2:10">
@@ -9056,7 +9076,7 @@
         <v>8</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>67</v>
@@ -9089,17 +9109,17 @@
       <c r="B231" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C231" s="37" t="s">
+      <c r="C231" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="D231" s="37"/>
-      <c r="E231" s="37"/>
-      <c r="F231" s="37" t="s">
+      <c r="D231" s="38"/>
+      <c r="E231" s="38"/>
+      <c r="F231" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="G231" s="37"/>
-      <c r="H231" s="37"/>
-      <c r="I231" s="37"/>
+      <c r="G231" s="38"/>
+      <c r="H231" s="38"/>
+      <c r="I231" s="38"/>
       <c r="J231" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C219," ADD CONSTRAINT ",C233," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_BASKET ADD CONSTRAINT PK_TB_BASKET PRIMARY KEY (</v>
@@ -9109,19 +9129,19 @@
       <c r="B232" s="4">
         <v>1</v>
       </c>
-      <c r="C232" s="32" t="str">
+      <c r="C232" s="39" t="str">
         <f>_xlfn.CONCAT("PK_",C219)</f>
         <v>PK_TB_BASKET</v>
       </c>
-      <c r="D232" s="32"/>
-      <c r="E232" s="32"/>
-      <c r="F232" s="32" t="str">
+      <c r="D232" s="39"/>
+      <c r="E232" s="39"/>
+      <c r="F232" s="39" t="str">
         <f>C222</f>
         <v>USER_SEQ</v>
       </c>
-      <c r="G232" s="32"/>
-      <c r="H232" s="32"/>
-      <c r="I232" s="32"/>
+      <c r="G232" s="39"/>
+      <c r="H232" s="39"/>
+      <c r="I232" s="39"/>
       <c r="J232" t="str">
         <f>_xlfn.CONCAT(IF(B232=1,"",", "),F232)</f>
         <v>USER_SEQ</v>
@@ -9131,19 +9151,19 @@
       <c r="B233" s="4">
         <v>2</v>
       </c>
-      <c r="C233" s="32" t="str">
+      <c r="C233" s="39" t="str">
         <f>_xlfn.CONCAT("PK_",C219)</f>
         <v>PK_TB_BASKET</v>
       </c>
-      <c r="D233" s="32"/>
-      <c r="E233" s="32"/>
-      <c r="F233" s="32" t="str">
+      <c r="D233" s="39"/>
+      <c r="E233" s="39"/>
+      <c r="F233" s="39" t="str">
         <f>C223</f>
         <v>ITEM_SEQ</v>
       </c>
-      <c r="G233" s="32"/>
-      <c r="H233" s="32"/>
-      <c r="I233" s="32"/>
+      <c r="G233" s="39"/>
+      <c r="H233" s="39"/>
+      <c r="I233" s="39"/>
       <c r="J233" t="str">
         <f>_xlfn.CONCAT(IF(B233=1,"",", "),F233)</f>
         <v>, ITEM_SEQ</v>
@@ -9156,16 +9176,16 @@
       </c>
     </row>
     <row r="235" spans="2:10">
-      <c r="B235" s="33" t="s">
+      <c r="B235" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C235" s="34"/>
-      <c r="D235" s="34"/>
-      <c r="E235" s="34"/>
-      <c r="F235" s="34"/>
-      <c r="G235" s="34"/>
-      <c r="H235" s="34"/>
-      <c r="I235" s="35"/>
+      <c r="C235" s="35"/>
+      <c r="D235" s="35"/>
+      <c r="E235" s="35"/>
+      <c r="F235" s="35"/>
+      <c r="G235" s="35"/>
+      <c r="H235" s="35"/>
+      <c r="I235" s="36"/>
     </row>
     <row r="236" spans="2:10">
       <c r="B236" s="6" t="s">
@@ -9201,15 +9221,15 @@
       <c r="B237" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C237" s="36" t="s">
+      <c r="C237" s="37" t="s">
         <v>660</v>
       </c>
-      <c r="D237" s="36"/>
-      <c r="E237" s="36"/>
-      <c r="F237" s="36"/>
-      <c r="G237" s="36"/>
-      <c r="H237" s="36"/>
-      <c r="I237" s="36"/>
+      <c r="D237" s="37"/>
+      <c r="E237" s="37"/>
+      <c r="F237" s="37"/>
+      <c r="G237" s="37"/>
+      <c r="H237" s="37"/>
+      <c r="I237" s="37"/>
       <c r="J237" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C236)</f>
         <v>CREATE TABLE TB_ORDER</v>
@@ -9474,7 +9494,7 @@
         <v>8</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>459</v>
@@ -9494,7 +9514,7 @@
       </c>
       <c r="J247" t="str">
         <f t="shared" si="22"/>
-        <v>, LST_UPD_ID INT NOT NULL COMMENT '최종수정자일련번호'</v>
+        <v>, LST_UPD_SEQ INT NOT NULL COMMENT '최종수정자일련번호'</v>
       </c>
     </row>
     <row r="248" spans="2:10">
@@ -9502,7 +9522,7 @@
         <v>9</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>67</v>
@@ -9535,17 +9555,17 @@
       <c r="B250" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C250" s="37" t="s">
+      <c r="C250" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="D250" s="37"/>
-      <c r="E250" s="37"/>
-      <c r="F250" s="37" t="s">
+      <c r="D250" s="38"/>
+      <c r="E250" s="38"/>
+      <c r="F250" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="G250" s="37"/>
-      <c r="H250" s="37"/>
-      <c r="I250" s="37"/>
+      <c r="G250" s="38"/>
+      <c r="H250" s="38"/>
+      <c r="I250" s="38"/>
       <c r="J250" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C236," ADD CONSTRAINT ",C252," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_ORDER ADD CONSTRAINT PK_TB_ORDER PRIMARY KEY (</v>
@@ -9555,19 +9575,19 @@
       <c r="B251" s="4">
         <v>1</v>
       </c>
-      <c r="C251" s="32" t="str">
+      <c r="C251" s="39" t="str">
         <f>_xlfn.CONCAT("PK_",C236)</f>
         <v>PK_TB_ORDER</v>
       </c>
-      <c r="D251" s="32"/>
-      <c r="E251" s="32"/>
-      <c r="F251" s="32" t="str">
+      <c r="D251" s="39"/>
+      <c r="E251" s="39"/>
+      <c r="F251" s="39" t="str">
         <f>C239</f>
         <v>USER_SEQ</v>
       </c>
-      <c r="G251" s="32"/>
-      <c r="H251" s="32"/>
-      <c r="I251" s="32"/>
+      <c r="G251" s="39"/>
+      <c r="H251" s="39"/>
+      <c r="I251" s="39"/>
       <c r="J251" t="str">
         <f>_xlfn.CONCAT(IF(B251=1,"",", "),F251)</f>
         <v>USER_SEQ</v>
@@ -9577,19 +9597,19 @@
       <c r="B252" s="4">
         <v>2</v>
       </c>
-      <c r="C252" s="32" t="str">
+      <c r="C252" s="39" t="str">
         <f>_xlfn.CONCAT("PK_",C236)</f>
         <v>PK_TB_ORDER</v>
       </c>
-      <c r="D252" s="32"/>
-      <c r="E252" s="32"/>
-      <c r="F252" s="32" t="str">
+      <c r="D252" s="39"/>
+      <c r="E252" s="39"/>
+      <c r="F252" s="39" t="str">
         <f>C240</f>
         <v>ITEM_SEQ</v>
       </c>
-      <c r="G252" s="32"/>
-      <c r="H252" s="32"/>
-      <c r="I252" s="32"/>
+      <c r="G252" s="39"/>
+      <c r="H252" s="39"/>
+      <c r="I252" s="39"/>
       <c r="J252" t="str">
         <f>_xlfn.CONCAT(IF(B252=1,"",", "),F252)</f>
         <v>, ITEM_SEQ</v>
@@ -9602,16 +9622,16 @@
       </c>
     </row>
     <row r="254" spans="2:10">
-      <c r="B254" s="33" t="s">
+      <c r="B254" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C254" s="34"/>
-      <c r="D254" s="34"/>
-      <c r="E254" s="34"/>
-      <c r="F254" s="34"/>
-      <c r="G254" s="34"/>
-      <c r="H254" s="34"/>
-      <c r="I254" s="35"/>
+      <c r="C254" s="35"/>
+      <c r="D254" s="35"/>
+      <c r="E254" s="35"/>
+      <c r="F254" s="35"/>
+      <c r="G254" s="35"/>
+      <c r="H254" s="35"/>
+      <c r="I254" s="36"/>
     </row>
     <row r="255" spans="2:10">
       <c r="B255" s="6" t="s">
@@ -9647,15 +9667,15 @@
       <c r="B256" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C256" s="36" t="s">
+      <c r="C256" s="37" t="s">
         <v>698</v>
       </c>
-      <c r="D256" s="36"/>
-      <c r="E256" s="36"/>
-      <c r="F256" s="36"/>
-      <c r="G256" s="36"/>
-      <c r="H256" s="36"/>
-      <c r="I256" s="36"/>
+      <c r="D256" s="37"/>
+      <c r="E256" s="37"/>
+      <c r="F256" s="37"/>
+      <c r="G256" s="37"/>
+      <c r="H256" s="37"/>
+      <c r="I256" s="37"/>
       <c r="J256" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C255)</f>
         <v>CREATE TABLE TB_TOKEN</v>
@@ -9704,7 +9724,9 @@
       <c r="E258" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F258" s="4"/>
+      <c r="F258" s="4">
+        <v>1</v>
+      </c>
       <c r="G258" s="1" t="s">
         <v>41</v>
       </c>
@@ -9832,7 +9854,7 @@
         <v>6</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>706</v>
+        <v>456</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>220</v>
@@ -9852,7 +9874,7 @@
       </c>
       <c r="J263" t="str">
         <f t="shared" si="23"/>
-        <v>, FST_REG_ID VARCHAR(20) NOT NULL COMMENT '최초등록자일련번호'</v>
+        <v>, FST_REG_SEQ VARCHAR(20) NOT NULL COMMENT '최초등록자일련번호'</v>
       </c>
     </row>
     <row r="264" spans="2:10">
@@ -9860,7 +9882,7 @@
         <v>7</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>66</v>
@@ -9888,7 +9910,7 @@
         <v>8</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>221</v>
@@ -9908,7 +9930,7 @@
       </c>
       <c r="J265" t="str">
         <f t="shared" si="23"/>
-        <v>, LST_UPD_ID VARCHAR(20) NOT NULL COMMENT '최종수정자일련번호'</v>
+        <v>, LST_UPD_SEQ VARCHAR(20) NOT NULL COMMENT '최종수정자일련번호'</v>
       </c>
     </row>
     <row r="266" spans="2:10">
@@ -9916,7 +9938,7 @@
         <v>9</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>67</v>
@@ -9949,17 +9971,17 @@
       <c r="B268" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C268" s="37" t="s">
+      <c r="C268" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="D268" s="37"/>
-      <c r="E268" s="37"/>
-      <c r="F268" s="37" t="s">
+      <c r="D268" s="38"/>
+      <c r="E268" s="38"/>
+      <c r="F268" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="G268" s="37"/>
-      <c r="H268" s="37"/>
-      <c r="I268" s="37"/>
+      <c r="G268" s="38"/>
+      <c r="H268" s="38"/>
+      <c r="I268" s="38"/>
       <c r="J268" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C255," ADD CONSTRAINT ",C269," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_TOKEN ADD CONSTRAINT PK_TB_TOKEN PRIMARY KEY (</v>
@@ -9969,19 +9991,19 @@
       <c r="B269" s="4">
         <v>1</v>
       </c>
-      <c r="C269" s="32" t="str">
+      <c r="C269" s="39" t="str">
         <f>_xlfn.CONCAT("PK_",C255)</f>
         <v>PK_TB_TOKEN</v>
       </c>
-      <c r="D269" s="32"/>
-      <c r="E269" s="32"/>
-      <c r="F269" s="32" t="str">
+      <c r="D269" s="39"/>
+      <c r="E269" s="39"/>
+      <c r="F269" s="39" t="str">
         <f>C258</f>
         <v>USER_ID</v>
       </c>
-      <c r="G269" s="32"/>
-      <c r="H269" s="32"/>
-      <c r="I269" s="32"/>
+      <c r="G269" s="39"/>
+      <c r="H269" s="39"/>
+      <c r="I269" s="39"/>
       <c r="J269" t="str">
         <f>_xlfn.CONCAT(IF(B269=1,"",", "),F269)</f>
         <v>USER_ID</v>
@@ -9995,44 +10017,30 @@
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="B254:I254"/>
-    <mergeCell ref="C256:I256"/>
-    <mergeCell ref="C268:E268"/>
-    <mergeCell ref="F268:I268"/>
-    <mergeCell ref="C269:E269"/>
-    <mergeCell ref="F269:I269"/>
-    <mergeCell ref="C220:I220"/>
-    <mergeCell ref="C231:E231"/>
-    <mergeCell ref="F231:I231"/>
-    <mergeCell ref="C233:E233"/>
-    <mergeCell ref="F233:I233"/>
-    <mergeCell ref="C232:E232"/>
-    <mergeCell ref="F232:I232"/>
-    <mergeCell ref="C184:I184"/>
-    <mergeCell ref="C195:E195"/>
-    <mergeCell ref="F195:I195"/>
-    <mergeCell ref="C196:E196"/>
-    <mergeCell ref="F196:I196"/>
-    <mergeCell ref="B68:I68"/>
-    <mergeCell ref="C70:I70"/>
-    <mergeCell ref="B119:I119"/>
-    <mergeCell ref="C121:I121"/>
-    <mergeCell ref="B97:I97"/>
-    <mergeCell ref="C99:I99"/>
-    <mergeCell ref="C114:E114"/>
-    <mergeCell ref="F114:I114"/>
-    <mergeCell ref="C115:E115"/>
-    <mergeCell ref="F115:I115"/>
-    <mergeCell ref="C117:E117"/>
-    <mergeCell ref="F117:I117"/>
-    <mergeCell ref="B81:I81"/>
-    <mergeCell ref="C83:I83"/>
-    <mergeCell ref="C116:E116"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="B57:I57"/>
-    <mergeCell ref="C59:I59"/>
+    <mergeCell ref="C252:E252"/>
+    <mergeCell ref="F252:I252"/>
+    <mergeCell ref="B235:I235"/>
+    <mergeCell ref="C237:I237"/>
+    <mergeCell ref="C250:E250"/>
+    <mergeCell ref="F250:I250"/>
+    <mergeCell ref="C251:E251"/>
+    <mergeCell ref="F251:I251"/>
+    <mergeCell ref="B154:I154"/>
+    <mergeCell ref="C156:I156"/>
+    <mergeCell ref="B199:I199"/>
+    <mergeCell ref="C201:I201"/>
+    <mergeCell ref="B218:I218"/>
+    <mergeCell ref="B167:I167"/>
+    <mergeCell ref="C169:I169"/>
+    <mergeCell ref="C178:E178"/>
+    <mergeCell ref="F178:I178"/>
+    <mergeCell ref="C180:E180"/>
+    <mergeCell ref="F180:I180"/>
+    <mergeCell ref="C179:E179"/>
+    <mergeCell ref="F179:I179"/>
+    <mergeCell ref="C197:E197"/>
+    <mergeCell ref="F197:I197"/>
+    <mergeCell ref="B182:I182"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="B133:I133"/>
@@ -10049,30 +10057,44 @@
     <mergeCell ref="F36:I36"/>
     <mergeCell ref="F116:I116"/>
     <mergeCell ref="C37:E37"/>
-    <mergeCell ref="B154:I154"/>
-    <mergeCell ref="C156:I156"/>
-    <mergeCell ref="B199:I199"/>
-    <mergeCell ref="C201:I201"/>
-    <mergeCell ref="B218:I218"/>
-    <mergeCell ref="B167:I167"/>
-    <mergeCell ref="C169:I169"/>
-    <mergeCell ref="C178:E178"/>
-    <mergeCell ref="F178:I178"/>
-    <mergeCell ref="C180:E180"/>
-    <mergeCell ref="F180:I180"/>
-    <mergeCell ref="C179:E179"/>
-    <mergeCell ref="F179:I179"/>
-    <mergeCell ref="C197:E197"/>
-    <mergeCell ref="F197:I197"/>
-    <mergeCell ref="B182:I182"/>
-    <mergeCell ref="C252:E252"/>
-    <mergeCell ref="F252:I252"/>
-    <mergeCell ref="B235:I235"/>
-    <mergeCell ref="C237:I237"/>
-    <mergeCell ref="C250:E250"/>
-    <mergeCell ref="F250:I250"/>
-    <mergeCell ref="C251:E251"/>
-    <mergeCell ref="F251:I251"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="B57:I57"/>
+    <mergeCell ref="C59:I59"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="C70:I70"/>
+    <mergeCell ref="B119:I119"/>
+    <mergeCell ref="C121:I121"/>
+    <mergeCell ref="B97:I97"/>
+    <mergeCell ref="C99:I99"/>
+    <mergeCell ref="C114:E114"/>
+    <mergeCell ref="F114:I114"/>
+    <mergeCell ref="C115:E115"/>
+    <mergeCell ref="F115:I115"/>
+    <mergeCell ref="C117:E117"/>
+    <mergeCell ref="F117:I117"/>
+    <mergeCell ref="B81:I81"/>
+    <mergeCell ref="C83:I83"/>
+    <mergeCell ref="C116:E116"/>
+    <mergeCell ref="C184:I184"/>
+    <mergeCell ref="C195:E195"/>
+    <mergeCell ref="F195:I195"/>
+    <mergeCell ref="C196:E196"/>
+    <mergeCell ref="F196:I196"/>
+    <mergeCell ref="C220:I220"/>
+    <mergeCell ref="C231:E231"/>
+    <mergeCell ref="F231:I231"/>
+    <mergeCell ref="C233:E233"/>
+    <mergeCell ref="F233:I233"/>
+    <mergeCell ref="C232:E232"/>
+    <mergeCell ref="F232:I232"/>
+    <mergeCell ref="B254:I254"/>
+    <mergeCell ref="C256:I256"/>
+    <mergeCell ref="C268:E268"/>
+    <mergeCell ref="F268:I268"/>
+    <mergeCell ref="C269:E269"/>
+    <mergeCell ref="F269:I269"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10083,8 +10105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A446E8-EBD3-49BD-80EC-225302354102}">
   <dimension ref="B2:AA216"/>
   <sheetViews>
-    <sheetView topLeftCell="E55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
+    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -10110,14 +10132,14 @@
       <c r="B2" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
       <c r="I2" s="11"/>
     </row>
     <row r="3" spans="2:27">
@@ -10140,7 +10162,7 @@
         <v>456</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="12"/>
@@ -10198,7 +10220,7 @@
       <c r="Z4" s="12"/>
       <c r="AA4" t="str">
         <f>_xlfn.CONCAT("INSERT INTO ",C2, "(", _xlfn.TEXTJOIN(",",TRUE,C3:Z3),") VALUES")</f>
-        <v>INSERT INTO TB_POLI(POLI_CODE,POLI_NM,POLI_VAL,RMRK,FST_REG_SEQ,LST_UPD_ID) VALUES</v>
+        <v>INSERT INTO TB_POLI(POLI_CODE,POLI_NM,POLI_VAL,RMRK,FST_REG_SEQ,LST_UPD_SEQ) VALUES</v>
       </c>
     </row>
     <row r="5" spans="2:27">
@@ -10327,12 +10349,12 @@
       <c r="B9" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
     </row>
     <row r="10" spans="2:27">
       <c r="B10" s="10" t="s">
@@ -10348,7 +10370,7 @@
         <v>456</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
@@ -10397,7 +10419,7 @@
       <c r="Z11" s="9"/>
       <c r="AA11" t="str">
         <f>_xlfn.CONCAT("INSERT INTO ",C9, "(", _xlfn.TEXTJOIN(",",TRUE,C10:Z10),") VALUES")</f>
-        <v>INSERT INTO TB_CODE_GROUP(CODE_GROUP,CODE_GROUP_NM,FST_REG_SEQ,LST_UPD_ID) VALUES</v>
+        <v>INSERT INTO TB_CODE_GROUP(CODE_GROUP,CODE_GROUP_NM,FST_REG_SEQ,LST_UPD_SEQ) VALUES</v>
       </c>
     </row>
     <row r="12" spans="2:27">
@@ -10563,15 +10585,15 @@
       <c r="B20" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
     </row>
     <row r="21" spans="2:27">
       <c r="B21" s="10" t="s">
@@ -10596,7 +10618,7 @@
         <v>456</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="R21" s="13"/>
       <c r="S21" s="13"/>
@@ -10655,7 +10677,7 @@
       <c r="Z22" s="13"/>
       <c r="AA22" t="str">
         <f>_xlfn.CONCAT("INSERT INTO ",C20, "(", _xlfn.TEXTJOIN(",",TRUE,C21:Z21),") VALUES")</f>
-        <v>INSERT INTO TB_CODE_DETAIL(CODE_GROUP,CODE_DETAIL,CODE_DETAIL_NM,MODIFY_YN,DETAIL_ORDER,FST_REG_SEQ,LST_UPD_ID) VALUES</v>
+        <v>INSERT INTO TB_CODE_DETAIL(CODE_GROUP,CODE_DETAIL,CODE_DETAIL_NM,MODIFY_YN,DETAIL_ORDER,FST_REG_SEQ,LST_UPD_SEQ) VALUES</v>
       </c>
     </row>
     <row r="23" spans="2:27">
@@ -11957,13 +11979,13 @@
       <c r="B67" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C67" s="32" t="s">
+      <c r="C67" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="D67" s="32"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="32"/>
-      <c r="G67" s="32"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
     </row>
     <row r="68" spans="2:27">
       <c r="B68" s="10" t="s">
@@ -11985,7 +12007,7 @@
         <v>456</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="K68" s="12"/>
       <c r="L68" s="12"/>
@@ -12047,7 +12069,7 @@
       <c r="Z69" s="13"/>
       <c r="AA69" t="str">
         <f>_xlfn.CONCAT("INSERT INTO ",C67, "(", _xlfn.TEXTJOIN(",",TRUE,C68:Z68),") VALUES")</f>
-        <v>INSERT INTO TB_USER(USER_ID,USER_PW,USER_NM,ROLE_SEQ,FST_REG_SEQ,LST_UPD_ID) VALUES</v>
+        <v>INSERT INTO TB_USER(USER_ID,USER_PW,USER_NM,ROLE_SEQ,FST_REG_SEQ,LST_UPD_SEQ) VALUES</v>
       </c>
     </row>
     <row r="70" spans="2:27">
@@ -13166,14 +13188,14 @@
       <c r="B112" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C112" s="32" t="s">
+      <c r="C112" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="D112" s="32"/>
-      <c r="E112" s="32"/>
-      <c r="F112" s="32"/>
-      <c r="G112" s="32"/>
-      <c r="H112" s="32"/>
+      <c r="D112" s="39"/>
+      <c r="E112" s="39"/>
+      <c r="F112" s="39"/>
+      <c r="G112" s="39"/>
+      <c r="H112" s="39"/>
     </row>
     <row r="113" spans="2:27">
       <c r="B113" s="10" t="s">
@@ -13195,7 +13217,7 @@
         <v>456</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="K113" s="12"/>
       <c r="L113" s="12"/>
@@ -13254,7 +13276,7 @@
       <c r="Z114" s="13"/>
       <c r="AA114" t="str">
         <f>_xlfn.CONCAT("INSERT INTO ",C112, "(", _xlfn.TEXTJOIN(",",TRUE,C113:Z113),") VALUES")</f>
-        <v>INSERT INTO TB_ROLE(ROLE_SEQ,ROLE_NM,ROLE_ORDER,RMRK,FST_REG_SEQ,LST_UPD_ID) VALUES</v>
+        <v>INSERT INTO TB_ROLE(ROLE_SEQ,ROLE_NM,ROLE_ORDER,RMRK,FST_REG_SEQ,LST_UPD_SEQ) VALUES</v>
       </c>
     </row>
     <row r="115" spans="2:27">
@@ -13347,12 +13369,12 @@
       <c r="B119" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C119" s="38" t="s">
+      <c r="C119" s="40" t="s">
         <v>253</v>
       </c>
-      <c r="D119" s="39"/>
-      <c r="E119" s="39"/>
-      <c r="F119" s="39"/>
+      <c r="D119" s="41"/>
+      <c r="E119" s="41"/>
+      <c r="F119" s="41"/>
     </row>
     <row r="120" spans="2:27">
       <c r="B120" s="10" t="s">
@@ -13368,7 +13390,7 @@
         <v>456</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="K120" s="12"/>
       <c r="L120" s="12"/>
@@ -13421,7 +13443,7 @@
       <c r="Z121" s="13"/>
       <c r="AA121" t="str">
         <f>_xlfn.CONCAT("INSERT INTO ",C119, "(", _xlfn.TEXTJOIN(",",TRUE,C120:Z120),") VALUES")</f>
-        <v>INSERT INTO TB_USER_ROLE_MAP(USER_SEQ,ROLE_SEQ,FST_REG_SEQ,LST_UPD_ID) VALUES</v>
+        <v>INSERT INTO TB_USER_ROLE_MAP(USER_SEQ,ROLE_SEQ,FST_REG_SEQ,LST_UPD_SEQ) VALUES</v>
       </c>
     </row>
     <row r="122" spans="2:27">
@@ -14294,18 +14316,18 @@
       <c r="B164" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C164" s="32" t="s">
+      <c r="C164" s="39" t="s">
         <v>442</v>
       </c>
-      <c r="D164" s="32"/>
-      <c r="E164" s="32"/>
-      <c r="F164" s="32"/>
-      <c r="G164" s="32"/>
-      <c r="H164" s="32"/>
-      <c r="I164" s="32"/>
-      <c r="J164" s="32"/>
-      <c r="K164" s="32"/>
-      <c r="L164" s="32"/>
+      <c r="D164" s="39"/>
+      <c r="E164" s="39"/>
+      <c r="F164" s="39"/>
+      <c r="G164" s="39"/>
+      <c r="H164" s="39"/>
+      <c r="I164" s="39"/>
+      <c r="J164" s="39"/>
+      <c r="K164" s="39"/>
+      <c r="L164" s="39"/>
     </row>
     <row r="165" spans="2:27">
       <c r="B165" s="10" t="s">
@@ -14339,7 +14361,7 @@
         <v>457</v>
       </c>
       <c r="L165" s="5" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="M165" s="12"/>
       <c r="N165" s="12"/>
@@ -14406,7 +14428,7 @@
       <c r="Z166" s="13"/>
       <c r="AA166" t="str">
         <f>_xlfn.CONCAT("INSERT INTO ",C164, "(", _xlfn.TEXTJOIN(",",TRUE,C165:Z165),") VALUES")</f>
-        <v>INSERT INTO TB_ITEM(ITEM_SEQ,ITEM_NM,PRICE,UNIT,RMRK,IMG,ITEM_TYPE_CODE,ITEM_DTL_TYPE_CODE,FST_REG_SEQ,LST_UPD_ID) VALUES</v>
+        <v>INSERT INTO TB_ITEM(ITEM_SEQ,ITEM_NM,PRICE,UNIT,RMRK,IMG,ITEM_TYPE_CODE,ITEM_DTL_TYPE_CODE,FST_REG_SEQ,LST_UPD_SEQ) VALUES</v>
       </c>
     </row>
     <row r="167" spans="2:27">
@@ -16343,10 +16365,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCCE5D6-4248-4400-A48F-6A536530056C}">
-  <dimension ref="A1:AA40"/>
+  <dimension ref="B1:AA42"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -16371,46 +16393,40 @@
     <col min="27" max="27" width="192.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
-      <c r="A1" s="40"/>
-      <c r="B1" s="40"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-    </row>
-    <row r="2" spans="1:27">
+    <row r="1" spans="2:27">
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+    </row>
+    <row r="2" spans="2:27">
       <c r="B2" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+    </row>
+    <row r="3" spans="2:27">
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
@@ -16451,7 +16467,7 @@
         <v>456</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="R3" s="13"/>
       <c r="S3" s="13"/>
@@ -16467,7 +16483,7 @@
         <v>TRUNCATE TB_MNU;</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="2:27">
       <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
@@ -16521,10 +16537,10 @@
       <c r="Z4" s="13"/>
       <c r="AA4" t="str">
         <f>_xlfn.CONCAT("INSERT INTO ",C2, "(", _xlfn.TEXTJOIN(",",TRUE,C3:Z3),") VALUES")</f>
-        <v>INSERT INTO TB_MNU(MNU_SEQ,URL,MNU_NM,COMPNT_PATH,COMPNT_NM,UPPER_MNU_SEQ,OPEN_YN,AUTH_YN,MNU_LV,MNU_ORDER,MNU_INFO,FST_REG_SEQ,LST_UPD_ID) VALUES</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+        <v>INSERT INTO TB_MNU(MNU_SEQ,URL,MNU_NM,COMPNT_PATH,COMPNT_NM,UPPER_MNU_SEQ,OPEN_YN,AUTH_YN,MNU_LV,MNU_ORDER,MNU_INFO,FST_REG_SEQ,LST_UPD_SEQ) VALUES</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -16532,16 +16548,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>687</v>
+        <v>710</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>233</v>
+        <v>713</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>181</v>
+        <v>228</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>691</v>
+        <v>709</v>
       </c>
       <c r="H5" s="8">
         <v>0</v>
@@ -16559,7 +16575,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>236</v>
+        <v>711</v>
       </c>
       <c r="N5" s="1">
         <v>1</v>
@@ -16568,11 +16584,11 @@
         <v>1</v>
       </c>
       <c r="AA5" t="str">
-        <f t="shared" ref="AA5:AA6" si="0">_xlfn.CONCAT(IF(B5=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C5:Z5),")")</f>
-        <v>(1,"admin/admin-home","관리자","admin","admin-home",0,"Y","Y",1,1,"관리자 관련 대메뉴",1,1)</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+        <f t="shared" ref="AA5" si="0">_xlfn.CONCAT(IF(B5=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C5:Z5),")")</f>
+        <v>(1,"market/item","마켓","market","item",0,"Y","Y",1,1,"상품 관련 대메뉴",1,1)</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27">
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -16580,16 +16596,16 @@
         <v>2</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>687</v>
+        <v>710</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>238</v>
+        <v>670</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>181</v>
+        <v>228</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>691</v>
+        <v>709</v>
       </c>
       <c r="H6" s="8">
         <v>1</v>
@@ -16607,485 +16623,489 @@
         <v>1</v>
       </c>
       <c r="M6" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA6" t="str">
+        <f t="shared" ref="AA6" si="1">_xlfn.CONCAT(IF(B6=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C6:Z6),")")</f>
+        <v>,(2,"market/item","상품","market","item",1,"Y","Y",2,1,"상품 정보를 조회할 수 있는 메뉴입니다.",1,1)</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA7" t="str">
+        <f t="shared" ref="AA7:AA8" si="2">_xlfn.CONCAT(IF(B7=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C7:Z7),")")</f>
+        <v>,(3,"admin/admin-home","관리자","admin","admin-home",0,"Y","Y",1,1,"관리자 관련 대메뉴",1,1)</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="H8" s="8">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="N6" s="1">
-        <v>1</v>
-      </c>
-      <c r="O6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA6" t="str">
-        <f t="shared" si="0"/>
-        <v>,(2,"admin/admin-home","관리자홈","admin","admin-home",1,"Y","Y",2,1,"관리자가 사이트 현황을 조회할 수 있는 메뉴입니다.",1,1)</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
-      <c r="AA7" t="s">
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA8" t="str">
+        <f t="shared" si="2"/>
+        <v>,(4,"admin/admin-home","관리자홈","admin","admin-home",2,"Y","Y",2,1,"관리자가 사이트 현황을 조회할 수 있는 메뉴입니다.",1,1)</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27">
+      <c r="AA9" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
-      <c r="B8" s="17" t="s">
+    <row r="10" spans="2:27">
+      <c r="B10" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C10" s="39" t="s">
         <v>257</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-    </row>
-    <row r="9" spans="1:27">
-      <c r="B9" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="17" t="s">
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+    </row>
+    <row r="11" spans="2:27">
+      <c r="B11" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D11" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E11" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F11" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G11" s="17" t="s">
         <v>456</v>
       </c>
-      <c r="H9" s="17" t="s">
-        <v>708</v>
-      </c>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="14" t="str">
-        <f>_xlfn.CONCAT("TRUNCATE ",C8,";")</f>
+      <c r="H11" s="17" t="s">
+        <v>714</v>
+      </c>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="14" t="str">
+        <f>_xlfn.CONCAT("TRUNCATE ",C10,";")</f>
         <v>TRUNCATE TB_AUTH;</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
-      <c r="B10" s="17" t="s">
+    <row r="12" spans="2:27">
+      <c r="B12" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C12" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D12" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E12" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F12" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G12" s="17" t="s">
         <v>677</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H12" s="17" t="s">
         <v>683</v>
       </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO ",C8, "(", _xlfn.TEXTJOIN(",",TRUE,C9:Z9),")")</f>
-        <v>INSERT INTO TB_AUTH(MNU_SEQ,ROLE_SEQ,AUTH_GRADE,AUTH_NM,FST_REG_SEQ,LST_UPD_ID)</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D11" s="8">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1">
-        <v>99</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA11" t="str">
-        <f>_xlfn.CONCAT(IF(B11&lt;&gt;1,"UNION ALL ",""),"SELECT ",_xlfn.TEXTJOIN(",",TRUE,C11:Z11)," FROM ", $C$14)</f>
-        <v>SELECT MNU_SEQ,3,99,"관리자",1,1 FROM TB_MNU</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
-      <c r="B12" s="1">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D12" s="8">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1">
-        <v>98</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
       <c r="AA12" t="str">
-        <f>_xlfn.CONCAT(IF(B12&lt;&gt;1,"UNION ALL ",""),"SELECT ",_xlfn.TEXTJOIN(",",TRUE,C12:Z12)," FROM ", $C$14)</f>
-        <v>UNION ALL SELECT MNU_SEQ,2,98,"게스트",1,1 FROM TB_MNU</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
+        <f>_xlfn.CONCAT("INSERT INTO ",C10, "(", _xlfn.TEXTJOIN(",",TRUE,C11:Z11),")")</f>
+        <v>INSERT INTO TB_AUTH(MNU_SEQ,ROLE_SEQ,AUTH_GRADE,AUTH_NM,FST_REG_SEQ,LST_UPD_SEQ)</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27">
       <c r="B13" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>222</v>
       </c>
       <c r="D13" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA13" t="str">
+        <f>_xlfn.CONCAT(IF(B13&lt;&gt;1,"UNION ALL ",""),"SELECT ",_xlfn.TEXTJOIN(",",TRUE,C13:Z13)," FROM ", $C$16)</f>
+        <v>SELECT MNU_SEQ,3,99,"관리자",1,1 FROM TB_MNU</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27">
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D14" s="8">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>98</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA14" t="str">
+        <f>_xlfn.CONCAT(IF(B14&lt;&gt;1,"UNION ALL ",""),"SELECT ",_xlfn.TEXTJOIN(",",TRUE,C14:Z14)," FROM ", $C$16)</f>
+        <v>UNION ALL SELECT MNU_SEQ,2,98,"게스트",1,1 FROM TB_MNU</v>
+      </c>
+    </row>
+    <row r="15" spans="2:27">
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA13" t="str">
-        <f>_xlfn.CONCAT(IF(B13&lt;&gt;1,"UNION ALL ",""),"SELECT ",_xlfn.TEXTJOIN(",",TRUE,C13:Z13)," FROM ", $C$14)</f>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA15" t="str">
+        <f>_xlfn.CONCAT(IF(B15&lt;&gt;1,"UNION ALL ",""),"SELECT ",_xlfn.TEXTJOIN(",",TRUE,C15:Z15)," FROM ", $C$16)</f>
         <v>UNION ALL SELECT MNU_SEQ,1,1,"읽기",1,1 FROM TB_MNU</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
-      <c r="B14" s="17" t="s">
+    <row r="16" spans="2:27">
+      <c r="B16" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C16" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="AA14" t="s">
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="AA16" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
-      <c r="B15" s="17" t="s">
+    <row r="17" spans="2:27">
+      <c r="B17" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C17" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="AA15" t="str">
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="AA17" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,"UPDATE TB_AUTH T1 SET T1.AUTH_GRADE = 0, T1.AUTH_NM = '권한없음' WHERE T1.ROLE_SEQ = 1 AND EXISTS (SELECT 1 FROM TB_MNU WHERE MNU_SEQ = T1.MNU_SEQ AND URL LIKE 'admin%')")</f>
         <v>UPDATE TB_AUTH T1 SET T1.AUTH_GRADE = 0, T1.AUTH_NM = '권한없음' WHERE T1.ROLE_SEQ = 1 AND EXISTS (SELECT 1 FROM TB_MNU WHERE MNU_SEQ = T1.MNU_SEQ AND URL LIKE 'admin%')</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
-      <c r="AA16" t="s">
+    <row r="18" spans="2:27">
+      <c r="AA18" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="18" spans="2:27">
-      <c r="AA18" s="18"/>
-    </row>
-    <row r="21" spans="2:27">
-      <c r="B21" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>684</v>
-      </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-    </row>
-    <row r="22" spans="2:27">
-      <c r="B22" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>680</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>681</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="O22" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="14" t="str">
-        <f>_xlfn.CONCAT("TRUNCATE ",C21,";")</f>
-        <v>TRUNCATE TB_MNU_BAK;</v>
-      </c>
+    <row r="20" spans="2:27">
+      <c r="AA20" s="18"/>
     </row>
     <row r="23" spans="2:27">
       <c r="B23" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>684</v>
+      </c>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+    </row>
+    <row r="24" spans="2:27">
+      <c r="B24" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="14" t="str">
+        <f>_xlfn.CONCAT("TRUNCATE ",C23,";")</f>
+        <v>TRUNCATE TB_MNU_BAK;</v>
+      </c>
+    </row>
+    <row r="25" spans="2:27">
+      <c r="B25" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F25" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G25" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H25" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I25" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J25" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="K25" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="L23" s="5" t="s">
+      <c r="L25" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="M23" s="5" t="s">
+      <c r="M25" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="N23" s="5" t="s">
+      <c r="N25" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="O23" s="5" t="s">
+      <c r="O25" s="5" t="s">
         <v>683</v>
       </c>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO ",C21, "(", _xlfn.TEXTJOIN(",",TRUE,C22:Z22),") VALUES")</f>
-        <v>INSERT INTO TB_MNU_BAK(MNU_SEQ,URL,MNU_NM,COMPNT_NM,TOP_URL,UPPER_URL,OPEN_YN,AUTH_YN,MNU_LV,MNU_INFO,MNU_ORDER,FST_REG_SEQ,LST_UPD_ID) VALUES</v>
-      </c>
-    </row>
-    <row r="24" spans="2:27">
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="K24" s="1">
-        <v>1</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="M24" s="1">
-        <v>1</v>
-      </c>
-      <c r="N24" s="1">
-        <v>1</v>
-      </c>
-      <c r="O24" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA24" t="str">
-        <f t="shared" ref="AA24:AA39" si="1">_xlfn.CONCAT(IF(B24=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C24:Z24),")")</f>
-        <v>(1,"admin","관리자","admin/adminHome","#","Y","Y",1,"관리자 관련 대메뉴",1,1,1)</v>
-      </c>
-    </row>
-    <row r="25" spans="2:27">
-      <c r="B25" s="1">
-        <v>2</v>
-      </c>
-      <c r="C25" s="1">
-        <v>2</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="K25" s="1">
-        <v>2</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="M25" s="1">
-        <v>1</v>
-      </c>
-      <c r="N25" s="1">
-        <v>1</v>
-      </c>
-      <c r="O25" s="1">
-        <v>1</v>
-      </c>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="13"/>
       <c r="AA25" t="str">
-        <f t="shared" si="1"/>
-        <v>,(2,"admin/adminHome","관리자홈","admin/adminHome","admin","Y","Y",2,"관리자가 사이트 현황을 조회할 수 있는 메뉴입니다.",1,1,1)</v>
+        <f>_xlfn.CONCAT("INSERT INTO ",C23, "(", _xlfn.TEXTJOIN(",",TRUE,C24:Z24),") VALUES")</f>
+        <v>INSERT INTO TB_MNU_BAK(MNU_SEQ,URL,MNU_NM,COMPNT_NM,TOP_URL,UPPER_URL,OPEN_YN,AUTH_YN,MNU_LV,MNU_INFO,MNU_ORDER,FST_REG_SEQ,LST_UPD_SEQ) VALUES</v>
       </c>
     </row>
     <row r="26" spans="2:27">
       <c r="B26" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C26" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>239</v>
+        <v>181</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8" t="s">
         <v>237</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>181</v>
+        <v>353</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>206</v>
@@ -17094,13 +17114,13 @@
         <v>206</v>
       </c>
       <c r="K26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="M26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N26" s="1">
         <v>1</v>
@@ -17109,22 +17129,22 @@
         <v>1</v>
       </c>
       <c r="AA26" t="str">
-        <f t="shared" si="1"/>
-        <v>,(3,"admin/loginLog","접속기록조회","admin/adminHome","admin","Y","Y",2,"관리자가 사용자의 접속 기록을 조회할 수 있는 메뉴입니다.",2,1,1)</v>
+        <f t="shared" ref="AA26:AA41" si="3">_xlfn.CONCAT(IF(B26=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C26:Z26),")")</f>
+        <v>(1,"admin","관리자","admin/adminHome","#","Y","Y",1,"관리자 관련 대메뉴",1,1,1)</v>
       </c>
     </row>
     <row r="27" spans="2:27">
       <c r="B27" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C27" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8" t="s">
@@ -17143,10 +17163,10 @@
         <v>2</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>267</v>
+        <v>430</v>
       </c>
       <c r="M27" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N27" s="1">
         <v>1</v>
@@ -17155,22 +17175,22 @@
         <v>1</v>
       </c>
       <c r="AA27" t="str">
-        <f t="shared" si="1"/>
-        <v>,(4,"admin/requestLog","요청기록조회","admin/adminHome","admin","Y","Y",2,"관리자가 서버에 발생한 요청 기록을 조회할 수 있는 메뉴입니다.",3,1,1)</v>
+        <f t="shared" si="3"/>
+        <v>,(2,"admin/adminHome","관리자홈","admin/adminHome","admin","Y","Y",2,"관리자가 사이트 현황을 조회할 수 있는 메뉴입니다.",1,1,1)</v>
       </c>
     </row>
     <row r="28" spans="2:27">
       <c r="B28" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C28" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>304</v>
+        <v>239</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>434</v>
+        <v>240</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8" t="s">
@@ -17189,10 +17209,10 @@
         <v>2</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>350</v>
+        <v>263</v>
       </c>
       <c r="M28" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N28" s="1">
         <v>1</v>
@@ -17201,22 +17221,22 @@
         <v>1</v>
       </c>
       <c r="AA28" t="str">
-        <f t="shared" si="1"/>
-        <v>,(5,"admin/manageRole","권한그룹관리","admin/adminHome","admin","Y","Y",2,"관리자가 권한그룹 정보를 조회 및 관리할 수 있는 메뉴입니다.",4,1,1)</v>
+        <f t="shared" si="3"/>
+        <v>,(3,"admin/loginLog","접속기록조회","admin/adminHome","admin","Y","Y",2,"관리자가 사용자의 접속 기록을 조회할 수 있는 메뉴입니다.",2,1,1)</v>
       </c>
     </row>
     <row r="29" spans="2:27">
       <c r="B29" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C29" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>354</v>
+        <v>265</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>431</v>
+        <v>266</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8" t="s">
@@ -17235,10 +17255,10 @@
         <v>2</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>355</v>
+        <v>267</v>
       </c>
       <c r="M29" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N29" s="1">
         <v>1</v>
@@ -17247,22 +17267,22 @@
         <v>1</v>
       </c>
       <c r="AA29" t="str">
-        <f t="shared" si="1"/>
-        <v>,(6,"admin/manageAuth","권한관리","admin/adminHome","admin","Y","Y",2,"관리자가 권한 정보를 조회 및 관리할 수 있는 메뉴입니다.",5,1,1)</v>
+        <f t="shared" si="3"/>
+        <v>,(4,"admin/requestLog","요청기록조회","admin/adminHome","admin","Y","Y",2,"관리자가 서버에 발생한 요청 기록을 조회할 수 있는 메뉴입니다.",3,1,1)</v>
       </c>
     </row>
     <row r="30" spans="2:27">
       <c r="B30" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C30" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>349</v>
+        <v>304</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8" t="s">
@@ -17281,10 +17301,10 @@
         <v>2</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M30" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N30" s="1">
         <v>1</v>
@@ -17293,22 +17313,22 @@
         <v>1</v>
       </c>
       <c r="AA30" t="str">
-        <f t="shared" si="1"/>
-        <v>,(7,"admin/manageMnu","메뉴관리","admin/adminHome","admin","Y","Y",2,"관리자가 메뉴 정보를 조회 및 관리할 수 있는 메뉴입니다.",6,1,1)</v>
+        <f t="shared" si="3"/>
+        <v>,(5,"admin/manageRole","권한그룹관리","admin/adminHome","admin","Y","Y",2,"관리자가 권한그룹 정보를 조회 및 관리할 수 있는 메뉴입니다.",4,1,1)</v>
       </c>
     </row>
     <row r="31" spans="2:27">
       <c r="B31" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C31" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>410</v>
+        <v>354</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8" t="s">
@@ -17327,10 +17347,10 @@
         <v>2</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>411</v>
+        <v>355</v>
       </c>
       <c r="M31" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N31" s="1">
         <v>1</v>
@@ -17339,44 +17359,44 @@
         <v>1</v>
       </c>
       <c r="AA31" t="str">
-        <f t="shared" si="1"/>
-        <v>,(8,"admin/manageUser","사용자관리","admin/adminHome","admin","Y","Y",2,"관리자가 사용자 정보를 조회 및 관리할 수 있는 메뉴입니다.",7,1,1)</v>
+        <f t="shared" si="3"/>
+        <v>,(6,"admin/manageAuth","권한관리","admin/adminHome","admin","Y","Y",2,"관리자가 권한 정보를 조회 및 관리할 수 있는 메뉴입니다.",5,1,1)</v>
       </c>
     </row>
     <row r="32" spans="2:27">
       <c r="B32" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C32" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>462</v>
+        <v>349</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>464</v>
+        <v>432</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8" t="s">
-        <v>463</v>
+        <v>237</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>206</v>
       </c>
       <c r="K32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>465</v>
+        <v>351</v>
       </c>
       <c r="M32" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N32" s="1">
         <v>1</v>
@@ -17385,32 +17405,32 @@
         <v>1</v>
       </c>
       <c r="AA32" t="str">
-        <f t="shared" si="1"/>
-        <v>,(9,"mart","마트","mart/cart","#","N","Y",1,"마트 관련 대메뉴",3,1,1)</v>
+        <f t="shared" si="3"/>
+        <v>,(7,"admin/manageMnu","메뉴관리","admin/adminHome","admin","Y","Y",2,"관리자가 메뉴 정보를 조회 및 관리할 수 있는 메뉴입니다.",6,1,1)</v>
       </c>
     </row>
     <row r="33" spans="2:27">
       <c r="B33" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C33" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>669</v>
+        <v>410</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>670</v>
+        <v>433</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8" t="s">
-        <v>669</v>
+        <v>237</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>462</v>
+        <v>181</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>206</v>
@@ -17419,10 +17439,10 @@
         <v>2</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>671</v>
+        <v>411</v>
       </c>
       <c r="M33" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N33" s="1">
         <v>1</v>
@@ -17431,29 +17451,29 @@
         <v>1</v>
       </c>
       <c r="AA33" t="str">
-        <f t="shared" si="1"/>
-        <v>,(10,"mart/item","상품","mart/item","mart","N","Y",2,"상품 목록을 조회 및 관리하는 메뉴입니다.",1,1,1)</v>
+        <f t="shared" si="3"/>
+        <v>,(8,"admin/manageUser","사용자관리","admin/adminHome","admin","Y","Y",2,"관리자가 사용자 정보를 조회 및 관리할 수 있는 메뉴입니다.",7,1,1)</v>
       </c>
     </row>
     <row r="34" spans="2:27">
       <c r="B34" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C34" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8" t="s">
         <v>463</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>462</v>
+        <v>353</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>177</v>
@@ -17462,13 +17482,13 @@
         <v>206</v>
       </c>
       <c r="K34" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="M34" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N34" s="1">
         <v>1</v>
@@ -17477,32 +17497,32 @@
         <v>1</v>
       </c>
       <c r="AA34" t="str">
-        <f t="shared" si="1"/>
-        <v>,(11,"mart/cart","장바구니","mart/cart","mart","N","Y",2,"장바구니에 추가한 상품 목록을 관리하는 메뉴입니다.",2,1,1)</v>
+        <f t="shared" si="3"/>
+        <v>,(9,"mart","마트","mart/cart","#","N","Y",1,"마트 관련 대메뉴",3,1,1)</v>
       </c>
     </row>
     <row r="35" spans="2:27">
       <c r="B35" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C35" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="H35" s="8" t="s">
         <v>462</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>206</v>
@@ -17511,10 +17531,10 @@
         <v>2</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="M35" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N35" s="1">
         <v>1</v>
@@ -17523,44 +17543,44 @@
         <v>1</v>
       </c>
       <c r="AA35" t="str">
-        <f t="shared" si="1"/>
-        <v>,(12,"mart/request","상품요청","mart/request","mart","Y","Y",2,"신규 상품 추가를 요청하는 메뉴입니다.",3,1,1)</v>
+        <f t="shared" si="3"/>
+        <v>,(10,"mart/item","상품","mart/item","mart","N","Y",2,"상품 목록을 조회 및 관리하는 메뉴입니다.",1,1,1)</v>
       </c>
     </row>
     <row r="36" spans="2:27">
       <c r="B36" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C36" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>224</v>
+        <v>463</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>225</v>
+        <v>461</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8" t="s">
-        <v>244</v>
+        <v>463</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>353</v>
+        <v>462</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>206</v>
       </c>
       <c r="K36" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>226</v>
+        <v>466</v>
       </c>
       <c r="M36" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N36" s="1">
         <v>1</v>
@@ -17569,29 +17589,29 @@
         <v>1</v>
       </c>
       <c r="AA36" t="str">
-        <f t="shared" si="1"/>
-        <v>,(13,"info","정보","info/notice","#","Y","Y",1,"정보 관련 대메뉴",6,1,1)</v>
+        <f t="shared" si="3"/>
+        <v>,(11,"mart/cart","장바구니","mart/cart","mart","N","Y",2,"장바구니에 추가한 상품 목록을 관리하는 메뉴입니다.",2,1,1)</v>
       </c>
     </row>
     <row r="37" spans="2:27">
       <c r="B37" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C37" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>244</v>
+        <v>666</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>179</v>
+        <v>667</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8" t="s">
-        <v>244</v>
+        <v>666</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>224</v>
+        <v>462</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>206</v>
@@ -17603,10 +17623,10 @@
         <v>2</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>264</v>
+        <v>668</v>
       </c>
       <c r="M37" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N37" s="1">
         <v>1</v>
@@ -17615,32 +17635,32 @@
         <v>1</v>
       </c>
       <c r="AA37" t="str">
-        <f t="shared" si="1"/>
-        <v>,(14,"info/notice","공지사항","info/notice","info","Y","Y",2,"공지사항 목록을 조회하는 메뉴입니다.",1,1,1)</v>
+        <f t="shared" si="3"/>
+        <v>,(12,"mart/request","상품요청","mart/request","mart","Y","Y",2,"신규 상품 추가를 요청하는 메뉴입니다.",3,1,1)</v>
       </c>
     </row>
     <row r="38" spans="2:27">
       <c r="B38" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C38" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="8" t="s">
-        <v>425</v>
+        <v>244</v>
       </c>
       <c r="H38" s="8" t="s">
         <v>353</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>206</v>
@@ -17649,10 +17669,10 @@
         <v>1</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="M38" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N38" s="1">
         <v>1</v>
@@ -17661,32 +17681,32 @@
         <v>1</v>
       </c>
       <c r="AA38" t="str">
-        <f t="shared" si="1"/>
-        <v>,(15,"user","사용자","user/myPage","#","N","Y",1,"사용자 관련 대메뉴",7,1,1)</v>
+        <f t="shared" si="3"/>
+        <v>,(13,"info","정보","info/notice","#","Y","Y",1,"정보 관련 대메뉴",6,1,1)</v>
       </c>
     </row>
     <row r="39" spans="2:27">
       <c r="B39" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C39" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>425</v>
+        <v>244</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>426</v>
+        <v>179</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8" t="s">
-        <v>425</v>
+        <v>244</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>206</v>
@@ -17695,54 +17715,151 @@
         <v>2</v>
       </c>
       <c r="L39" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="M39" s="1">
+        <v>1</v>
+      </c>
+      <c r="N39" s="1">
+        <v>1</v>
+      </c>
+      <c r="O39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA39" t="str">
+        <f t="shared" si="3"/>
+        <v>,(14,"info/notice","공지사항","info/notice","info","Y","Y",2,"공지사항 목록을 조회하는 메뉴입니다.",1,1,1)</v>
+      </c>
+    </row>
+    <row r="40" spans="2:27">
+      <c r="B40" s="1">
+        <v>15</v>
+      </c>
+      <c r="C40" s="1">
+        <v>15</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K40" s="1">
+        <v>1</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M40" s="1">
+        <v>7</v>
+      </c>
+      <c r="N40" s="1">
+        <v>1</v>
+      </c>
+      <c r="O40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA40" t="str">
+        <f t="shared" si="3"/>
+        <v>,(15,"user","사용자","user/myPage","#","N","Y",1,"사용자 관련 대메뉴",7,1,1)</v>
+      </c>
+    </row>
+    <row r="41" spans="2:27">
+      <c r="B41" s="1">
+        <v>16</v>
+      </c>
+      <c r="C41" s="1">
+        <v>16</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K41" s="1">
+        <v>2</v>
+      </c>
+      <c r="L41" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="M39" s="1">
-        <v>1</v>
-      </c>
-      <c r="N39" s="1">
-        <v>1</v>
-      </c>
-      <c r="O39" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA39" t="str">
-        <f t="shared" si="1"/>
+      <c r="M41" s="1">
+        <v>1</v>
+      </c>
+      <c r="N41" s="1">
+        <v>1</v>
+      </c>
+      <c r="O41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA41" t="str">
+        <f t="shared" si="3"/>
         <v>,(16,"user/myPage","마이페이지","user/myPage","user","N","Y",2,"자신의 정보를 조회 및 관리할 수 있는 메뉴입니다.",1,1,1)</v>
       </c>
     </row>
-    <row r="40" spans="2:27">
-      <c r="AA40" t="s">
+    <row r="42" spans="2:27">
+      <c r="AA42" t="s">
         <v>161</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="C21:N21"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C23:N23"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C17:H17"/>
     <mergeCell ref="C2:N2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B24:O39">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$J24 = 1</formula>
+  <conditionalFormatting sqref="D7:O8">
+    <cfRule type="expression" dxfId="4" priority="8">
+      <formula>$I7 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:O6">
-    <cfRule type="expression" dxfId="2" priority="6">
+  <conditionalFormatting sqref="B26:O41">
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>$J26 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7:L8">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$I53 = 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:O6 B5:C8">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$I5 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K6">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$I51 = 1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L6">
+  <conditionalFormatting sqref="K5:L6">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$I51 = 1</formula>
+      <formula>$I52 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/산출물/테이블 명세서/MiniPX_테이블 명세서_V0.2.xlsx
+++ b/산출물/테이블 명세서/MiniPX_테이블 명세서_V0.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\miniPX\산출물\테이블 명세서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F41823-0C1E-4CB5-86C2-DDCF984E32C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA881CF-7348-47BD-A72E-57F3096C1FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="571" activeTab="3" xr2:uid="{C65CB968-5333-48BF-B9BC-AA4409770CFC}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="571" activeTab="3" xr2:uid="{C65CB968-5333-48BF-B9BC-AA4409770CFC}"/>
   </bookViews>
   <sheets>
     <sheet name="개정이력" sheetId="7" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="718">
   <si>
     <t>의미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2514,10 +2514,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"admin/admin-home"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OPEN_YN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2605,10 +2601,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"market/item"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"상품 관련 대메뉴"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2622,6 +2614,26 @@
   </si>
   <si>
     <t>LST_UPD_SEQ</t>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"/market"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"/market/item"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"/admin"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"/admin/admin-home"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2930,6 +2942,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2945,9 +2960,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2958,18 +2970,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <b/>
@@ -3336,22 +3337,22 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="3" width="13.19921875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="43.3984375" customWidth="1"/>
-    <col min="5" max="5" width="10.8984375" style="3" customWidth="1"/>
+    <col min="2" max="3" width="13.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="43.375" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" s="6" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>29</v>
@@ -3365,7 +3366,7 @@
         <v>45809</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>39</v>
@@ -3379,7 +3380,7 @@
         <v>45838</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>39</v>
@@ -3527,35 +3528,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3FA1B2-35B2-404A-91D2-564CF6C84D17}">
   <dimension ref="B2:J270"/>
   <sheetViews>
-    <sheetView topLeftCell="A238" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A199" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I272" sqref="I272"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="2.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="76.09765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="107.69921875" customWidth="1"/>
+    <col min="8" max="8" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="76.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="107.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="37"/>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="6" t="s">
@@ -3591,15 +3592,15 @@
       <c r="B4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
       <c r="J4" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C3)</f>
         <v>CREATE TABLE TB_USER</v>
@@ -4050,7 +4051,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>459</v>
@@ -4078,7 +4079,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>68</v>
@@ -4108,16 +4109,16 @@
       </c>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="37"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="6" t="s">
@@ -4153,15 +4154,15 @@
       <c r="B26" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
       <c r="J26" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C25)</f>
         <v>CREATE TABLE TB_CODE_GROUP</v>
@@ -4340,7 +4341,7 @@
         <v>6</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>459</v>
@@ -4368,7 +4369,7 @@
         <v>7</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>68</v>
@@ -4401,17 +4402,17 @@
       <c r="B36" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38" t="s">
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
       <c r="J36" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C25," ADD CONSTRAINT ",C37," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_CODE_GROUP ADD CONSTRAINT PK_TB_CODE_GROUP PRIMARY KEY (</v>
@@ -4421,19 +4422,19 @@
       <c r="B37" s="4">
         <v>1</v>
       </c>
-      <c r="C37" s="39" t="str">
+      <c r="C37" s="34" t="str">
         <f>_xlfn.CONCAT("PK_",C25)</f>
         <v>PK_TB_CODE_GROUP</v>
       </c>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39" t="str">
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34" t="str">
         <f>C28</f>
         <v>CODE_GROUP</v>
       </c>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
       <c r="J37" t="str">
         <f>_xlfn.CONCAT(IF(B37=1,"",", "),F37)</f>
         <v>CODE_GROUP</v>
@@ -4446,16 +4447,16 @@
       </c>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="37"/>
     </row>
     <row r="40" spans="2:10">
       <c r="B40" s="6" t="s">
@@ -4491,15 +4492,15 @@
       <c r="B41" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="37" t="s">
+      <c r="C41" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="37"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
       <c r="J41" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C40)</f>
         <v>CREATE TABLE TB_CODE_DETAIL</v>
@@ -4734,7 +4735,7 @@
         <v>8</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>459</v>
@@ -4762,7 +4763,7 @@
         <v>9</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>68</v>
@@ -4795,17 +4796,17 @@
       <c r="B53" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="38" t="s">
+      <c r="C53" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38" t="s">
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
       <c r="J53" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C40," ADD CONSTRAINT ",C54," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_CODE_DETAIL ADD CONSTRAINT PK_TB_CODE_DETAIL PRIMARY KEY (</v>
@@ -4815,19 +4816,19 @@
       <c r="B54" s="4">
         <v>1</v>
       </c>
-      <c r="C54" s="39" t="str">
+      <c r="C54" s="34" t="str">
         <f>_xlfn.CONCAT("PK_",C40)</f>
         <v>PK_TB_CODE_DETAIL</v>
       </c>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39" t="str">
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34" t="str">
         <f>C43</f>
         <v>CODE_GROUP</v>
       </c>
-      <c r="G54" s="39"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="39"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
       <c r="J54" t="str">
         <f>_xlfn.CONCAT(IF(B54=1,"",", "),F54)</f>
         <v>CODE_GROUP</v>
@@ -4837,19 +4838,19 @@
       <c r="B55" s="4">
         <v>2</v>
       </c>
-      <c r="C55" s="39" t="str">
+      <c r="C55" s="34" t="str">
         <f>_xlfn.CONCAT("PK_",C40)</f>
         <v>PK_TB_CODE_DETAIL</v>
       </c>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39" t="str">
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34" t="str">
         <f>C44</f>
         <v>CODE_DETAIL</v>
       </c>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
       <c r="J55" t="str">
         <f>_xlfn.CONCAT(IF(B55=1,"",", "),F55)</f>
         <v>, CODE_DETAIL</v>
@@ -4862,16 +4863,16 @@
       </c>
     </row>
     <row r="57" spans="2:10">
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="36"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="37"/>
     </row>
     <row r="58" spans="2:10">
       <c r="B58" s="6" t="s">
@@ -4907,15 +4908,15 @@
       <c r="B59" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C59" s="37" t="s">
+      <c r="C59" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="D59" s="37"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="37"/>
-      <c r="I59" s="37"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
       <c r="J59" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C58)</f>
         <v>CREATE TABLE TB_LOG_LOGIN</v>
@@ -4977,7 +4978,7 @@
         <v>101</v>
       </c>
       <c r="J61" t="str">
-        <f>_xlfn.CONCAT(IF(B61=1,"",", "),C61," ",E61," ",G61,_xlfn.IFS(H61="","",H61="AUTO_INCREMENT"," AUTO_INCREMENT PRIMARY KEY",TRUE,_xlfn.CONCAT(" DEFAULT"," ",H61)), " COMMENT '",I61,"'")</f>
+        <f t="shared" ref="J61:J66" si="3">_xlfn.CONCAT(IF(B61=1,"",", "),C61," ",E61," ",G61,_xlfn.IFS(H61="","",H61="AUTO_INCREMENT"," AUTO_INCREMENT PRIMARY KEY",TRUE,_xlfn.CONCAT(" DEFAULT"," ",H61)), " COMMENT '",I61,"'")</f>
         <v>LOGIN_SEQ INT NOT NULL AUTO_INCREMENT PRIMARY KEY COMMENT '로그인일련번호'</v>
       </c>
     </row>
@@ -5005,7 +5006,7 @@
         <v>89</v>
       </c>
       <c r="J62" t="str">
-        <f t="shared" ref="J62:J66" si="3">_xlfn.CONCAT(IF(B62=1,"",", "),C62," ",E62," ",G62,_xlfn.IFS(H62="","",H62="AUTO_INCREMENT"," AUTO_INCREMENT PRIMARY KEY",TRUE,_xlfn.CONCAT(" DEFAULT"," ",H62)), " COMMENT '",I62,"'")</f>
+        <f t="shared" si="3"/>
         <v>, LOGIN_DTTI TIMESTAMP NULL DEFAULT NOW() COMMENT '로그인일시'</v>
       </c>
     </row>
@@ -5033,7 +5034,7 @@
         <v>454</v>
       </c>
       <c r="J63" t="str">
-        <f t="shared" ref="J63" si="4">_xlfn.CONCAT(IF(B63=1,"",", "),C63," ",E63," ",G63,_xlfn.IFS(H63="","",H63="AUTO_INCREMENT"," AUTO_INCREMENT PRIMARY KEY",TRUE,_xlfn.CONCAT(" DEFAULT"," ",H63)), " COMMENT '",I63,"'")</f>
+        <f t="shared" si="3"/>
         <v>, USER_SEQ INT NULL COMMENT '사용자일련번호'</v>
       </c>
     </row>
@@ -5059,7 +5060,7 @@
         <v>93</v>
       </c>
       <c r="J64" t="str">
-        <f t="shared" ref="J64" si="5">_xlfn.CONCAT(IF(B64=1,"",", "),C64," ",E64," ",G64,_xlfn.IFS(H64="","",H64="AUTO_INCREMENT"," AUTO_INCREMENT PRIMARY KEY",TRUE,_xlfn.CONCAT(" DEFAULT"," ",H64)), " COMMENT '",I64,"'")</f>
+        <f t="shared" si="3"/>
         <v>, USER_ID VARCHAR(20) NULL COMMENT '사용자아이디'</v>
       </c>
     </row>
@@ -5126,16 +5127,16 @@
       </c>
     </row>
     <row r="68" spans="2:10">
-      <c r="B68" s="34" t="s">
+      <c r="B68" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="35"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="35"/>
-      <c r="I68" s="36"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="37"/>
     </row>
     <row r="69" spans="2:10">
       <c r="B69" s="6" t="s">
@@ -5171,15 +5172,15 @@
       <c r="B70" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C70" s="37" t="s">
+      <c r="C70" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="D70" s="37"/>
-      <c r="E70" s="37"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="37"/>
-      <c r="H70" s="37"/>
-      <c r="I70" s="37"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="38"/>
+      <c r="F70" s="38"/>
+      <c r="G70" s="38"/>
+      <c r="H70" s="38"/>
+      <c r="I70" s="38"/>
       <c r="J70" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C69)</f>
         <v>CREATE TABLE TB_LOG_REQ</v>
@@ -5269,7 +5270,7 @@
         <v>187</v>
       </c>
       <c r="J73" t="str">
-        <f t="shared" ref="J73:J79" si="6">_xlfn.CONCAT(IF(B73=1,"",", "),C73," ",E73," ",G73,_xlfn.IFS(H73="","",H73="AUTO_INCREMENT"," AUTO_INCREMENT PRIMARY KEY",TRUE,_xlfn.CONCAT(" DEFAULT"," ",H73)), " COMMENT '",I73,"'")</f>
+        <f t="shared" ref="J73:J79" si="4">_xlfn.CONCAT(IF(B73=1,"",", "),C73," ",E73," ",G73,_xlfn.IFS(H73="","",H73="AUTO_INCREMENT"," AUTO_INCREMENT PRIMARY KEY",TRUE,_xlfn.CONCAT(" DEFAULT"," ",H73)), " COMMENT '",I73,"'")</f>
         <v>, REQ_DTTI TIMESTAMP NULL DEFAULT NOW() COMMENT '요청일시'</v>
       </c>
     </row>
@@ -5297,7 +5298,7 @@
         <v>454</v>
       </c>
       <c r="J74" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>, USER_SEQ INT NULL COMMENT '사용자일련번호'</v>
       </c>
     </row>
@@ -5325,7 +5326,7 @@
         <v>90</v>
       </c>
       <c r="J75" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>, USER_ID VARCHAR(20) NULL COMMENT '사용자아이디'</v>
       </c>
     </row>
@@ -5353,7 +5354,7 @@
         <v>91</v>
       </c>
       <c r="J76" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>, IP VARCHAR(39) NULL COMMENT '사용자아이피'</v>
       </c>
     </row>
@@ -5381,7 +5382,7 @@
         <v>188</v>
       </c>
       <c r="J77" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>, URI VARCHAR(100) NULL COMMENT '요청경로'</v>
       </c>
     </row>
@@ -5409,7 +5410,7 @@
         <v>189</v>
       </c>
       <c r="J78" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>, PARAM LONGTEXT NULL COMMENT '요청파라미터'</v>
       </c>
     </row>
@@ -5437,7 +5438,7 @@
         <v>193</v>
       </c>
       <c r="J79" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>, REQ_TYPE_CODE VARCHAR(100) NULL COMMENT '요청타입코드'</v>
       </c>
     </row>
@@ -5448,16 +5449,16 @@
       </c>
     </row>
     <row r="81" spans="2:10">
-      <c r="B81" s="34" t="s">
+      <c r="B81" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C81" s="35"/>
-      <c r="D81" s="35"/>
-      <c r="E81" s="35"/>
-      <c r="F81" s="35"/>
-      <c r="G81" s="35"/>
-      <c r="H81" s="35"/>
-      <c r="I81" s="36"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="36"/>
+      <c r="F81" s="36"/>
+      <c r="G81" s="36"/>
+      <c r="H81" s="36"/>
+      <c r="I81" s="37"/>
     </row>
     <row r="82" spans="2:10">
       <c r="B82" s="6" t="s">
@@ -5493,15 +5494,15 @@
       <c r="B83" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C83" s="37" t="s">
+      <c r="C83" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="D83" s="37"/>
-      <c r="E83" s="37"/>
-      <c r="F83" s="37"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="37"/>
-      <c r="I83" s="37"/>
+      <c r="D83" s="38"/>
+      <c r="E83" s="38"/>
+      <c r="F83" s="38"/>
+      <c r="G83" s="38"/>
+      <c r="H83" s="38"/>
+      <c r="I83" s="38"/>
       <c r="J83" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C82)</f>
         <v>CREATE TABLE TB_BOARD_NOTICE</v>
@@ -5589,7 +5590,7 @@
         <v>114</v>
       </c>
       <c r="J86" t="str">
-        <f t="shared" ref="J86:J95" si="7">_xlfn.CONCAT(IF(B86=1,"",", "),C86," ",E86," ",G86,_xlfn.IFS(H86="","",H86="AUTO_INCREMENT"," AUTO_INCREMENT PRIMARY KEY",TRUE,_xlfn.CONCAT(" DEFAULT"," ",H86)), " COMMENT '",I86,"'")</f>
+        <f t="shared" ref="J86:J95" si="5">_xlfn.CONCAT(IF(B86=1,"",", "),C86," ",E86," ",G86,_xlfn.IFS(H86="","",H86="AUTO_INCREMENT"," AUTO_INCREMENT PRIMARY KEY",TRUE,_xlfn.CONCAT(" DEFAULT"," ",H86)), " COMMENT '",I86,"'")</f>
         <v>, TITLE VARCHAR(300) NULL COMMENT '공지사항제목'</v>
       </c>
     </row>
@@ -5615,7 +5616,7 @@
         <v>115</v>
       </c>
       <c r="J87" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>, CN LONGTEXT NULL COMMENT '공지사항내용'</v>
       </c>
     </row>
@@ -5641,7 +5642,7 @@
         <v>118</v>
       </c>
       <c r="J88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>, STR_DT VARCHAR(8) NULL COMMENT '공지사항게시시작일'</v>
       </c>
     </row>
@@ -5667,7 +5668,7 @@
         <v>119</v>
       </c>
       <c r="J89" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>, END_DT VARCHAR(8) NULL COMMENT '공지사항게시종료일'</v>
       </c>
     </row>
@@ -5693,7 +5694,7 @@
         <v>117</v>
       </c>
       <c r="J90" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>, POP_YN CHAR(1) NULL COMMENT '공지사항팝업여부'</v>
       </c>
     </row>
@@ -5721,7 +5722,7 @@
         <v>116</v>
       </c>
       <c r="J91" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>, HIT INT NULL DEFAULT 0 COMMENT '공지사항조회수'</v>
       </c>
     </row>
@@ -5749,7 +5750,7 @@
         <v>458</v>
       </c>
       <c r="J92" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>, FST_REG_SEQ INT NOT NULL COMMENT '최초등록자일련번호'</v>
       </c>
     </row>
@@ -5777,7 +5778,7 @@
         <v>66</v>
       </c>
       <c r="J93" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
@@ -5786,7 +5787,7 @@
         <v>10</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>459</v>
@@ -5805,7 +5806,7 @@
         <v>459</v>
       </c>
       <c r="J94" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>, LST_UPD_SEQ INT NOT NULL COMMENT '최종수정자일련번호'</v>
       </c>
     </row>
@@ -5814,7 +5815,7 @@
         <v>11</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>68</v>
@@ -5833,7 +5834,7 @@
         <v>68</v>
       </c>
       <c r="J95" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>, LST_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
@@ -5844,16 +5845,16 @@
       </c>
     </row>
     <row r="97" spans="2:10">
-      <c r="B97" s="34" t="s">
+      <c r="B97" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C97" s="35"/>
-      <c r="D97" s="35"/>
-      <c r="E97" s="35"/>
-      <c r="F97" s="35"/>
-      <c r="G97" s="35"/>
-      <c r="H97" s="35"/>
-      <c r="I97" s="36"/>
+      <c r="C97" s="36"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="36"/>
+      <c r="F97" s="36"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="36"/>
+      <c r="I97" s="37"/>
     </row>
     <row r="98" spans="2:10">
       <c r="B98" s="6" t="s">
@@ -5889,15 +5890,15 @@
       <c r="B99" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C99" s="37" t="s">
+      <c r="C99" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="D99" s="37"/>
-      <c r="E99" s="37"/>
-      <c r="F99" s="37"/>
-      <c r="G99" s="37"/>
-      <c r="H99" s="37"/>
-      <c r="I99" s="37"/>
+      <c r="D99" s="38"/>
+      <c r="E99" s="38"/>
+      <c r="F99" s="38"/>
+      <c r="G99" s="38"/>
+      <c r="H99" s="38"/>
+      <c r="I99" s="38"/>
       <c r="J99" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C98)</f>
         <v>CREATE TABLE TB_ATCFILE</v>
@@ -5989,7 +5990,7 @@
         <v>460</v>
       </c>
       <c r="J102" t="str">
-        <f t="shared" ref="J102:J112" si="8">_xlfn.CONCAT(IF(B102=1,"",", "),C102," ",E102," ",G102,_xlfn.IFS(H102="","",H102="AUTO_INCREMENT"," AUTO_INCREMENT PRIMARY KEY",TRUE,_xlfn.CONCAT(" DEFAULT"," ",H102)), " COMMENT '",I102,"'")</f>
+        <f t="shared" ref="J102:J112" si="6">_xlfn.CONCAT(IF(B102=1,"",", "),C102," ",E102," ",G102,_xlfn.IFS(H102="","",H102="AUTO_INCREMENT"," AUTO_INCREMENT PRIMARY KEY",TRUE,_xlfn.CONCAT(" DEFAULT"," ",H102)), " COMMENT '",I102,"'")</f>
         <v>, BOARD_CODE VARCHAR(10) NOT NULL COMMENT '게시판구분코드(01:공지사항,02:자유게시판,03:상품요청)'</v>
       </c>
     </row>
@@ -6019,7 +6020,7 @@
         <v>180</v>
       </c>
       <c r="J103" t="str">
-        <f t="shared" ref="J103" si="9">_xlfn.CONCAT(IF(B103=1,"",", "),C103," ",E103," ",G103,_xlfn.IFS(H103="","",H103="AUTO_INCREMENT"," AUTO_INCREMENT PRIMARY KEY",TRUE,_xlfn.CONCAT(" DEFAULT"," ",H103)), " COMMENT '",I103,"'")</f>
+        <f>_xlfn.CONCAT(IF(B103=1,"",", "),C103," ",E103," ",G103,_xlfn.IFS(H103="","",H103="AUTO_INCREMENT"," AUTO_INCREMENT PRIMARY KEY",TRUE,_xlfn.CONCAT(" DEFAULT"," ",H103)), " COMMENT '",I103,"'")</f>
         <v>, ATCFILE_NUM VARCHAR(10) NOT NULL COMMENT '파일번호'</v>
       </c>
     </row>
@@ -6047,7 +6048,7 @@
         <v>128</v>
       </c>
       <c r="J104" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>, ATC_FILE_NM VARCHAR(300) NULL COMMENT '파일명'</v>
       </c>
     </row>
@@ -6075,7 +6076,7 @@
         <v>133</v>
       </c>
       <c r="J105" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>, SAVE_ATC_FILE_NM VARCHAR(320) NULL COMMENT '파일저장명'</v>
       </c>
     </row>
@@ -6103,7 +6104,7 @@
         <v>134</v>
       </c>
       <c r="J106" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>, ATC_FILE_PATH VARCHAR(600) NULL COMMENT '파일경로'</v>
       </c>
     </row>
@@ -6131,7 +6132,7 @@
         <v>135</v>
       </c>
       <c r="J107" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>, ATC_FILE_CAPA_VAL BIGINT NULL COMMENT '파일용량'</v>
       </c>
     </row>
@@ -6159,7 +6160,7 @@
         <v>136</v>
       </c>
       <c r="J108" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>, ATC_FILE_EXTS VARCHAR(10) NULL COMMENT '파일확장자'</v>
       </c>
     </row>
@@ -6187,7 +6188,7 @@
         <v>458</v>
       </c>
       <c r="J109" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>, FST_REG_SEQ INT NOT NULL COMMENT '최초등록자일련번호'</v>
       </c>
     </row>
@@ -6215,7 +6216,7 @@
         <v>66</v>
       </c>
       <c r="J110" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
@@ -6224,7 +6225,7 @@
         <v>11</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>459</v>
@@ -6243,7 +6244,7 @@
         <v>459</v>
       </c>
       <c r="J111" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>, LST_UPD_SEQ INT NOT NULL COMMENT '최종수정자일련번호'</v>
       </c>
     </row>
@@ -6252,7 +6253,7 @@
         <v>12</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>67</v>
@@ -6271,7 +6272,7 @@
         <v>67</v>
       </c>
       <c r="J112" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>, LST_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
@@ -6285,17 +6286,17 @@
       <c r="B114" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C114" s="38" t="s">
+      <c r="C114" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D114" s="38"/>
-      <c r="E114" s="38"/>
-      <c r="F114" s="38" t="s">
+      <c r="D114" s="39"/>
+      <c r="E114" s="39"/>
+      <c r="F114" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="G114" s="38"/>
-      <c r="H114" s="38"/>
-      <c r="I114" s="38"/>
+      <c r="G114" s="39"/>
+      <c r="H114" s="39"/>
+      <c r="I114" s="39"/>
       <c r="J114" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C98," ADD CONSTRAINT ",C115," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_ATCFILE ADD CONSTRAINT PK_TB_ATCFILE PRIMARY KEY (</v>
@@ -6305,19 +6306,19 @@
       <c r="B115" s="4">
         <v>1</v>
       </c>
-      <c r="C115" s="39" t="str">
+      <c r="C115" s="34" t="str">
         <f>_xlfn.CONCAT("PK_",C98)</f>
         <v>PK_TB_ATCFILE</v>
       </c>
-      <c r="D115" s="39"/>
-      <c r="E115" s="39"/>
-      <c r="F115" s="39" t="str">
+      <c r="D115" s="34"/>
+      <c r="E115" s="34"/>
+      <c r="F115" s="34" t="str">
         <f>C101</f>
         <v>BOARD_SEQ</v>
       </c>
-      <c r="G115" s="39"/>
-      <c r="H115" s="39"/>
-      <c r="I115" s="39"/>
+      <c r="G115" s="34"/>
+      <c r="H115" s="34"/>
+      <c r="I115" s="34"/>
       <c r="J115" t="str">
         <f>_xlfn.CONCAT(IF(B115=1,"",", "),F115)</f>
         <v>BOARD_SEQ</v>
@@ -6327,19 +6328,19 @@
       <c r="B116" s="4">
         <v>2</v>
       </c>
-      <c r="C116" s="39" t="str">
+      <c r="C116" s="34" t="str">
         <f>_xlfn.CONCAT("PK_",C98)</f>
         <v>PK_TB_ATCFILE</v>
       </c>
-      <c r="D116" s="39"/>
-      <c r="E116" s="39"/>
-      <c r="F116" s="39" t="str">
+      <c r="D116" s="34"/>
+      <c r="E116" s="34"/>
+      <c r="F116" s="34" t="str">
         <f>C102</f>
         <v>BOARD_CODE</v>
       </c>
-      <c r="G116" s="39"/>
-      <c r="H116" s="39"/>
-      <c r="I116" s="39"/>
+      <c r="G116" s="34"/>
+      <c r="H116" s="34"/>
+      <c r="I116" s="34"/>
       <c r="J116" t="str">
         <f>_xlfn.CONCAT(IF(B116=1,"",", "),F116)</f>
         <v>, BOARD_CODE</v>
@@ -6349,19 +6350,19 @@
       <c r="B117" s="4">
         <v>3</v>
       </c>
-      <c r="C117" s="39" t="str">
+      <c r="C117" s="34" t="str">
         <f>_xlfn.CONCAT("PK_",C98)</f>
         <v>PK_TB_ATCFILE</v>
       </c>
-      <c r="D117" s="39"/>
-      <c r="E117" s="39"/>
-      <c r="F117" s="39" t="str">
+      <c r="D117" s="34"/>
+      <c r="E117" s="34"/>
+      <c r="F117" s="34" t="str">
         <f>C103</f>
         <v>ATCFILE_NUM</v>
       </c>
-      <c r="G117" s="39"/>
-      <c r="H117" s="39"/>
-      <c r="I117" s="39"/>
+      <c r="G117" s="34"/>
+      <c r="H117" s="34"/>
+      <c r="I117" s="34"/>
       <c r="J117" t="str">
         <f>_xlfn.CONCAT(IF(B117=1,"",", "),F117)</f>
         <v>, ATCFILE_NUM</v>
@@ -6374,16 +6375,16 @@
       </c>
     </row>
     <row r="119" spans="2:10">
-      <c r="B119" s="34" t="s">
+      <c r="B119" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C119" s="35"/>
-      <c r="D119" s="35"/>
-      <c r="E119" s="35"/>
-      <c r="F119" s="35"/>
-      <c r="G119" s="35"/>
-      <c r="H119" s="35"/>
-      <c r="I119" s="36"/>
+      <c r="C119" s="36"/>
+      <c r="D119" s="36"/>
+      <c r="E119" s="36"/>
+      <c r="F119" s="36"/>
+      <c r="G119" s="36"/>
+      <c r="H119" s="36"/>
+      <c r="I119" s="37"/>
     </row>
     <row r="120" spans="2:10">
       <c r="B120" s="6" t="s">
@@ -6419,15 +6420,15 @@
       <c r="B121" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C121" s="37" t="s">
+      <c r="C121" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="D121" s="37"/>
-      <c r="E121" s="37"/>
-      <c r="F121" s="37"/>
-      <c r="G121" s="37"/>
-      <c r="H121" s="37"/>
-      <c r="I121" s="37"/>
+      <c r="D121" s="38"/>
+      <c r="E121" s="38"/>
+      <c r="F121" s="38"/>
+      <c r="G121" s="38"/>
+      <c r="H121" s="38"/>
+      <c r="I121" s="38"/>
       <c r="J121" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C120)</f>
         <v>CREATE TABLE TB_POLI</v>
@@ -6515,7 +6516,7 @@
         <v>148</v>
       </c>
       <c r="J124" t="str">
-        <f t="shared" ref="J124:J131" si="10">_xlfn.CONCAT(IF(B124=1,"",", "),C124," ",E124," ",G124,_xlfn.IFS(H124="","",H124="AUTO_INCREMENT"," AUTO_INCREMENT PRIMARY KEY",TRUE,_xlfn.CONCAT(" DEFAULT"," ",H124)), " COMMENT '",I124,"'")</f>
+        <f t="shared" ref="J124:J131" si="7">_xlfn.CONCAT(IF(B124=1,"",", "),C124," ",E124," ",G124,_xlfn.IFS(H124="","",H124="AUTO_INCREMENT"," AUTO_INCREMENT PRIMARY KEY",TRUE,_xlfn.CONCAT(" DEFAULT"," ",H124)), " COMMENT '",I124,"'")</f>
         <v>, POLI_CODE VARCHAR(10) NULL COMMENT '정책분류코드(01:사용자)'</v>
       </c>
     </row>
@@ -6542,7 +6543,7 @@
         <v>142</v>
       </c>
       <c r="J125" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>, POLI_NM VARCHAR(150) NULL COMMENT '정책명'</v>
       </c>
     </row>
@@ -6570,7 +6571,7 @@
         <v>143</v>
       </c>
       <c r="J126" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>, POLI_VAL VARCHAR(3000) NULL COMMENT '정책값'</v>
       </c>
     </row>
@@ -6598,7 +6599,7 @@
         <v>217</v>
       </c>
       <c r="J127" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>, RMRK VARCHAR(3000) NULL COMMENT '정책비고'</v>
       </c>
     </row>
@@ -6626,7 +6627,7 @@
         <v>458</v>
       </c>
       <c r="J128" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>, FST_REG_SEQ INT NOT NULL COMMENT '최초등록자일련번호'</v>
       </c>
     </row>
@@ -6654,7 +6655,7 @@
         <v>66</v>
       </c>
       <c r="J129" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
@@ -6663,7 +6664,7 @@
         <v>11</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>459</v>
@@ -6682,7 +6683,7 @@
         <v>459</v>
       </c>
       <c r="J130" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>, LST_UPD_SEQ INT NOT NULL COMMENT '최종수정자일련번호'</v>
       </c>
     </row>
@@ -6691,7 +6692,7 @@
         <v>12</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>67</v>
@@ -6710,7 +6711,7 @@
         <v>67</v>
       </c>
       <c r="J131" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>, LST_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
@@ -6721,16 +6722,16 @@
       </c>
     </row>
     <row r="133" spans="2:10">
-      <c r="B133" s="34" t="s">
+      <c r="B133" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C133" s="35"/>
-      <c r="D133" s="35"/>
-      <c r="E133" s="35"/>
-      <c r="F133" s="35"/>
-      <c r="G133" s="35"/>
-      <c r="H133" s="35"/>
-      <c r="I133" s="36"/>
+      <c r="C133" s="36"/>
+      <c r="D133" s="36"/>
+      <c r="E133" s="36"/>
+      <c r="F133" s="36"/>
+      <c r="G133" s="36"/>
+      <c r="H133" s="36"/>
+      <c r="I133" s="37"/>
     </row>
     <row r="134" spans="2:10">
       <c r="B134" s="6" t="s">
@@ -6766,15 +6767,15 @@
       <c r="B135" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C135" s="37" t="s">
+      <c r="C135" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="D135" s="37"/>
-      <c r="E135" s="37"/>
-      <c r="F135" s="37"/>
-      <c r="G135" s="37"/>
-      <c r="H135" s="37"/>
-      <c r="I135" s="37"/>
+      <c r="D135" s="38"/>
+      <c r="E135" s="38"/>
+      <c r="F135" s="38"/>
+      <c r="G135" s="38"/>
+      <c r="H135" s="38"/>
+      <c r="I135" s="38"/>
       <c r="J135" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C134)</f>
         <v>CREATE TABLE TB_MNU</v>
@@ -6864,7 +6865,7 @@
         <v>199</v>
       </c>
       <c r="J138" t="str">
-        <f t="shared" ref="J138:J152" si="11">_xlfn.CONCAT(IF(B138=1,"",", "),C138," ",E138," ",G138,_xlfn.IFS(H138="","",H138="AUTO_INCREMENT"," AUTO_INCREMENT PRIMARY KEY",TRUE,_xlfn.CONCAT(" DEFAULT"," ",H138)), " COMMENT '",I138,"'")</f>
+        <f t="shared" ref="J138:J152" si="8">_xlfn.CONCAT(IF(B138=1,"",", "),C138," ",E138," ",G138,_xlfn.IFS(H138="","",H138="AUTO_INCREMENT"," AUTO_INCREMENT PRIMARY KEY",TRUE,_xlfn.CONCAT(" DEFAULT"," ",H138)), " COMMENT '",I138,"'")</f>
         <v>, URL VARCHAR(100) NOT NULL COMMENT '메뉴경로'</v>
       </c>
     </row>
@@ -6890,7 +6891,7 @@
         <v>201</v>
       </c>
       <c r="J139" t="str">
-        <f t="shared" ref="J139" si="12">_xlfn.CONCAT(IF(B139=1,"",", "),C139," ",E139," ",G139,_xlfn.IFS(H139="","",H139="AUTO_INCREMENT"," AUTO_INCREMENT PRIMARY KEY",TRUE,_xlfn.CONCAT(" DEFAULT"," ",H139)), " COMMENT '",I139,"'")</f>
+        <f>_xlfn.CONCAT(IF(B139=1,"",", "),C139," ",E139," ",G139,_xlfn.IFS(H139="","",H139="AUTO_INCREMENT"," AUTO_INCREMENT PRIMARY KEY",TRUE,_xlfn.CONCAT(" DEFAULT"," ",H139)), " COMMENT '",I139,"'")</f>
         <v>, MNU_NM VARCHAR(150) NULL COMMENT '메뉴명'</v>
       </c>
     </row>
@@ -6899,10 +6900,10 @@
         <v>3</v>
       </c>
       <c r="C140" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="D140" s="1" t="s">
         <v>689</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>690</v>
       </c>
       <c r="E140" s="4" t="s">
         <v>75</v>
@@ -6913,10 +6914,10 @@
       </c>
       <c r="H140" s="1"/>
       <c r="I140" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="J140" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>, COMPNT_PATH VARCHAR(150) NULL COMMENT '컴퍼넌트경로'</v>
       </c>
     </row>
@@ -6942,7 +6943,7 @@
         <v>679</v>
       </c>
       <c r="J141" t="str">
-        <f t="shared" ref="J141" si="13">_xlfn.CONCAT(IF(B141=1,"",", "),C141," ",E141," ",G141,_xlfn.IFS(H141="","",H141="AUTO_INCREMENT"," AUTO_INCREMENT PRIMARY KEY",TRUE,_xlfn.CONCAT(" DEFAULT"," ",H141)), " COMMENT '",I141,"'")</f>
+        <f>_xlfn.CONCAT(IF(B141=1,"",", "),C141," ",E141," ",G141,_xlfn.IFS(H141="","",H141="AUTO_INCREMENT"," AUTO_INCREMENT PRIMARY KEY",TRUE,_xlfn.CONCAT(" DEFAULT"," ",H141)), " COMMENT '",I141,"'")</f>
         <v>, COMPNT_NM VARCHAR(150) NULL COMMENT '컴퍼넌트명'</v>
       </c>
     </row>
@@ -6970,7 +6971,7 @@
         <v>686</v>
       </c>
       <c r="J142" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>, UPPER_MNU_SEQ INT NULL COMMENT '상위메뉴일련번호'</v>
       </c>
     </row>
@@ -6979,7 +6980,7 @@
         <v>6</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>205</v>
@@ -6998,7 +6999,7 @@
         <v>205</v>
       </c>
       <c r="J143" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>, OPEN_YN CHAR(1) NULL DEFAULT "Y" COMMENT '메뉴노출여부'</v>
       </c>
     </row>
@@ -7026,7 +7027,7 @@
         <v>352</v>
       </c>
       <c r="J144" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>, AUTH_YN CHAR(1) NULL DEFAULT "Y" COMMENT '권한검사여부'</v>
       </c>
     </row>
@@ -7054,7 +7055,7 @@
         <v>207</v>
       </c>
       <c r="J145" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>, MNU_LV INT(1) NULL COMMENT '메뉴레벨'</v>
       </c>
     </row>
@@ -7110,7 +7111,7 @@
         <v>208</v>
       </c>
       <c r="J147" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>, MNU_INFO VARCHAR(300) NULL COMMENT '메뉴정보'</v>
       </c>
     </row>
@@ -7138,7 +7139,7 @@
         <v>214</v>
       </c>
       <c r="J148" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>, MNU_RMRK VARCHAR(3000) NULL COMMENT '메뉴비고'</v>
       </c>
     </row>
@@ -7166,7 +7167,7 @@
         <v>458</v>
       </c>
       <c r="J149" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>, FST_REG_SEQ INT NOT NULL COMMENT '최초등록자일련번호'</v>
       </c>
     </row>
@@ -7194,7 +7195,7 @@
         <v>66</v>
       </c>
       <c r="J150" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
@@ -7203,7 +7204,7 @@
         <v>14</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>459</v>
@@ -7222,7 +7223,7 @@
         <v>459</v>
       </c>
       <c r="J151" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>, LST_UPD_SEQ INT NOT NULL COMMENT '최종수정자일련번호'</v>
       </c>
     </row>
@@ -7231,7 +7232,7 @@
         <v>15</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>67</v>
@@ -7250,7 +7251,7 @@
         <v>67</v>
       </c>
       <c r="J152" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>, LST_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
@@ -7261,16 +7262,16 @@
       </c>
     </row>
     <row r="154" spans="2:10">
-      <c r="B154" s="34" t="s">
+      <c r="B154" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C154" s="35"/>
-      <c r="D154" s="35"/>
-      <c r="E154" s="35"/>
-      <c r="F154" s="35"/>
-      <c r="G154" s="35"/>
-      <c r="H154" s="35"/>
-      <c r="I154" s="36"/>
+      <c r="C154" s="36"/>
+      <c r="D154" s="36"/>
+      <c r="E154" s="36"/>
+      <c r="F154" s="36"/>
+      <c r="G154" s="36"/>
+      <c r="H154" s="36"/>
+      <c r="I154" s="37"/>
     </row>
     <row r="155" spans="2:10">
       <c r="B155" s="6" t="s">
@@ -7306,15 +7307,15 @@
       <c r="B156" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C156" s="37" t="s">
+      <c r="C156" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="D156" s="37"/>
-      <c r="E156" s="37"/>
-      <c r="F156" s="37"/>
-      <c r="G156" s="37"/>
-      <c r="H156" s="37"/>
-      <c r="I156" s="37"/>
+      <c r="D156" s="38"/>
+      <c r="E156" s="38"/>
+      <c r="F156" s="38"/>
+      <c r="G156" s="38"/>
+      <c r="H156" s="38"/>
+      <c r="I156" s="38"/>
       <c r="J156" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C155)</f>
         <v>CREATE TABLE TB_ROLE</v>
@@ -7404,7 +7405,7 @@
         <v>249</v>
       </c>
       <c r="J159" t="str">
-        <f t="shared" ref="J159:J165" si="14">_xlfn.CONCAT(IF(B159=1,"",", "),C159," ",E159," ",G159,_xlfn.IFS(H159="","",H159="AUTO_INCREMENT"," AUTO_INCREMENT PRIMARY KEY",TRUE,_xlfn.CONCAT(" DEFAULT"," ",H159)), " COMMENT '",I159,"'")</f>
+        <f t="shared" ref="J159:J165" si="9">_xlfn.CONCAT(IF(B159=1,"",", "),C159," ",E159," ",G159,_xlfn.IFS(H159="","",H159="AUTO_INCREMENT"," AUTO_INCREMENT PRIMARY KEY",TRUE,_xlfn.CONCAT(" DEFAULT"," ",H159)), " COMMENT '",I159,"'")</f>
         <v>, ROLE_NM VARCHAR(150) NULL COMMENT '권한그룹명'</v>
       </c>
     </row>
@@ -7430,7 +7431,7 @@
         <v>251</v>
       </c>
       <c r="J160" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>, ROLE_ORDER INT(2) NULL COMMENT '권한그룹표시순서'</v>
       </c>
     </row>
@@ -7457,7 +7458,7 @@
         <v>252</v>
       </c>
       <c r="J161" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>, RMRK VARCHAR(3000) NULL COMMENT '권한그룹비고'</v>
       </c>
     </row>
@@ -7485,7 +7486,7 @@
         <v>458</v>
       </c>
       <c r="J162" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>, FST_REG_SEQ INT NOT NULL COMMENT '최초등록자일련번호'</v>
       </c>
     </row>
@@ -7513,7 +7514,7 @@
         <v>66</v>
       </c>
       <c r="J163" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
@@ -7522,7 +7523,7 @@
         <v>7</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>459</v>
@@ -7541,7 +7542,7 @@
         <v>459</v>
       </c>
       <c r="J164" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>, LST_UPD_SEQ INT NOT NULL COMMENT '최종수정자일련번호'</v>
       </c>
     </row>
@@ -7550,7 +7551,7 @@
         <v>8</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>67</v>
@@ -7569,7 +7570,7 @@
         <v>67</v>
       </c>
       <c r="J165" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>, LST_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
@@ -7580,16 +7581,16 @@
       </c>
     </row>
     <row r="167" spans="2:10">
-      <c r="B167" s="34" t="s">
+      <c r="B167" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C167" s="35"/>
-      <c r="D167" s="35"/>
-      <c r="E167" s="35"/>
-      <c r="F167" s="35"/>
-      <c r="G167" s="35"/>
-      <c r="H167" s="35"/>
-      <c r="I167" s="36"/>
+      <c r="C167" s="36"/>
+      <c r="D167" s="36"/>
+      <c r="E167" s="36"/>
+      <c r="F167" s="36"/>
+      <c r="G167" s="36"/>
+      <c r="H167" s="36"/>
+      <c r="I167" s="37"/>
     </row>
     <row r="168" spans="2:10">
       <c r="B168" s="6" t="s">
@@ -7625,15 +7626,15 @@
       <c r="B169" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C169" s="37" t="s">
+      <c r="C169" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="D169" s="37"/>
-      <c r="E169" s="37"/>
-      <c r="F169" s="37"/>
-      <c r="G169" s="37"/>
-      <c r="H169" s="37"/>
-      <c r="I169" s="37"/>
+      <c r="D169" s="38"/>
+      <c r="E169" s="38"/>
+      <c r="F169" s="38"/>
+      <c r="G169" s="38"/>
+      <c r="H169" s="38"/>
+      <c r="I169" s="38"/>
       <c r="J169" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C168)</f>
         <v>CREATE TABLE TB_USER_ROLE_MAP</v>
@@ -7693,7 +7694,7 @@
         <v>93</v>
       </c>
       <c r="J171" t="str">
-        <f>_xlfn.CONCAT(IF(B171=1,"",", "),C171," ",E171," ",G171,_xlfn.IFS(H171="","",H171="AUTO_INCREMENT"," AUTO_INCREMENT PRIMARY KEY",TRUE,_xlfn.CONCAT(" DEFAULT"," ",H171)), " COMMENT '",I171,"'")</f>
+        <f t="shared" ref="J171:J176" si="10">_xlfn.CONCAT(IF(B171=1,"",", "),C171," ",E171," ",G171,_xlfn.IFS(H171="","",H171="AUTO_INCREMENT"," AUTO_INCREMENT PRIMARY KEY",TRUE,_xlfn.CONCAT(" DEFAULT"," ",H171)), " COMMENT '",I171,"'")</f>
         <v>USER_SEQ INT NOT NULL COMMENT '사용자아이디'</v>
       </c>
     </row>
@@ -7723,7 +7724,7 @@
         <v>248</v>
       </c>
       <c r="J172" t="str">
-        <f t="shared" ref="J172:J176" si="15">_xlfn.CONCAT(IF(B172=1,"",", "),C172," ",E172," ",G172,_xlfn.IFS(H172="","",H172="AUTO_INCREMENT"," AUTO_INCREMENT PRIMARY KEY",TRUE,_xlfn.CONCAT(" DEFAULT"," ",H172)), " COMMENT '",I172,"'")</f>
+        <f t="shared" si="10"/>
         <v>, ROLE_SEQ VARCHAR(10) NOT NULL COMMENT '권한그룹일련번호'</v>
       </c>
     </row>
@@ -7751,7 +7752,7 @@
         <v>458</v>
       </c>
       <c r="J173" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>, FST_REG_SEQ INT NOT NULL COMMENT '최초등록자일련번호'</v>
       </c>
     </row>
@@ -7779,7 +7780,7 @@
         <v>66</v>
       </c>
       <c r="J174" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
@@ -7788,7 +7789,7 @@
         <v>5</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>459</v>
@@ -7807,7 +7808,7 @@
         <v>459</v>
       </c>
       <c r="J175" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>, LST_UPD_SEQ INT NOT NULL COMMENT '최종수정자일련번호'</v>
       </c>
     </row>
@@ -7816,7 +7817,7 @@
         <v>6</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>67</v>
@@ -7835,7 +7836,7 @@
         <v>67</v>
       </c>
       <c r="J176" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>, LST_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
@@ -7849,17 +7850,17 @@
       <c r="B178" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C178" s="38" t="s">
+      <c r="C178" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D178" s="38"/>
-      <c r="E178" s="38"/>
-      <c r="F178" s="38" t="s">
+      <c r="D178" s="39"/>
+      <c r="E178" s="39"/>
+      <c r="F178" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="G178" s="38"/>
-      <c r="H178" s="38"/>
-      <c r="I178" s="38"/>
+      <c r="G178" s="39"/>
+      <c r="H178" s="39"/>
+      <c r="I178" s="39"/>
       <c r="J178" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C168," ADD CONSTRAINT ",C180," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_USER_ROLE_MAP ADD CONSTRAINT PK_TB_USER_ROLE_MAP PRIMARY KEY (</v>
@@ -7869,19 +7870,19 @@
       <c r="B179" s="4">
         <v>1</v>
       </c>
-      <c r="C179" s="39" t="str">
+      <c r="C179" s="34" t="str">
         <f>_xlfn.CONCAT("PK_",C168)</f>
         <v>PK_TB_USER_ROLE_MAP</v>
       </c>
-      <c r="D179" s="39"/>
-      <c r="E179" s="39"/>
-      <c r="F179" s="39" t="str">
+      <c r="D179" s="34"/>
+      <c r="E179" s="34"/>
+      <c r="F179" s="34" t="str">
         <f>C171</f>
         <v>USER_SEQ</v>
       </c>
-      <c r="G179" s="39"/>
-      <c r="H179" s="39"/>
-      <c r="I179" s="39"/>
+      <c r="G179" s="34"/>
+      <c r="H179" s="34"/>
+      <c r="I179" s="34"/>
       <c r="J179" t="str">
         <f>_xlfn.CONCAT(IF(B179=1,"",", "),F179)</f>
         <v>USER_SEQ</v>
@@ -7891,19 +7892,19 @@
       <c r="B180" s="4">
         <v>2</v>
       </c>
-      <c r="C180" s="39" t="str">
+      <c r="C180" s="34" t="str">
         <f>_xlfn.CONCAT("PK_",C168)</f>
         <v>PK_TB_USER_ROLE_MAP</v>
       </c>
-      <c r="D180" s="39"/>
-      <c r="E180" s="39"/>
-      <c r="F180" s="39" t="str">
+      <c r="D180" s="34"/>
+      <c r="E180" s="34"/>
+      <c r="F180" s="34" t="str">
         <f>C172</f>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="G180" s="39"/>
-      <c r="H180" s="39"/>
-      <c r="I180" s="39"/>
+      <c r="G180" s="34"/>
+      <c r="H180" s="34"/>
+      <c r="I180" s="34"/>
       <c r="J180" t="str">
         <f>_xlfn.CONCAT(IF(B180=1,"",", "),F180)</f>
         <v>, ROLE_SEQ</v>
@@ -7916,16 +7917,16 @@
       </c>
     </row>
     <row r="182" spans="2:10">
-      <c r="B182" s="34" t="s">
+      <c r="B182" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C182" s="35"/>
-      <c r="D182" s="35"/>
-      <c r="E182" s="35"/>
-      <c r="F182" s="35"/>
-      <c r="G182" s="35"/>
-      <c r="H182" s="35"/>
-      <c r="I182" s="36"/>
+      <c r="C182" s="36"/>
+      <c r="D182" s="36"/>
+      <c r="E182" s="36"/>
+      <c r="F182" s="36"/>
+      <c r="G182" s="36"/>
+      <c r="H182" s="36"/>
+      <c r="I182" s="37"/>
     </row>
     <row r="183" spans="2:10">
       <c r="B183" s="6" t="s">
@@ -7961,15 +7962,15 @@
       <c r="B184" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C184" s="37" t="s">
+      <c r="C184" s="38" t="s">
         <v>259</v>
       </c>
-      <c r="D184" s="37"/>
-      <c r="E184" s="37"/>
-      <c r="F184" s="37"/>
-      <c r="G184" s="37"/>
-      <c r="H184" s="37"/>
-      <c r="I184" s="37"/>
+      <c r="D184" s="38"/>
+      <c r="E184" s="38"/>
+      <c r="F184" s="38"/>
+      <c r="G184" s="38"/>
+      <c r="H184" s="38"/>
+      <c r="I184" s="38"/>
       <c r="J184" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C183)</f>
         <v>CREATE TABLE TB_AUTH</v>
@@ -8059,7 +8060,7 @@
         <v>248</v>
       </c>
       <c r="J187" t="str">
-        <f t="shared" ref="J187:J193" si="16">_xlfn.CONCAT(IF(B187=1,"",", "),C187," ",E187," ",G187,_xlfn.IFS(H187="","",H187="AUTO_INCREMENT"," AUTO_INCREMENT PRIMARY KEY",TRUE,_xlfn.CONCAT(" DEFAULT"," ",H187)), " COMMENT '",I187,"'")</f>
+        <f t="shared" ref="J187:J193" si="11">_xlfn.CONCAT(IF(B187=1,"",", "),C187," ",E187," ",G187,_xlfn.IFS(H187="","",H187="AUTO_INCREMENT"," AUTO_INCREMENT PRIMARY KEY",TRUE,_xlfn.CONCAT(" DEFAULT"," ",H187)), " COMMENT '",I187,"'")</f>
         <v>, ROLE_SEQ VARCHAR(10) NOT NULL COMMENT '권한그룹일련번호'</v>
       </c>
     </row>
@@ -8087,7 +8088,7 @@
         <v>279</v>
       </c>
       <c r="J188" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>, AUTH_GRADE INT(1) NULL COMMENT '권한등급(1:읽기, 2:읽기/쓰기, 3:기타권한1, 4:기타권한2 ...)'</v>
       </c>
     </row>
@@ -8115,7 +8116,7 @@
         <v>280</v>
       </c>
       <c r="J189" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>, AUTH_NM VARCHAR(300) NULL COMMENT '권한명(1:읽기, 2:읽기/쓰기, 3:기타권한1, 4:기타권한2 ...)'</v>
       </c>
     </row>
@@ -8143,7 +8144,7 @@
         <v>458</v>
       </c>
       <c r="J190" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>, FST_REG_SEQ INT NOT NULL COMMENT '최초등록자일련번호'</v>
       </c>
     </row>
@@ -8171,7 +8172,7 @@
         <v>66</v>
       </c>
       <c r="J191" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
@@ -8180,7 +8181,7 @@
         <v>7</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>459</v>
@@ -8199,7 +8200,7 @@
         <v>459</v>
       </c>
       <c r="J192" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>, LST_UPD_SEQ INT NOT NULL COMMENT '최종수정자일련번호'</v>
       </c>
     </row>
@@ -8208,7 +8209,7 @@
         <v>8</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>67</v>
@@ -8227,7 +8228,7 @@
         <v>67</v>
       </c>
       <c r="J193" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>, LST_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
@@ -8241,17 +8242,17 @@
       <c r="B195" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C195" s="38" t="s">
+      <c r="C195" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D195" s="38"/>
-      <c r="E195" s="38"/>
-      <c r="F195" s="38" t="s">
+      <c r="D195" s="39"/>
+      <c r="E195" s="39"/>
+      <c r="F195" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="G195" s="38"/>
-      <c r="H195" s="38"/>
-      <c r="I195" s="38"/>
+      <c r="G195" s="39"/>
+      <c r="H195" s="39"/>
+      <c r="I195" s="39"/>
       <c r="J195" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C183," ADD CONSTRAINT ",C197," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_AUTH ADD CONSTRAINT PK_TB_AUTH PRIMARY KEY (</v>
@@ -8261,19 +8262,19 @@
       <c r="B196" s="4">
         <v>1</v>
       </c>
-      <c r="C196" s="39" t="str">
+      <c r="C196" s="34" t="str">
         <f>_xlfn.CONCAT("PK_",C183)</f>
         <v>PK_TB_AUTH</v>
       </c>
-      <c r="D196" s="39"/>
-      <c r="E196" s="39"/>
-      <c r="F196" s="39" t="str">
+      <c r="D196" s="34"/>
+      <c r="E196" s="34"/>
+      <c r="F196" s="34" t="str">
         <f>C186</f>
         <v>MNU_SEQ</v>
       </c>
-      <c r="G196" s="39"/>
-      <c r="H196" s="39"/>
-      <c r="I196" s="39"/>
+      <c r="G196" s="34"/>
+      <c r="H196" s="34"/>
+      <c r="I196" s="34"/>
       <c r="J196" t="str">
         <f>_xlfn.CONCAT(IF(B196=1,"",", "),F196)</f>
         <v>MNU_SEQ</v>
@@ -8283,19 +8284,19 @@
       <c r="B197" s="4">
         <v>2</v>
       </c>
-      <c r="C197" s="39" t="str">
+      <c r="C197" s="34" t="str">
         <f>_xlfn.CONCAT("PK_",C183)</f>
         <v>PK_TB_AUTH</v>
       </c>
-      <c r="D197" s="39"/>
-      <c r="E197" s="39"/>
-      <c r="F197" s="39" t="str">
+      <c r="D197" s="34"/>
+      <c r="E197" s="34"/>
+      <c r="F197" s="34" t="str">
         <f>C187</f>
         <v>ROLE_SEQ</v>
       </c>
-      <c r="G197" s="39"/>
-      <c r="H197" s="39"/>
-      <c r="I197" s="39"/>
+      <c r="G197" s="34"/>
+      <c r="H197" s="34"/>
+      <c r="I197" s="34"/>
       <c r="J197" t="str">
         <f>_xlfn.CONCAT(IF(B197=1,"",", "),F197)</f>
         <v>, ROLE_SEQ</v>
@@ -8308,16 +8309,16 @@
       </c>
     </row>
     <row r="199" spans="2:10">
-      <c r="B199" s="34" t="s">
+      <c r="B199" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C199" s="35"/>
-      <c r="D199" s="35"/>
-      <c r="E199" s="35"/>
-      <c r="F199" s="35"/>
-      <c r="G199" s="35"/>
-      <c r="H199" s="35"/>
-      <c r="I199" s="36"/>
+      <c r="C199" s="36"/>
+      <c r="D199" s="36"/>
+      <c r="E199" s="36"/>
+      <c r="F199" s="36"/>
+      <c r="G199" s="36"/>
+      <c r="H199" s="36"/>
+      <c r="I199" s="37"/>
     </row>
     <row r="200" spans="2:10">
       <c r="B200" s="6" t="s">
@@ -8353,15 +8354,15 @@
       <c r="B201" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C201" s="37" t="s">
+      <c r="C201" s="38" t="s">
         <v>662</v>
       </c>
-      <c r="D201" s="37"/>
-      <c r="E201" s="37"/>
-      <c r="F201" s="37"/>
-      <c r="G201" s="37"/>
-      <c r="H201" s="37"/>
-      <c r="I201" s="37"/>
+      <c r="D201" s="38"/>
+      <c r="E201" s="38"/>
+      <c r="F201" s="38"/>
+      <c r="G201" s="38"/>
+      <c r="H201" s="38"/>
+      <c r="I201" s="38"/>
       <c r="J201" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C200)</f>
         <v>CREATE TABLE TB_ITEM</v>
@@ -8449,7 +8450,7 @@
         <v>368</v>
       </c>
       <c r="J204" t="str">
-        <f t="shared" ref="J204:J216" si="17">_xlfn.CONCAT(IF(B204=1,"",", "),C204," ",E204," ",G204,_xlfn.IFS(H204="","",H204="AUTO_INCREMENT"," AUTO_INCREMENT PRIMARY KEY",TRUE,_xlfn.CONCAT(" DEFAULT"," ",H204)), " COMMENT '",I204,"'")</f>
+        <f t="shared" ref="J204:J216" si="12">_xlfn.CONCAT(IF(B204=1,"",", "),C204," ",E204," ",G204,_xlfn.IFS(H204="","",H204="AUTO_INCREMENT"," AUTO_INCREMENT PRIMARY KEY",TRUE,_xlfn.CONCAT(" DEFAULT"," ",H204)), " COMMENT '",I204,"'")</f>
         <v>, ITEM_NM VARCHAR(300) NULL COMMENT '상품명'</v>
       </c>
     </row>
@@ -8475,7 +8476,7 @@
         <v>665</v>
       </c>
       <c r="J205" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>, PRICE INT NULL COMMENT '상품 1개 판매 가격'</v>
       </c>
     </row>
@@ -8501,7 +8502,7 @@
         <v>484</v>
       </c>
       <c r="J206" t="str">
-        <f t="shared" ref="J206" si="18">_xlfn.CONCAT(IF(B206=1,"",", "),C206," ",E206," ",G206,_xlfn.IFS(H206="","",H206="AUTO_INCREMENT"," AUTO_INCREMENT PRIMARY KEY",TRUE,_xlfn.CONCAT(" DEFAULT"," ",H206)), " COMMENT '",I206,"'")</f>
+        <f>_xlfn.CONCAT(IF(B206=1,"",", "),C206," ",E206," ",G206,_xlfn.IFS(H206="","",H206="AUTO_INCREMENT"," AUTO_INCREMENT PRIMARY KEY",TRUE,_xlfn.CONCAT(" DEFAULT"," ",H206)), " COMMENT '",I206,"'")</f>
         <v>, UNIT INT NULL COMMENT '판매단위'</v>
       </c>
     </row>
@@ -8529,7 +8530,7 @@
         <v>436</v>
       </c>
       <c r="J207" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>, RMRK VARCHAR(3000) NULL COMMENT '비고'</v>
       </c>
     </row>
@@ -8553,7 +8554,7 @@
         <v>449</v>
       </c>
       <c r="J208" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>, IMG VARCHAR(100)  COMMENT '이미지 파일명'</v>
       </c>
     </row>
@@ -8579,7 +8580,7 @@
         <v>478</v>
       </c>
       <c r="J209" t="str">
-        <f t="shared" ref="J209" si="19">_xlfn.CONCAT(IF(B209=1,"",", "),C209," ",E209," ",G209,_xlfn.IFS(H209="","",H209="AUTO_INCREMENT"," AUTO_INCREMENT PRIMARY KEY",TRUE,_xlfn.CONCAT(" DEFAULT"," ",H209)), " COMMENT '",I209,"'")</f>
+        <f>_xlfn.CONCAT(IF(B209=1,"",", "),C209," ",E209," ",G209,_xlfn.IFS(H209="","",H209="AUTO_INCREMENT"," AUTO_INCREMENT PRIMARY KEY",TRUE,_xlfn.CONCAT(" DEFAULT"," ",H209)), " COMMENT '",I209,"'")</f>
         <v>, ITEM_TYPE_CODE VARCHAR(10) NULL COMMENT '상품 분류코드'</v>
       </c>
     </row>
@@ -8605,7 +8606,7 @@
         <v>482</v>
       </c>
       <c r="J210" t="str">
-        <f t="shared" ref="J210:J211" si="20">_xlfn.CONCAT(IF(B210=1,"",", "),C210," ",E210," ",G210,_xlfn.IFS(H210="","",H210="AUTO_INCREMENT"," AUTO_INCREMENT PRIMARY KEY",TRUE,_xlfn.CONCAT(" DEFAULT"," ",H210)), " COMMENT '",I210,"'")</f>
+        <f>_xlfn.CONCAT(IF(B210=1,"",", "),C210," ",E210," ",G210,_xlfn.IFS(H210="","",H210="AUTO_INCREMENT"," AUTO_INCREMENT PRIMARY KEY",TRUE,_xlfn.CONCAT(" DEFAULT"," ",H210)), " COMMENT '",I210,"'")</f>
         <v>, ITEM_DTL_TYPE_CODE VARCHAR(10) NULL COMMENT '상품 상세 분류코드'</v>
       </c>
     </row>
@@ -8633,7 +8634,7 @@
         <v>673</v>
       </c>
       <c r="J211" t="str">
-        <f t="shared" si="20"/>
+        <f>_xlfn.CONCAT(IF(B211=1,"",", "),C211," ",E211," ",G211,_xlfn.IFS(H211="","",H211="AUTO_INCREMENT"," AUTO_INCREMENT PRIMARY KEY",TRUE,_xlfn.CONCAT(" DEFAULT"," ",H211)), " COMMENT '",I211,"'")</f>
         <v>, SOLD_OUT_YN VARCHAR(1) NULL DEFAULT 'N' COMMENT '품절여부'</v>
       </c>
     </row>
@@ -8661,7 +8662,7 @@
         <v>357</v>
       </c>
       <c r="J212" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>, USE_YN VARCHAR(1) NULL DEFAULT 'Y' COMMENT '사용여부'</v>
       </c>
     </row>
@@ -8689,7 +8690,7 @@
         <v>458</v>
       </c>
       <c r="J213" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>, FST_REG_SEQ INT NOT NULL COMMENT '최초등록자일련번호'</v>
       </c>
     </row>
@@ -8717,7 +8718,7 @@
         <v>66</v>
       </c>
       <c r="J214" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
@@ -8726,7 +8727,7 @@
         <v>13</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>459</v>
@@ -8745,7 +8746,7 @@
         <v>459</v>
       </c>
       <c r="J215" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>, LST_UPD_SEQ INT NOT NULL COMMENT '최종수정자일련번호'</v>
       </c>
     </row>
@@ -8754,7 +8755,7 @@
         <v>14</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>67</v>
@@ -8773,7 +8774,7 @@
         <v>67</v>
       </c>
       <c r="J216" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>, LST_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
@@ -8784,16 +8785,16 @@
       </c>
     </row>
     <row r="218" spans="2:10">
-      <c r="B218" s="34" t="s">
+      <c r="B218" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C218" s="35"/>
-      <c r="D218" s="35"/>
-      <c r="E218" s="35"/>
-      <c r="F218" s="35"/>
-      <c r="G218" s="35"/>
-      <c r="H218" s="35"/>
-      <c r="I218" s="36"/>
+      <c r="C218" s="36"/>
+      <c r="D218" s="36"/>
+      <c r="E218" s="36"/>
+      <c r="F218" s="36"/>
+      <c r="G218" s="36"/>
+      <c r="H218" s="36"/>
+      <c r="I218" s="37"/>
     </row>
     <row r="219" spans="2:10">
       <c r="B219" s="6" t="s">
@@ -8829,15 +8830,15 @@
       <c r="B220" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C220" s="37" t="s">
+      <c r="C220" s="38" t="s">
         <v>661</v>
       </c>
-      <c r="D220" s="37"/>
-      <c r="E220" s="37"/>
-      <c r="F220" s="37"/>
-      <c r="G220" s="37"/>
-      <c r="H220" s="37"/>
-      <c r="I220" s="37"/>
+      <c r="D220" s="38"/>
+      <c r="E220" s="38"/>
+      <c r="F220" s="38"/>
+      <c r="G220" s="38"/>
+      <c r="H220" s="38"/>
+      <c r="I220" s="38"/>
       <c r="J220" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C219)</f>
         <v>CREATE TABLE TB_BASKET</v>
@@ -8927,7 +8928,7 @@
         <v>445</v>
       </c>
       <c r="J223" t="str">
-        <f t="shared" ref="J223:J229" si="21">_xlfn.CONCAT(IF(B223=1,"",", "),C223," ",E223," ",G223,_xlfn.IFS(H223="","",H223="AUTO_INCREMENT"," AUTO_INCREMENT PRIMARY KEY",TRUE,_xlfn.CONCAT(" DEFAULT"," ",H223)), " COMMENT '",I223,"'")</f>
+        <f t="shared" ref="J223:J229" si="13">_xlfn.CONCAT(IF(B223=1,"",", "),C223," ",E223," ",G223,_xlfn.IFS(H223="","",H223="AUTO_INCREMENT"," AUTO_INCREMENT PRIMARY KEY",TRUE,_xlfn.CONCAT(" DEFAULT"," ",H223)), " COMMENT '",I223,"'")</f>
         <v>, ITEM_SEQ INT NOT NULL COMMENT '상품일련번호'</v>
       </c>
     </row>
@@ -8955,7 +8956,7 @@
         <v>452</v>
       </c>
       <c r="J224" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>, CNT INT NULL COMMENT '개수'</v>
       </c>
     </row>
@@ -8983,7 +8984,7 @@
         <v>357</v>
       </c>
       <c r="J225" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>, USE_YN VARCHAR(1) NULL DEFAULT 'Y' COMMENT '사용여부'</v>
       </c>
     </row>
@@ -9011,7 +9012,7 @@
         <v>458</v>
       </c>
       <c r="J226" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>, FST_REG_SEQ INT NOT NULL COMMENT '최초등록자일련번호'</v>
       </c>
     </row>
@@ -9039,7 +9040,7 @@
         <v>66</v>
       </c>
       <c r="J227" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
@@ -9048,7 +9049,7 @@
         <v>7</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>459</v>
@@ -9067,7 +9068,7 @@
         <v>459</v>
       </c>
       <c r="J228" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>, LST_UPD_SEQ INT NOT NULL COMMENT '최종수정자일련번호'</v>
       </c>
     </row>
@@ -9076,7 +9077,7 @@
         <v>8</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>67</v>
@@ -9095,7 +9096,7 @@
         <v>67</v>
       </c>
       <c r="J229" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>, LST_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
@@ -9109,17 +9110,17 @@
       <c r="B231" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C231" s="38" t="s">
+      <c r="C231" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D231" s="38"/>
-      <c r="E231" s="38"/>
-      <c r="F231" s="38" t="s">
+      <c r="D231" s="39"/>
+      <c r="E231" s="39"/>
+      <c r="F231" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="G231" s="38"/>
-      <c r="H231" s="38"/>
-      <c r="I231" s="38"/>
+      <c r="G231" s="39"/>
+      <c r="H231" s="39"/>
+      <c r="I231" s="39"/>
       <c r="J231" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C219," ADD CONSTRAINT ",C233," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_BASKET ADD CONSTRAINT PK_TB_BASKET PRIMARY KEY (</v>
@@ -9129,19 +9130,19 @@
       <c r="B232" s="4">
         <v>1</v>
       </c>
-      <c r="C232" s="39" t="str">
+      <c r="C232" s="34" t="str">
         <f>_xlfn.CONCAT("PK_",C219)</f>
         <v>PK_TB_BASKET</v>
       </c>
-      <c r="D232" s="39"/>
-      <c r="E232" s="39"/>
-      <c r="F232" s="39" t="str">
+      <c r="D232" s="34"/>
+      <c r="E232" s="34"/>
+      <c r="F232" s="34" t="str">
         <f>C222</f>
         <v>USER_SEQ</v>
       </c>
-      <c r="G232" s="39"/>
-      <c r="H232" s="39"/>
-      <c r="I232" s="39"/>
+      <c r="G232" s="34"/>
+      <c r="H232" s="34"/>
+      <c r="I232" s="34"/>
       <c r="J232" t="str">
         <f>_xlfn.CONCAT(IF(B232=1,"",", "),F232)</f>
         <v>USER_SEQ</v>
@@ -9151,19 +9152,19 @@
       <c r="B233" s="4">
         <v>2</v>
       </c>
-      <c r="C233" s="39" t="str">
+      <c r="C233" s="34" t="str">
         <f>_xlfn.CONCAT("PK_",C219)</f>
         <v>PK_TB_BASKET</v>
       </c>
-      <c r="D233" s="39"/>
-      <c r="E233" s="39"/>
-      <c r="F233" s="39" t="str">
+      <c r="D233" s="34"/>
+      <c r="E233" s="34"/>
+      <c r="F233" s="34" t="str">
         <f>C223</f>
         <v>ITEM_SEQ</v>
       </c>
-      <c r="G233" s="39"/>
-      <c r="H233" s="39"/>
-      <c r="I233" s="39"/>
+      <c r="G233" s="34"/>
+      <c r="H233" s="34"/>
+      <c r="I233" s="34"/>
       <c r="J233" t="str">
         <f>_xlfn.CONCAT(IF(B233=1,"",", "),F233)</f>
         <v>, ITEM_SEQ</v>
@@ -9176,16 +9177,16 @@
       </c>
     </row>
     <row r="235" spans="2:10">
-      <c r="B235" s="34" t="s">
+      <c r="B235" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C235" s="35"/>
-      <c r="D235" s="35"/>
-      <c r="E235" s="35"/>
-      <c r="F235" s="35"/>
-      <c r="G235" s="35"/>
-      <c r="H235" s="35"/>
-      <c r="I235" s="36"/>
+      <c r="C235" s="36"/>
+      <c r="D235" s="36"/>
+      <c r="E235" s="36"/>
+      <c r="F235" s="36"/>
+      <c r="G235" s="36"/>
+      <c r="H235" s="36"/>
+      <c r="I235" s="37"/>
     </row>
     <row r="236" spans="2:10">
       <c r="B236" s="6" t="s">
@@ -9221,15 +9222,15 @@
       <c r="B237" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C237" s="37" t="s">
+      <c r="C237" s="38" t="s">
         <v>660</v>
       </c>
-      <c r="D237" s="37"/>
-      <c r="E237" s="37"/>
-      <c r="F237" s="37"/>
-      <c r="G237" s="37"/>
-      <c r="H237" s="37"/>
-      <c r="I237" s="37"/>
+      <c r="D237" s="38"/>
+      <c r="E237" s="38"/>
+      <c r="F237" s="38"/>
+      <c r="G237" s="38"/>
+      <c r="H237" s="38"/>
+      <c r="I237" s="38"/>
       <c r="J237" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C236)</f>
         <v>CREATE TABLE TB_ORDER</v>
@@ -9319,7 +9320,7 @@
         <v>445</v>
       </c>
       <c r="J240" t="str">
-        <f t="shared" ref="J240:J248" si="22">_xlfn.CONCAT(IF(B240=1,"",", "),C240," ",E240," ",G240,_xlfn.IFS(H240="","",H240="AUTO_INCREMENT"," AUTO_INCREMENT PRIMARY KEY",TRUE,_xlfn.CONCAT(" DEFAULT"," ",H240)), " COMMENT '",I240,"'")</f>
+        <f t="shared" ref="J240:J248" si="14">_xlfn.CONCAT(IF(B240=1,"",", "),C240," ",E240," ",G240,_xlfn.IFS(H240="","",H240="AUTO_INCREMENT"," AUTO_INCREMENT PRIMARY KEY",TRUE,_xlfn.CONCAT(" DEFAULT"," ",H240)), " COMMENT '",I240,"'")</f>
         <v>, ITEM_SEQ INT NOT NULL COMMENT '상품일련번호'</v>
       </c>
     </row>
@@ -9345,7 +9346,7 @@
         <v>665</v>
       </c>
       <c r="J241" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>, PRICE INT NULL COMMENT '상품 1개 판매 가격'</v>
       </c>
     </row>
@@ -9373,7 +9374,7 @@
         <v>452</v>
       </c>
       <c r="J242" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>, CNT INT NULL COMMENT '개수'</v>
       </c>
     </row>
@@ -9401,7 +9402,7 @@
         <v>675</v>
       </c>
       <c r="J243" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>, ORDER_STATUS_CODE VARCHAR(2) NULL DEFAULT '01' COMMENT '상태(01:구매요청, 02:배송중, 03:미결제, 04:요청취소, 11:구매완료, 12:반송, 91:취소)'</v>
       </c>
     </row>
@@ -9429,7 +9430,7 @@
         <v>676</v>
       </c>
       <c r="J244" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>, REJECT_REASON VARCHAR(3000) NULL COMMENT '사유'</v>
       </c>
     </row>
@@ -9457,7 +9458,7 @@
         <v>458</v>
       </c>
       <c r="J245" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>, FST_REG_SEQ INT NOT NULL COMMENT '최초등록자일련번호'</v>
       </c>
     </row>
@@ -9485,7 +9486,7 @@
         <v>66</v>
       </c>
       <c r="J246" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
@@ -9494,7 +9495,7 @@
         <v>8</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>459</v>
@@ -9513,7 +9514,7 @@
         <v>459</v>
       </c>
       <c r="J247" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>, LST_UPD_SEQ INT NOT NULL COMMENT '최종수정자일련번호'</v>
       </c>
     </row>
@@ -9522,7 +9523,7 @@
         <v>9</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>67</v>
@@ -9541,7 +9542,7 @@
         <v>67</v>
       </c>
       <c r="J248" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>, LST_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
@@ -9555,17 +9556,17 @@
       <c r="B250" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C250" s="38" t="s">
+      <c r="C250" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D250" s="38"/>
-      <c r="E250" s="38"/>
-      <c r="F250" s="38" t="s">
+      <c r="D250" s="39"/>
+      <c r="E250" s="39"/>
+      <c r="F250" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="G250" s="38"/>
-      <c r="H250" s="38"/>
-      <c r="I250" s="38"/>
+      <c r="G250" s="39"/>
+      <c r="H250" s="39"/>
+      <c r="I250" s="39"/>
       <c r="J250" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C236," ADD CONSTRAINT ",C252," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_ORDER ADD CONSTRAINT PK_TB_ORDER PRIMARY KEY (</v>
@@ -9575,19 +9576,19 @@
       <c r="B251" s="4">
         <v>1</v>
       </c>
-      <c r="C251" s="39" t="str">
+      <c r="C251" s="34" t="str">
         <f>_xlfn.CONCAT("PK_",C236)</f>
         <v>PK_TB_ORDER</v>
       </c>
-      <c r="D251" s="39"/>
-      <c r="E251" s="39"/>
-      <c r="F251" s="39" t="str">
+      <c r="D251" s="34"/>
+      <c r="E251" s="34"/>
+      <c r="F251" s="34" t="str">
         <f>C239</f>
         <v>USER_SEQ</v>
       </c>
-      <c r="G251" s="39"/>
-      <c r="H251" s="39"/>
-      <c r="I251" s="39"/>
+      <c r="G251" s="34"/>
+      <c r="H251" s="34"/>
+      <c r="I251" s="34"/>
       <c r="J251" t="str">
         <f>_xlfn.CONCAT(IF(B251=1,"",", "),F251)</f>
         <v>USER_SEQ</v>
@@ -9597,19 +9598,19 @@
       <c r="B252" s="4">
         <v>2</v>
       </c>
-      <c r="C252" s="39" t="str">
+      <c r="C252" s="34" t="str">
         <f>_xlfn.CONCAT("PK_",C236)</f>
         <v>PK_TB_ORDER</v>
       </c>
-      <c r="D252" s="39"/>
-      <c r="E252" s="39"/>
-      <c r="F252" s="39" t="str">
+      <c r="D252" s="34"/>
+      <c r="E252" s="34"/>
+      <c r="F252" s="34" t="str">
         <f>C240</f>
         <v>ITEM_SEQ</v>
       </c>
-      <c r="G252" s="39"/>
-      <c r="H252" s="39"/>
-      <c r="I252" s="39"/>
+      <c r="G252" s="34"/>
+      <c r="H252" s="34"/>
+      <c r="I252" s="34"/>
       <c r="J252" t="str">
         <f>_xlfn.CONCAT(IF(B252=1,"",", "),F252)</f>
         <v>, ITEM_SEQ</v>
@@ -9622,29 +9623,29 @@
       </c>
     </row>
     <row r="254" spans="2:10">
-      <c r="B254" s="34" t="s">
+      <c r="B254" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C254" s="35"/>
-      <c r="D254" s="35"/>
-      <c r="E254" s="35"/>
-      <c r="F254" s="35"/>
-      <c r="G254" s="35"/>
-      <c r="H254" s="35"/>
-      <c r="I254" s="36"/>
+      <c r="C254" s="36"/>
+      <c r="D254" s="36"/>
+      <c r="E254" s="36"/>
+      <c r="F254" s="36"/>
+      <c r="G254" s="36"/>
+      <c r="H254" s="36"/>
+      <c r="I254" s="37"/>
     </row>
     <row r="255" spans="2:10">
       <c r="B255" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D255" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F255" s="6" t="s">
         <v>29</v>
@@ -9667,15 +9668,15 @@
       <c r="B256" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C256" s="37" t="s">
-        <v>698</v>
-      </c>
-      <c r="D256" s="37"/>
-      <c r="E256" s="37"/>
-      <c r="F256" s="37"/>
-      <c r="G256" s="37"/>
-      <c r="H256" s="37"/>
-      <c r="I256" s="37"/>
+      <c r="C256" s="38" t="s">
+        <v>697</v>
+      </c>
+      <c r="D256" s="38"/>
+      <c r="E256" s="38"/>
+      <c r="F256" s="38"/>
+      <c r="G256" s="38"/>
+      <c r="H256" s="38"/>
+      <c r="I256" s="38"/>
       <c r="J256" t="str">
         <f>_xlfn.CONCAT("CREATE TABLE ",C255)</f>
         <v>CREATE TABLE TB_TOKEN</v>
@@ -9737,7 +9738,7 @@
         <v>93</v>
       </c>
       <c r="J258" t="str">
-        <f t="shared" ref="J258:J266" si="23">_xlfn.CONCAT(IF(B258=1,"",", "),C258," ",E258," ",G258,_xlfn.IFS(H258="","",H258="AUTO_INCREMENT"," AUTO_INCREMENT PRIMARY KEY",TRUE,_xlfn.CONCAT(" DEFAULT"," ",H258)), " COMMENT '",I258,"'")</f>
+        <f t="shared" ref="J258:J266" si="15">_xlfn.CONCAT(IF(B258=1,"",", "),C258," ",E258," ",G258,_xlfn.IFS(H258="","",H258="AUTO_INCREMENT"," AUTO_INCREMENT PRIMARY KEY",TRUE,_xlfn.CONCAT(" DEFAULT"," ",H258)), " COMMENT '",I258,"'")</f>
         <v>USER_ID VARCHAR(20) NOT NULL COMMENT '사용자아이디'</v>
       </c>
     </row>
@@ -9746,10 +9747,10 @@
         <v>2</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E259" s="4" t="s">
         <v>213</v>
@@ -9760,10 +9761,10 @@
       </c>
       <c r="H259" s="1"/>
       <c r="I259" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="J259" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>, TOKEN VARCHAR(3000) NULL COMMENT '토큰'</v>
       </c>
     </row>
@@ -9772,10 +9773,10 @@
         <v>3</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E260" s="4" t="s">
         <v>21</v>
@@ -9788,10 +9789,10 @@
         <v>27</v>
       </c>
       <c r="I260" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J260" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>, CREATE_DTTI TIMESTAMP NULL DEFAULT NOW() COMMENT '생성일시'</v>
       </c>
     </row>
@@ -9800,10 +9801,10 @@
         <v>4</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E261" s="4" t="s">
         <v>54</v>
@@ -9814,10 +9815,10 @@
       </c>
       <c r="H261" s="8"/>
       <c r="I261" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="J261" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>, EXPIRY_DTTI TIMESTAMP NULL COMMENT '만료일시'</v>
       </c>
     </row>
@@ -9826,10 +9827,10 @@
         <v>5</v>
       </c>
       <c r="C262" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D262" s="1" t="s">
         <v>704</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>705</v>
       </c>
       <c r="E262" s="4" t="s">
         <v>213</v>
@@ -9842,10 +9843,10 @@
         <v>69</v>
       </c>
       <c r="I262" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="J262" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>, DEVICE_INFO VARCHAR(3000) NULL COMMENT '기기정보'</v>
       </c>
     </row>
@@ -9873,7 +9874,7 @@
         <v>458</v>
       </c>
       <c r="J263" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>, FST_REG_SEQ VARCHAR(20) NOT NULL COMMENT '최초등록자일련번호'</v>
       </c>
     </row>
@@ -9882,7 +9883,7 @@
         <v>7</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>66</v>
@@ -9901,7 +9902,7 @@
         <v>66</v>
       </c>
       <c r="J264" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>, FST_REG_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최초등록일시'</v>
       </c>
     </row>
@@ -9910,7 +9911,7 @@
         <v>8</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>221</v>
@@ -9929,7 +9930,7 @@
         <v>459</v>
       </c>
       <c r="J265" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>, LST_UPD_SEQ VARCHAR(20) NOT NULL COMMENT '최종수정자일련번호'</v>
       </c>
     </row>
@@ -9938,7 +9939,7 @@
         <v>9</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>67</v>
@@ -9957,7 +9958,7 @@
         <v>67</v>
       </c>
       <c r="J266" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="15"/>
         <v>, LST_UPD_DTTI TIMESTAMP NOT NULL DEFAULT NOW() COMMENT '최종수정일시'</v>
       </c>
     </row>
@@ -9971,17 +9972,17 @@
       <c r="B268" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C268" s="38" t="s">
+      <c r="C268" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D268" s="38"/>
-      <c r="E268" s="38"/>
-      <c r="F268" s="38" t="s">
+      <c r="D268" s="39"/>
+      <c r="E268" s="39"/>
+      <c r="F268" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="G268" s="38"/>
-      <c r="H268" s="38"/>
-      <c r="I268" s="38"/>
+      <c r="G268" s="39"/>
+      <c r="H268" s="39"/>
+      <c r="I268" s="39"/>
       <c r="J268" t="str">
         <f>_xlfn.CONCAT("ALTER TABLE ",C255," ADD CONSTRAINT ",C269," PRIMARY KEY (")</f>
         <v>ALTER TABLE TB_TOKEN ADD CONSTRAINT PK_TB_TOKEN PRIMARY KEY (</v>
@@ -9991,19 +9992,19 @@
       <c r="B269" s="4">
         <v>1</v>
       </c>
-      <c r="C269" s="39" t="str">
+      <c r="C269" s="34" t="str">
         <f>_xlfn.CONCAT("PK_",C255)</f>
         <v>PK_TB_TOKEN</v>
       </c>
-      <c r="D269" s="39"/>
-      <c r="E269" s="39"/>
-      <c r="F269" s="39" t="str">
+      <c r="D269" s="34"/>
+      <c r="E269" s="34"/>
+      <c r="F269" s="34" t="str">
         <f>C258</f>
         <v>USER_ID</v>
       </c>
-      <c r="G269" s="39"/>
-      <c r="H269" s="39"/>
-      <c r="I269" s="39"/>
+      <c r="G269" s="34"/>
+      <c r="H269" s="34"/>
+      <c r="I269" s="34"/>
       <c r="J269" t="str">
         <f>_xlfn.CONCAT(IF(B269=1,"",", "),F269)</f>
         <v>USER_ID</v>
@@ -10017,14 +10018,60 @@
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="C252:E252"/>
-    <mergeCell ref="F252:I252"/>
-    <mergeCell ref="B235:I235"/>
-    <mergeCell ref="C237:I237"/>
-    <mergeCell ref="C250:E250"/>
-    <mergeCell ref="F250:I250"/>
-    <mergeCell ref="C251:E251"/>
-    <mergeCell ref="F251:I251"/>
+    <mergeCell ref="B254:I254"/>
+    <mergeCell ref="C256:I256"/>
+    <mergeCell ref="C268:E268"/>
+    <mergeCell ref="F268:I268"/>
+    <mergeCell ref="C269:E269"/>
+    <mergeCell ref="F269:I269"/>
+    <mergeCell ref="C220:I220"/>
+    <mergeCell ref="C231:E231"/>
+    <mergeCell ref="F231:I231"/>
+    <mergeCell ref="C233:E233"/>
+    <mergeCell ref="F233:I233"/>
+    <mergeCell ref="C232:E232"/>
+    <mergeCell ref="F232:I232"/>
+    <mergeCell ref="C184:I184"/>
+    <mergeCell ref="C195:E195"/>
+    <mergeCell ref="F195:I195"/>
+    <mergeCell ref="C196:E196"/>
+    <mergeCell ref="F196:I196"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="C70:I70"/>
+    <mergeCell ref="B119:I119"/>
+    <mergeCell ref="C121:I121"/>
+    <mergeCell ref="B97:I97"/>
+    <mergeCell ref="C99:I99"/>
+    <mergeCell ref="C114:E114"/>
+    <mergeCell ref="F114:I114"/>
+    <mergeCell ref="C115:E115"/>
+    <mergeCell ref="F115:I115"/>
+    <mergeCell ref="C117:E117"/>
+    <mergeCell ref="F117:I117"/>
+    <mergeCell ref="B81:I81"/>
+    <mergeCell ref="C83:I83"/>
+    <mergeCell ref="C116:E116"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="B57:I57"/>
+    <mergeCell ref="C59:I59"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="B133:I133"/>
+    <mergeCell ref="C135:I135"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="C41:I41"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F116:I116"/>
+    <mergeCell ref="C37:E37"/>
     <mergeCell ref="B154:I154"/>
     <mergeCell ref="C156:I156"/>
     <mergeCell ref="B199:I199"/>
@@ -10041,60 +10088,14 @@
     <mergeCell ref="C197:E197"/>
     <mergeCell ref="F197:I197"/>
     <mergeCell ref="B182:I182"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="B133:I133"/>
-    <mergeCell ref="C135:I135"/>
-    <mergeCell ref="B39:I39"/>
-    <mergeCell ref="C41:I41"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F116:I116"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="B57:I57"/>
-    <mergeCell ref="C59:I59"/>
-    <mergeCell ref="B68:I68"/>
-    <mergeCell ref="C70:I70"/>
-    <mergeCell ref="B119:I119"/>
-    <mergeCell ref="C121:I121"/>
-    <mergeCell ref="B97:I97"/>
-    <mergeCell ref="C99:I99"/>
-    <mergeCell ref="C114:E114"/>
-    <mergeCell ref="F114:I114"/>
-    <mergeCell ref="C115:E115"/>
-    <mergeCell ref="F115:I115"/>
-    <mergeCell ref="C117:E117"/>
-    <mergeCell ref="F117:I117"/>
-    <mergeCell ref="B81:I81"/>
-    <mergeCell ref="C83:I83"/>
-    <mergeCell ref="C116:E116"/>
-    <mergeCell ref="C184:I184"/>
-    <mergeCell ref="C195:E195"/>
-    <mergeCell ref="F195:I195"/>
-    <mergeCell ref="C196:E196"/>
-    <mergeCell ref="F196:I196"/>
-    <mergeCell ref="C220:I220"/>
-    <mergeCell ref="C231:E231"/>
-    <mergeCell ref="F231:I231"/>
-    <mergeCell ref="C233:E233"/>
-    <mergeCell ref="F233:I233"/>
-    <mergeCell ref="C232:E232"/>
-    <mergeCell ref="F232:I232"/>
-    <mergeCell ref="B254:I254"/>
-    <mergeCell ref="C256:I256"/>
-    <mergeCell ref="C268:E268"/>
-    <mergeCell ref="F268:I268"/>
-    <mergeCell ref="C269:E269"/>
-    <mergeCell ref="F269:I269"/>
+    <mergeCell ref="C252:E252"/>
+    <mergeCell ref="F252:I252"/>
+    <mergeCell ref="B235:I235"/>
+    <mergeCell ref="C237:I237"/>
+    <mergeCell ref="C250:E250"/>
+    <mergeCell ref="F250:I250"/>
+    <mergeCell ref="C251:E251"/>
+    <mergeCell ref="F251:I251"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10105,41 +10106,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A446E8-EBD3-49BD-80EC-225302354102}">
   <dimension ref="B2:AA216"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
+    <sheetView topLeftCell="A154" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G167" sqref="G167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="3.19921875" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.09765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.59765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="16.59765625" style="11" customWidth="1"/>
+    <col min="12" max="12" width="16.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="16.625" style="11" customWidth="1"/>
     <col min="16" max="26" width="12.5" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="196.19921875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="196.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:27">
       <c r="B2" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
       <c r="I2" s="11"/>
     </row>
     <row r="3" spans="2:27">
@@ -10162,7 +10163,7 @@
         <v>456</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="12"/>
@@ -10349,12 +10350,12 @@
       <c r="B9" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
     </row>
     <row r="10" spans="2:27">
       <c r="B10" s="10" t="s">
@@ -10370,7 +10371,7 @@
         <v>456</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
@@ -10506,7 +10507,7 @@
       </c>
       <c r="I15" s="11"/>
       <c r="AA15" t="str">
-        <f t="shared" ref="AA15" si="1">_xlfn.CONCAT(IF(B15=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C15:Z15),")")</f>
+        <f>_xlfn.CONCAT(IF(B15=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C15:Z15),")")</f>
         <v>,("USER_STATUS_CODE","사용자 상태 코드",1,1)</v>
       </c>
     </row>
@@ -10572,7 +10573,7 @@
       </c>
       <c r="I18" s="11"/>
       <c r="AA18" t="str">
-        <f t="shared" ref="AA18" si="2">_xlfn.CONCAT(IF(B18=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C18:Z18),")")</f>
+        <f>_xlfn.CONCAT(IF(B18=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C18:Z18),")")</f>
         <v>,("ITEM_SORT_CODE","상품 정렬 코드",1,1)</v>
       </c>
     </row>
@@ -10585,15 +10586,15 @@
       <c r="B20" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
     </row>
     <row r="21" spans="2:27">
       <c r="B21" s="10" t="s">
@@ -10618,7 +10619,7 @@
         <v>456</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="R21" s="13"/>
       <c r="S21" s="13"/>
@@ -10706,7 +10707,7 @@
         <v>1</v>
       </c>
       <c r="AA23" t="str">
-        <f t="shared" ref="AA23:AA40" si="3">_xlfn.CONCAT(IF(B23=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C23:Z23),")")</f>
+        <f t="shared" ref="AA23:AA40" si="1">_xlfn.CONCAT(IF(B23=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C23:Z23),")")</f>
         <v>("LOGIN_INFO_EXCEPT_URI","01","/user/signUp","N",1,1,1)</v>
       </c>
     </row>
@@ -10736,7 +10737,7 @@
         <v>1</v>
       </c>
       <c r="AA24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>,("LOGIN_CODE","01","로그인","N",1,1,1)</v>
       </c>
     </row>
@@ -10766,7 +10767,7 @@
         <v>1</v>
       </c>
       <c r="AA25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>,("LOGIN_CODE","02","로그아웃","N",2,1,1)</v>
       </c>
     </row>
@@ -10796,7 +10797,7 @@
         <v>1</v>
       </c>
       <c r="AA26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>,("LOGIN_CODE","03","존재하지 않는 아이디","N",3,1,1)</v>
       </c>
     </row>
@@ -10826,7 +10827,7 @@
         <v>1</v>
       </c>
       <c r="AA27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>,("LOGIN_CODE","04","비밀번호 오입력","N",4,1,1)</v>
       </c>
     </row>
@@ -10856,7 +10857,7 @@
         <v>1</v>
       </c>
       <c r="AA28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>,("LOGIN_CODE","05","비밀번호 오입력 횟수 초과","N",5,1,1)</v>
       </c>
     </row>
@@ -10886,7 +10887,7 @@
         <v>1</v>
       </c>
       <c r="AA29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>,("BOARD_CODE","01","공지사항","N",1,1,1)</v>
       </c>
     </row>
@@ -10916,7 +10917,7 @@
         <v>1</v>
       </c>
       <c r="AA30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>,("REQ_TYPE_CODE","admin","관리자","N",1,1,1)</v>
       </c>
     </row>
@@ -10946,7 +10947,7 @@
         <v>1</v>
       </c>
       <c r="AA31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>,("REQ_TYPE_CODE","info","정보","N",2,1,1)</v>
       </c>
     </row>
@@ -10976,7 +10977,7 @@
         <v>1</v>
       </c>
       <c r="AA32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>,("REQ_TYPE_CODE","user","사용자","N",3,1,1)</v>
       </c>
     </row>
@@ -11006,7 +11007,7 @@
         <v>1</v>
       </c>
       <c r="AA33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>,("REQ_TYPE_CODE","board","게시판","N",4,1,1)</v>
       </c>
     </row>
@@ -11036,7 +11037,7 @@
         <v>1</v>
       </c>
       <c r="AA34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>,("REQ_TYPE_CODE","market","장터","N",5,1,1)</v>
       </c>
     </row>
@@ -11066,7 +11067,7 @@
         <v>1</v>
       </c>
       <c r="AA35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>,("REQ_TYPE_CODE","active","활동","N",6,1,1)</v>
       </c>
     </row>
@@ -11096,7 +11097,7 @@
         <v>1</v>
       </c>
       <c r="AA36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>,("REQ_TYPE_CODE","sitter","베이비시터","N",7,1,1)</v>
       </c>
     </row>
@@ -11126,7 +11127,7 @@
         <v>1</v>
       </c>
       <c r="AA37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>,("REQ_TYPE_CODE","error","오류","N",8,1,1)</v>
       </c>
     </row>
@@ -11156,7 +11157,7 @@
         <v>1</v>
       </c>
       <c r="AA38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>,("USER_STATUS_CODE","01","활성","N",1,1,1)</v>
       </c>
     </row>
@@ -11186,7 +11187,7 @@
         <v>1</v>
       </c>
       <c r="AA39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>,("USER_STATUS_CODE","02","정지","N",2,1,1)</v>
       </c>
     </row>
@@ -11216,7 +11217,7 @@
         <v>1</v>
       </c>
       <c r="AA40" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>,("USER_STATUS_CODE","03","탈퇴","N",3,1,1)</v>
       </c>
     </row>
@@ -11246,7 +11247,7 @@
         <v>1</v>
       </c>
       <c r="AA41" t="str">
-        <f t="shared" ref="AA41" si="4">_xlfn.CONCAT(IF(B41=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C41:Z41),")")</f>
+        <f t="shared" ref="AA41:AA57" si="2">_xlfn.CONCAT(IF(B41=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C41:Z41),")")</f>
         <v>,("ITEM_TYPE_CODE","01","식품","Y",1,1,1)</v>
       </c>
     </row>
@@ -11276,7 +11277,7 @@
         <v>1</v>
       </c>
       <c r="AA42" t="str">
-        <f t="shared" ref="AA42" si="5">_xlfn.CONCAT(IF(B42=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C42:Z42),")")</f>
+        <f t="shared" si="2"/>
         <v>,("ITEM_TYPE_CODE","02","화장품","Y",2,1,1)</v>
       </c>
     </row>
@@ -11306,7 +11307,7 @@
         <v>1</v>
       </c>
       <c r="AA43" t="str">
-        <f t="shared" ref="AA43" si="6">_xlfn.CONCAT(IF(B43=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C43:Z43),")")</f>
+        <f t="shared" si="2"/>
         <v>,("ITEM_TYPE_CODE","03","기타","Y",3,1,1)</v>
       </c>
     </row>
@@ -11336,7 +11337,7 @@
         <v>1</v>
       </c>
       <c r="AA44" t="str">
-        <f t="shared" ref="AA44" si="7">_xlfn.CONCAT(IF(B44=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C44:Z44),")")</f>
+        <f t="shared" si="2"/>
         <v>,("ITEM_DTL_TYPE_CODE","0101","과자","Y",1,1,1)</v>
       </c>
     </row>
@@ -11366,7 +11367,7 @@
         <v>1</v>
       </c>
       <c r="AA45" t="str">
-        <f t="shared" ref="AA45" si="8">_xlfn.CONCAT(IF(B45=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C45:Z45),")")</f>
+        <f t="shared" si="2"/>
         <v>,("ITEM_DTL_TYPE_CODE","0102","음료","Y",2,1,1)</v>
       </c>
     </row>
@@ -11396,7 +11397,7 @@
         <v>1</v>
       </c>
       <c r="AA46" t="str">
-        <f t="shared" ref="AA46" si="9">_xlfn.CONCAT(IF(B46=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C46:Z46),")")</f>
+        <f t="shared" si="2"/>
         <v>,("ITEM_DTL_TYPE_CODE","0103","즉석밥","Y",3,1,1)</v>
       </c>
     </row>
@@ -11426,7 +11427,7 @@
         <v>1</v>
       </c>
       <c r="AA47" t="str">
-        <f t="shared" ref="AA47" si="10">_xlfn.CONCAT(IF(B47=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C47:Z47),")")</f>
+        <f t="shared" si="2"/>
         <v>,("ITEM_DTL_TYPE_CODE","0104","라면","Y",4,1,1)</v>
       </c>
     </row>
@@ -11456,7 +11457,7 @@
         <v>1</v>
       </c>
       <c r="AA48" t="str">
-        <f t="shared" ref="AA48" si="11">_xlfn.CONCAT(IF(B48=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C48:Z48),")")</f>
+        <f t="shared" si="2"/>
         <v>,("ITEM_DTL_TYPE_CODE","0105","차","Y",5,1,1)</v>
       </c>
     </row>
@@ -11486,7 +11487,7 @@
         <v>1</v>
       </c>
       <c r="AA49" t="str">
-        <f t="shared" ref="AA49:AA52" si="12">_xlfn.CONCAT(IF(B49=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C49:Z49),")")</f>
+        <f t="shared" si="2"/>
         <v>,("ITEM_DTL_TYPE_CODE","0106","캔디","Y",6,1,1)</v>
       </c>
     </row>
@@ -11516,7 +11517,7 @@
         <v>1</v>
       </c>
       <c r="AA50" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>,("ITEM_DTL_TYPE_CODE","0107","영양제","Y",7,1,1)</v>
       </c>
     </row>
@@ -11546,7 +11547,7 @@
         <v>1</v>
       </c>
       <c r="AA51" t="str">
-        <f t="shared" ref="AA51" si="13">_xlfn.CONCAT(IF(B51=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C51:Z51),")")</f>
+        <f t="shared" si="2"/>
         <v>,("ITEM_DTL_TYPE_CODE","0108","소세지","Y",8,1,1)</v>
       </c>
     </row>
@@ -11576,7 +11577,7 @@
         <v>1</v>
       </c>
       <c r="AA52" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>,("ITEM_DTL_TYPE_CODE","0109","쉐이크","Y",9,1,1)</v>
       </c>
     </row>
@@ -11606,7 +11607,7 @@
         <v>1</v>
       </c>
       <c r="AA53" t="str">
-        <f t="shared" ref="AA53" si="14">_xlfn.CONCAT(IF(B53=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C53:Z53),")")</f>
+        <f t="shared" si="2"/>
         <v>,("ITEM_DTL_TYPE_CODE","0201","마스크팩","Y",1,1,1)</v>
       </c>
     </row>
@@ -11636,7 +11637,7 @@
         <v>1</v>
       </c>
       <c r="AA54" t="str">
-        <f t="shared" ref="AA54" si="15">_xlfn.CONCAT(IF(B54=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C54:Z54),")")</f>
+        <f t="shared" si="2"/>
         <v>,("ITEM_DTL_TYPE_CODE","0202","선크림","Y",2,1,1)</v>
       </c>
     </row>
@@ -11666,7 +11667,7 @@
         <v>1</v>
       </c>
       <c r="AA55" t="str">
-        <f t="shared" ref="AA55" si="16">_xlfn.CONCAT(IF(B55=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C55:Z55),")")</f>
+        <f t="shared" si="2"/>
         <v>,("ITEM_DTL_TYPE_CODE","0203","아이크림","Y",3,1,1)</v>
       </c>
     </row>
@@ -11696,7 +11697,7 @@
         <v>1</v>
       </c>
       <c r="AA56" t="str">
-        <f t="shared" ref="AA56" si="17">_xlfn.CONCAT(IF(B56=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C56:Z56),")")</f>
+        <f t="shared" si="2"/>
         <v>,("ITEM_DTL_TYPE_CODE","0204","영양크림","Y",4,1,1)</v>
       </c>
     </row>
@@ -11726,7 +11727,7 @@
         <v>1</v>
       </c>
       <c r="AA57" t="str">
-        <f t="shared" ref="AA57" si="18">_xlfn.CONCAT(IF(B57=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C57:Z57),")")</f>
+        <f t="shared" si="2"/>
         <v>,("ITEM_DTL_TYPE_CODE","0205","폼클렌징","Y",5,1,1)</v>
       </c>
     </row>
@@ -11756,7 +11757,7 @@
         <v>1</v>
       </c>
       <c r="AA58" t="str">
-        <f t="shared" ref="AA58:AA64" si="19">_xlfn.CONCAT(IF(B58=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C58:Z58),")")</f>
+        <f t="shared" ref="AA58:AA64" si="3">_xlfn.CONCAT(IF(B58=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C58:Z58),")")</f>
         <v>,("ITEM_DTL_TYPE_CODE","0301","디퓨저","Y",1,1,1)</v>
       </c>
     </row>
@@ -11786,7 +11787,7 @@
         <v>1</v>
       </c>
       <c r="AA59" t="str">
-        <f t="shared" ref="AA59" si="20">_xlfn.CONCAT(IF(B59=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C59:Z59),")")</f>
+        <f>_xlfn.CONCAT(IF(B59=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C59:Z59),")")</f>
         <v>,("ITEM_DTL_TYPE_CODE","0302","세재","Y",2,1,1)</v>
       </c>
     </row>
@@ -11816,7 +11817,7 @@
         <v>1</v>
       </c>
       <c r="AA60" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>,("ITEM_DTL_TYPE_CODE","0303","안마기","Y",3,1,1)</v>
       </c>
     </row>
@@ -11846,7 +11847,7 @@
         <v>1</v>
       </c>
       <c r="AA61" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>,("ITEM_DTL_TYPE_CODE","0304","면도날","Y",4,1,1)</v>
       </c>
     </row>
@@ -11876,7 +11877,7 @@
         <v>1</v>
       </c>
       <c r="AA62" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>,("ITEM_SORT_CODE","01","상품명순","Y",1,1,1)</v>
       </c>
     </row>
@@ -11906,7 +11907,7 @@
         <v>1</v>
       </c>
       <c r="AA63" t="str">
-        <f t="shared" ref="AA63" si="21">_xlfn.CONCAT(IF(B63=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C63:Z63),")")</f>
+        <f>_xlfn.CONCAT(IF(B63=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C63:Z63),")")</f>
         <v>,("ITEM_SORT_CODE","02","판매량순","Y",2,1,1)</v>
       </c>
     </row>
@@ -11936,7 +11937,7 @@
         <v>1</v>
       </c>
       <c r="AA64" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="3"/>
         <v>,("ITEM_SORT_CODE","03","낮은 가격순","Y",3,1,1)</v>
       </c>
     </row>
@@ -11966,7 +11967,7 @@
         <v>1</v>
       </c>
       <c r="AA65" t="str">
-        <f t="shared" ref="AA65" si="22">_xlfn.CONCAT(IF(B65=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C65:Z65),")")</f>
+        <f>_xlfn.CONCAT(IF(B65=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C65:Z65),")")</f>
         <v>,("ITEM_SORT_CODE","04","높은 가격순","Y",4,1,1)</v>
       </c>
     </row>
@@ -11979,13 +11980,13 @@
       <c r="B67" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C67" s="39" t="s">
+      <c r="C67" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D67" s="39"/>
-      <c r="E67" s="39"/>
-      <c r="F67" s="39"/>
-      <c r="G67" s="39"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="34"/>
+      <c r="G67" s="34"/>
     </row>
     <row r="68" spans="2:27">
       <c r="B68" s="10" t="s">
@@ -12007,7 +12008,7 @@
         <v>456</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="K68" s="12"/>
       <c r="L68" s="12"/>
@@ -12086,7 +12087,7 @@
         <v>233</v>
       </c>
       <c r="F70" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G70" s="1">
         <v>1</v>
@@ -12095,8 +12096,8 @@
         <v>1</v>
       </c>
       <c r="AA70" t="str">
-        <f t="shared" ref="AA70:AA110" si="23">_xlfn.CONCAT(IF(B70=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C70:Z70),")")</f>
-        <v>("admin","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","관리자",1,1,1)</v>
+        <f t="shared" ref="AA70:AA110" si="4">_xlfn.CONCAT(IF(B70=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C70:Z70),")")</f>
+        <v>("admin","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","관리자",3,1,1)</v>
       </c>
     </row>
     <row r="71" spans="2:27">
@@ -12113,7 +12114,7 @@
         <v>310</v>
       </c>
       <c r="F71" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G71" s="1">
         <v>1</v>
@@ -12122,8 +12123,8 @@
         <v>1</v>
       </c>
       <c r="AA71" t="str">
-        <f t="shared" si="23"/>
-        <v>,("user1","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자1",2,1,1)</v>
+        <f t="shared" si="4"/>
+        <v>,("user1","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자1",1,1,1)</v>
       </c>
     </row>
     <row r="72" spans="2:27">
@@ -12140,7 +12141,7 @@
         <v>318</v>
       </c>
       <c r="F72" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G72" s="1">
         <v>1</v>
@@ -12149,8 +12150,8 @@
         <v>1</v>
       </c>
       <c r="AA72" t="str">
-        <f t="shared" si="23"/>
-        <v>,("user2","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자2",2,1,1)</v>
+        <f t="shared" si="4"/>
+        <v>,("user2","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자2",1,1,1)</v>
       </c>
     </row>
     <row r="73" spans="2:27">
@@ -12167,7 +12168,7 @@
         <v>319</v>
       </c>
       <c r="F73" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G73" s="1">
         <v>1</v>
@@ -12176,8 +12177,8 @@
         <v>1</v>
       </c>
       <c r="AA73" t="str">
-        <f t="shared" si="23"/>
-        <v>,("user3","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자3",2,1,1)</v>
+        <f t="shared" si="4"/>
+        <v>,("user3","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자3",1,1,1)</v>
       </c>
     </row>
     <row r="74" spans="2:27">
@@ -12194,7 +12195,7 @@
         <v>320</v>
       </c>
       <c r="F74" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G74" s="1">
         <v>1</v>
@@ -12203,8 +12204,8 @@
         <v>1</v>
       </c>
       <c r="AA74" t="str">
-        <f t="shared" si="23"/>
-        <v>,("user4","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자4",2,1,1)</v>
+        <f t="shared" si="4"/>
+        <v>,("user4","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자4",1,1,1)</v>
       </c>
     </row>
     <row r="75" spans="2:27">
@@ -12221,7 +12222,7 @@
         <v>321</v>
       </c>
       <c r="F75" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G75" s="1">
         <v>1</v>
@@ -12230,8 +12231,8 @@
         <v>1</v>
       </c>
       <c r="AA75" t="str">
-        <f t="shared" si="23"/>
-        <v>,("user5","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자5",2,1,1)</v>
+        <f t="shared" si="4"/>
+        <v>,("user5","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자5",1,1,1)</v>
       </c>
     </row>
     <row r="76" spans="2:27">
@@ -12248,7 +12249,7 @@
         <v>322</v>
       </c>
       <c r="F76" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G76" s="1">
         <v>1</v>
@@ -12257,8 +12258,8 @@
         <v>1</v>
       </c>
       <c r="AA76" t="str">
-        <f t="shared" si="23"/>
-        <v>,("user6","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자6",2,1,1)</v>
+        <f t="shared" si="4"/>
+        <v>,("user6","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자6",1,1,1)</v>
       </c>
     </row>
     <row r="77" spans="2:27">
@@ -12275,7 +12276,7 @@
         <v>323</v>
       </c>
       <c r="F77" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G77" s="1">
         <v>1</v>
@@ -12284,8 +12285,8 @@
         <v>1</v>
       </c>
       <c r="AA77" t="str">
-        <f t="shared" si="23"/>
-        <v>,("user7","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자7",2,1,1)</v>
+        <f t="shared" si="4"/>
+        <v>,("user7","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자7",1,1,1)</v>
       </c>
     </row>
     <row r="78" spans="2:27">
@@ -12302,7 +12303,7 @@
         <v>324</v>
       </c>
       <c r="F78" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G78" s="1">
         <v>1</v>
@@ -12311,8 +12312,8 @@
         <v>1</v>
       </c>
       <c r="AA78" t="str">
-        <f t="shared" si="23"/>
-        <v>,("user8","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자8",2,1,1)</v>
+        <f t="shared" si="4"/>
+        <v>,("user8","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자8",1,1,1)</v>
       </c>
     </row>
     <row r="79" spans="2:27">
@@ -12329,7 +12330,7 @@
         <v>336</v>
       </c>
       <c r="F79" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G79" s="1">
         <v>1</v>
@@ -12338,8 +12339,8 @@
         <v>1</v>
       </c>
       <c r="AA79" t="str">
-        <f t="shared" si="23"/>
-        <v>,("user9","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자9",2,1,1)</v>
+        <f t="shared" si="4"/>
+        <v>,("user9","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자9",1,1,1)</v>
       </c>
     </row>
     <row r="80" spans="2:27">
@@ -12356,7 +12357,7 @@
         <v>337</v>
       </c>
       <c r="F80" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G80" s="1">
         <v>1</v>
@@ -12365,8 +12366,8 @@
         <v>1</v>
       </c>
       <c r="AA80" t="str">
-        <f t="shared" si="23"/>
-        <v>,("user10","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자10",2,1,1)</v>
+        <f t="shared" si="4"/>
+        <v>,("user10","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자10",1,1,1)</v>
       </c>
     </row>
     <row r="81" spans="2:27">
@@ -12383,7 +12384,7 @@
         <v>338</v>
       </c>
       <c r="F81" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G81" s="1">
         <v>1</v>
@@ -12392,8 +12393,8 @@
         <v>1</v>
       </c>
       <c r="AA81" t="str">
-        <f t="shared" si="23"/>
-        <v>,("user11","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자11",2,1,1)</v>
+        <f t="shared" si="4"/>
+        <v>,("user11","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자11",1,1,1)</v>
       </c>
     </row>
     <row r="82" spans="2:27">
@@ -12410,7 +12411,7 @@
         <v>339</v>
       </c>
       <c r="F82" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G82" s="1">
         <v>1</v>
@@ -12419,8 +12420,8 @@
         <v>1</v>
       </c>
       <c r="AA82" t="str">
-        <f t="shared" si="23"/>
-        <v>,("user12","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자12",2,1,1)</v>
+        <f t="shared" si="4"/>
+        <v>,("user12","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자12",1,1,1)</v>
       </c>
     </row>
     <row r="83" spans="2:27">
@@ -12437,7 +12438,7 @@
         <v>340</v>
       </c>
       <c r="F83" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G83" s="1">
         <v>1</v>
@@ -12446,8 +12447,8 @@
         <v>1</v>
       </c>
       <c r="AA83" t="str">
-        <f t="shared" si="23"/>
-        <v>,("user13","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자13",2,1,1)</v>
+        <f t="shared" si="4"/>
+        <v>,("user13","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자13",1,1,1)</v>
       </c>
     </row>
     <row r="84" spans="2:27">
@@ -12464,7 +12465,7 @@
         <v>341</v>
       </c>
       <c r="F84" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G84" s="1">
         <v>1</v>
@@ -12473,8 +12474,8 @@
         <v>1</v>
       </c>
       <c r="AA84" t="str">
-        <f t="shared" si="23"/>
-        <v>,("user14","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자14",2,1,1)</v>
+        <f t="shared" si="4"/>
+        <v>,("user14","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자14",1,1,1)</v>
       </c>
     </row>
     <row r="85" spans="2:27">
@@ -12491,7 +12492,7 @@
         <v>342</v>
       </c>
       <c r="F85" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G85" s="1">
         <v>1</v>
@@ -12500,8 +12501,8 @@
         <v>1</v>
       </c>
       <c r="AA85" t="str">
-        <f t="shared" si="23"/>
-        <v>,("user15","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자15",2,1,1)</v>
+        <f t="shared" si="4"/>
+        <v>,("user15","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자15",1,1,1)</v>
       </c>
     </row>
     <row r="86" spans="2:27">
@@ -12518,7 +12519,7 @@
         <v>343</v>
       </c>
       <c r="F86" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G86" s="1">
         <v>1</v>
@@ -12527,8 +12528,8 @@
         <v>1</v>
       </c>
       <c r="AA86" t="str">
-        <f t="shared" si="23"/>
-        <v>,("user16","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자16",2,1,1)</v>
+        <f t="shared" si="4"/>
+        <v>,("user16","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자16",1,1,1)</v>
       </c>
     </row>
     <row r="87" spans="2:27">
@@ -12545,7 +12546,7 @@
         <v>344</v>
       </c>
       <c r="F87" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G87" s="1">
         <v>1</v>
@@ -12554,8 +12555,8 @@
         <v>1</v>
       </c>
       <c r="AA87" t="str">
-        <f t="shared" si="23"/>
-        <v>,("user17","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자17",2,1,1)</v>
+        <f t="shared" si="4"/>
+        <v>,("user17","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자17",1,1,1)</v>
       </c>
     </row>
     <row r="88" spans="2:27">
@@ -12572,7 +12573,7 @@
         <v>345</v>
       </c>
       <c r="F88" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G88" s="1">
         <v>1</v>
@@ -12581,8 +12582,8 @@
         <v>1</v>
       </c>
       <c r="AA88" t="str">
-        <f t="shared" si="23"/>
-        <v>,("user18","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자18",2,1,1)</v>
+        <f t="shared" si="4"/>
+        <v>,("user18","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자18",1,1,1)</v>
       </c>
     </row>
     <row r="89" spans="2:27">
@@ -12599,7 +12600,7 @@
         <v>346</v>
       </c>
       <c r="F89" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G89" s="1">
         <v>1</v>
@@ -12608,8 +12609,8 @@
         <v>1</v>
       </c>
       <c r="AA89" t="str">
-        <f t="shared" si="23"/>
-        <v>,("user19","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자19",2,1,1)</v>
+        <f t="shared" si="4"/>
+        <v>,("user19","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자19",1,1,1)</v>
       </c>
     </row>
     <row r="90" spans="2:27">
@@ -12626,7 +12627,7 @@
         <v>348</v>
       </c>
       <c r="F90" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G90" s="1">
         <v>1</v>
@@ -12635,8 +12636,8 @@
         <v>1</v>
       </c>
       <c r="AA90" t="str">
-        <f t="shared" si="23"/>
-        <v>,("user20","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자20",2,1,1)</v>
+        <f t="shared" si="4"/>
+        <v>,("user20","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","사용자20",1,1,1)</v>
       </c>
     </row>
     <row r="91" spans="2:27">
@@ -12653,7 +12654,7 @@
         <v>390</v>
       </c>
       <c r="F91" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G91" s="1">
         <v>1</v>
@@ -12662,8 +12663,8 @@
         <v>1</v>
       </c>
       <c r="AA91" t="str">
-        <f t="shared" si="23"/>
-        <v>,("guest1","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트1",3,1,1)</v>
+        <f t="shared" si="4"/>
+        <v>,("guest1","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트1",2,1,1)</v>
       </c>
     </row>
     <row r="92" spans="2:27">
@@ -12680,7 +12681,7 @@
         <v>391</v>
       </c>
       <c r="F92" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G92" s="1">
         <v>1</v>
@@ -12689,8 +12690,8 @@
         <v>1</v>
       </c>
       <c r="AA92" t="str">
-        <f t="shared" si="23"/>
-        <v>,("guest2","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트2",3,1,1)</v>
+        <f t="shared" si="4"/>
+        <v>,("guest2","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트2",2,1,1)</v>
       </c>
     </row>
     <row r="93" spans="2:27">
@@ -12707,7 +12708,7 @@
         <v>392</v>
       </c>
       <c r="F93" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G93" s="1">
         <v>1</v>
@@ -12716,8 +12717,8 @@
         <v>1</v>
       </c>
       <c r="AA93" t="str">
-        <f t="shared" si="23"/>
-        <v>,("guest3","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트3",3,1,1)</v>
+        <f t="shared" si="4"/>
+        <v>,("guest3","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트3",2,1,1)</v>
       </c>
     </row>
     <row r="94" spans="2:27">
@@ -12734,7 +12735,7 @@
         <v>393</v>
       </c>
       <c r="F94" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G94" s="1">
         <v>1</v>
@@ -12743,8 +12744,8 @@
         <v>1</v>
       </c>
       <c r="AA94" t="str">
-        <f t="shared" si="23"/>
-        <v>,("guest4","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트4",3,1,1)</v>
+        <f t="shared" si="4"/>
+        <v>,("guest4","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트4",2,1,1)</v>
       </c>
     </row>
     <row r="95" spans="2:27">
@@ -12761,7 +12762,7 @@
         <v>394</v>
       </c>
       <c r="F95" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G95" s="1">
         <v>1</v>
@@ -12770,8 +12771,8 @@
         <v>1</v>
       </c>
       <c r="AA95" t="str">
-        <f t="shared" si="23"/>
-        <v>,("guest5","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트5",3,1,1)</v>
+        <f t="shared" si="4"/>
+        <v>,("guest5","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트5",2,1,1)</v>
       </c>
     </row>
     <row r="96" spans="2:27">
@@ -12788,7 +12789,7 @@
         <v>395</v>
       </c>
       <c r="F96" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G96" s="1">
         <v>1</v>
@@ -12797,8 +12798,8 @@
         <v>1</v>
       </c>
       <c r="AA96" t="str">
-        <f t="shared" si="23"/>
-        <v>,("guest6","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트6",3,1,1)</v>
+        <f t="shared" si="4"/>
+        <v>,("guest6","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트6",2,1,1)</v>
       </c>
     </row>
     <row r="97" spans="2:27">
@@ -12815,7 +12816,7 @@
         <v>396</v>
       </c>
       <c r="F97" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G97" s="1">
         <v>1</v>
@@ -12824,8 +12825,8 @@
         <v>1</v>
       </c>
       <c r="AA97" t="str">
-        <f t="shared" si="23"/>
-        <v>,("guest7","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트7",3,1,1)</v>
+        <f t="shared" si="4"/>
+        <v>,("guest7","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트7",2,1,1)</v>
       </c>
     </row>
     <row r="98" spans="2:27">
@@ -12842,7 +12843,7 @@
         <v>397</v>
       </c>
       <c r="F98" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G98" s="1">
         <v>1</v>
@@ -12851,8 +12852,8 @@
         <v>1</v>
       </c>
       <c r="AA98" t="str">
-        <f t="shared" si="23"/>
-        <v>,("guest8","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트8",3,1,1)</v>
+        <f t="shared" si="4"/>
+        <v>,("guest8","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트8",2,1,1)</v>
       </c>
     </row>
     <row r="99" spans="2:27">
@@ -12869,7 +12870,7 @@
         <v>398</v>
       </c>
       <c r="F99" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G99" s="1">
         <v>1</v>
@@ -12878,8 +12879,8 @@
         <v>1</v>
       </c>
       <c r="AA99" t="str">
-        <f t="shared" si="23"/>
-        <v>,("guest9","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트9",3,1,1)</v>
+        <f t="shared" si="4"/>
+        <v>,("guest9","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트9",2,1,1)</v>
       </c>
     </row>
     <row r="100" spans="2:27">
@@ -12896,7 +12897,7 @@
         <v>399</v>
       </c>
       <c r="F100" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G100" s="1">
         <v>1</v>
@@ -12905,8 +12906,8 @@
         <v>1</v>
       </c>
       <c r="AA100" t="str">
-        <f t="shared" si="23"/>
-        <v>,("guest10","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트10",3,1,1)</v>
+        <f t="shared" si="4"/>
+        <v>,("guest10","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트10",2,1,1)</v>
       </c>
     </row>
     <row r="101" spans="2:27">
@@ -12923,7 +12924,7 @@
         <v>400</v>
       </c>
       <c r="F101" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G101" s="1">
         <v>1</v>
@@ -12932,8 +12933,8 @@
         <v>1</v>
       </c>
       <c r="AA101" t="str">
-        <f t="shared" si="23"/>
-        <v>,("guest11","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트11",3,1,1)</v>
+        <f t="shared" si="4"/>
+        <v>,("guest11","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트11",2,1,1)</v>
       </c>
     </row>
     <row r="102" spans="2:27">
@@ -12950,7 +12951,7 @@
         <v>401</v>
       </c>
       <c r="F102" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G102" s="1">
         <v>1</v>
@@ -12959,8 +12960,8 @@
         <v>1</v>
       </c>
       <c r="AA102" t="str">
-        <f t="shared" si="23"/>
-        <v>,("guest12","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트12",3,1,1)</v>
+        <f t="shared" si="4"/>
+        <v>,("guest12","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트12",2,1,1)</v>
       </c>
     </row>
     <row r="103" spans="2:27">
@@ -12977,7 +12978,7 @@
         <v>402</v>
       </c>
       <c r="F103" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G103" s="1">
         <v>1</v>
@@ -12986,8 +12987,8 @@
         <v>1</v>
       </c>
       <c r="AA103" t="str">
-        <f t="shared" si="23"/>
-        <v>,("guest13","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트13",3,1,1)</v>
+        <f t="shared" si="4"/>
+        <v>,("guest13","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트13",2,1,1)</v>
       </c>
     </row>
     <row r="104" spans="2:27">
@@ -13004,7 +13005,7 @@
         <v>403</v>
       </c>
       <c r="F104" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G104" s="1">
         <v>1</v>
@@ -13013,8 +13014,8 @@
         <v>1</v>
       </c>
       <c r="AA104" t="str">
-        <f t="shared" si="23"/>
-        <v>,("guest14","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트14",3,1,1)</v>
+        <f t="shared" si="4"/>
+        <v>,("guest14","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트14",2,1,1)</v>
       </c>
     </row>
     <row r="105" spans="2:27">
@@ -13031,7 +13032,7 @@
         <v>404</v>
       </c>
       <c r="F105" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G105" s="1">
         <v>1</v>
@@ -13040,8 +13041,8 @@
         <v>1</v>
       </c>
       <c r="AA105" t="str">
-        <f t="shared" si="23"/>
-        <v>,("guest15","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트15",3,1,1)</v>
+        <f t="shared" si="4"/>
+        <v>,("guest15","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트15",2,1,1)</v>
       </c>
     </row>
     <row r="106" spans="2:27">
@@ -13058,7 +13059,7 @@
         <v>405</v>
       </c>
       <c r="F106" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G106" s="1">
         <v>1</v>
@@ -13067,8 +13068,8 @@
         <v>1</v>
       </c>
       <c r="AA106" t="str">
-        <f t="shared" si="23"/>
-        <v>,("guest16","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트16",3,1,1)</v>
+        <f t="shared" si="4"/>
+        <v>,("guest16","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트16",2,1,1)</v>
       </c>
     </row>
     <row r="107" spans="2:27">
@@ -13085,7 +13086,7 @@
         <v>406</v>
       </c>
       <c r="F107" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G107" s="1">
         <v>1</v>
@@ -13094,8 +13095,8 @@
         <v>1</v>
       </c>
       <c r="AA107" t="str">
-        <f t="shared" si="23"/>
-        <v>,("guest17","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트17",3,1,1)</v>
+        <f t="shared" si="4"/>
+        <v>,("guest17","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트17",2,1,1)</v>
       </c>
     </row>
     <row r="108" spans="2:27">
@@ -13112,7 +13113,7 @@
         <v>407</v>
       </c>
       <c r="F108" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G108" s="1">
         <v>1</v>
@@ -13121,8 +13122,8 @@
         <v>1</v>
       </c>
       <c r="AA108" t="str">
-        <f t="shared" si="23"/>
-        <v>,("guest18","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트18",3,1,1)</v>
+        <f t="shared" si="4"/>
+        <v>,("guest18","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트18",2,1,1)</v>
       </c>
     </row>
     <row r="109" spans="2:27">
@@ -13139,7 +13140,7 @@
         <v>408</v>
       </c>
       <c r="F109" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G109" s="1">
         <v>1</v>
@@ -13148,8 +13149,8 @@
         <v>1</v>
       </c>
       <c r="AA109" t="str">
-        <f t="shared" si="23"/>
-        <v>,("guest19","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트19",3,1,1)</v>
+        <f t="shared" si="4"/>
+        <v>,("guest19","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트19",2,1,1)</v>
       </c>
     </row>
     <row r="110" spans="2:27">
@@ -13166,7 +13167,7 @@
         <v>409</v>
       </c>
       <c r="F110" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G110" s="1">
         <v>1</v>
@@ -13175,8 +13176,8 @@
         <v>1</v>
       </c>
       <c r="AA110" t="str">
-        <f t="shared" si="23"/>
-        <v>,("guest20","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트20",3,1,1)</v>
+        <f t="shared" si="4"/>
+        <v>,("guest20","$2a$10$/RP1PNTCBU.yGj7yZeUDl.wtjmQ4wJ2jHlWEEhBVmknc5HqHp8WDG","게스트20",2,1,1)</v>
       </c>
     </row>
     <row r="111" spans="2:27">
@@ -13188,14 +13189,14 @@
       <c r="B112" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C112" s="39" t="s">
+      <c r="C112" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="D112" s="39"/>
-      <c r="E112" s="39"/>
-      <c r="F112" s="39"/>
-      <c r="G112" s="39"/>
-      <c r="H112" s="39"/>
+      <c r="D112" s="34"/>
+      <c r="E112" s="34"/>
+      <c r="F112" s="34"/>
+      <c r="G112" s="34"/>
+      <c r="H112" s="34"/>
     </row>
     <row r="113" spans="2:27">
       <c r="B113" s="10" t="s">
@@ -13217,7 +13218,7 @@
         <v>456</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="K113" s="12"/>
       <c r="L113" s="12"/>
@@ -13390,7 +13391,7 @@
         <v>456</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="K120" s="12"/>
       <c r="L120" s="12"/>
@@ -13463,7 +13464,7 @@
         <v>1</v>
       </c>
       <c r="AA122" t="str">
-        <f t="shared" ref="AA122:AA162" si="24">_xlfn.CONCAT(IF(B122=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C122:Z122),")")</f>
+        <f t="shared" ref="AA122:AA162" si="5">_xlfn.CONCAT(IF(B122=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C122:Z122),")")</f>
         <v>(1,3,1,1)</v>
       </c>
     </row>
@@ -13484,7 +13485,7 @@
         <v>1</v>
       </c>
       <c r="AA123" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="5"/>
         <v>,(2,1,1,1)</v>
       </c>
     </row>
@@ -13505,7 +13506,7 @@
         <v>1</v>
       </c>
       <c r="AA124" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="5"/>
         <v>,(3,1,1,1)</v>
       </c>
     </row>
@@ -13526,7 +13527,7 @@
         <v>1</v>
       </c>
       <c r="AA125" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="5"/>
         <v>,(4,1,1,1)</v>
       </c>
     </row>
@@ -13547,7 +13548,7 @@
         <v>1</v>
       </c>
       <c r="AA126" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="5"/>
         <v>,(5,1,1,1)</v>
       </c>
     </row>
@@ -13568,7 +13569,7 @@
         <v>1</v>
       </c>
       <c r="AA127" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="5"/>
         <v>,(6,1,1,1)</v>
       </c>
     </row>
@@ -13589,7 +13590,7 @@
         <v>1</v>
       </c>
       <c r="AA128" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="5"/>
         <v>,(7,1,1,1)</v>
       </c>
     </row>
@@ -13610,7 +13611,7 @@
         <v>1</v>
       </c>
       <c r="AA129" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="5"/>
         <v>,(8,1,1,1)</v>
       </c>
     </row>
@@ -13631,7 +13632,7 @@
         <v>1</v>
       </c>
       <c r="AA130" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="5"/>
         <v>,(9,1,1,1)</v>
       </c>
     </row>
@@ -13652,7 +13653,7 @@
         <v>1</v>
       </c>
       <c r="AA131" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="5"/>
         <v>,(10,1,1,1)</v>
       </c>
     </row>
@@ -13673,7 +13674,7 @@
         <v>1</v>
       </c>
       <c r="AA132" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="5"/>
         <v>,(11,1,1,1)</v>
       </c>
     </row>
@@ -13694,7 +13695,7 @@
         <v>1</v>
       </c>
       <c r="AA133" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="5"/>
         <v>,(12,1,1,1)</v>
       </c>
     </row>
@@ -13715,7 +13716,7 @@
         <v>1</v>
       </c>
       <c r="AA134" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="5"/>
         <v>,(13,1,1,1)</v>
       </c>
     </row>
@@ -13736,7 +13737,7 @@
         <v>1</v>
       </c>
       <c r="AA135" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="5"/>
         <v>,(14,1,1,1)</v>
       </c>
     </row>
@@ -13757,7 +13758,7 @@
         <v>1</v>
       </c>
       <c r="AA136" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="5"/>
         <v>,(15,1,1,1)</v>
       </c>
     </row>
@@ -13778,7 +13779,7 @@
         <v>1</v>
       </c>
       <c r="AA137" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="5"/>
         <v>,(16,1,1,1)</v>
       </c>
     </row>
@@ -13799,7 +13800,7 @@
         <v>1</v>
       </c>
       <c r="AA138" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="5"/>
         <v>,(17,1,1,1)</v>
       </c>
     </row>
@@ -13820,7 +13821,7 @@
         <v>1</v>
       </c>
       <c r="AA139" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="5"/>
         <v>,(18,1,1,1)</v>
       </c>
     </row>
@@ -13841,7 +13842,7 @@
         <v>1</v>
       </c>
       <c r="AA140" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="5"/>
         <v>,(19,1,1,1)</v>
       </c>
     </row>
@@ -13862,7 +13863,7 @@
         <v>1</v>
       </c>
       <c r="AA141" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="5"/>
         <v>,(20,1,1,1)</v>
       </c>
     </row>
@@ -13883,7 +13884,7 @@
         <v>1</v>
       </c>
       <c r="AA142" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="5"/>
         <v>,(21,1,1,1)</v>
       </c>
     </row>
@@ -13904,7 +13905,7 @@
         <v>1</v>
       </c>
       <c r="AA143" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="5"/>
         <v>,(22,2,1,1)</v>
       </c>
     </row>
@@ -13925,7 +13926,7 @@
         <v>1</v>
       </c>
       <c r="AA144" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="5"/>
         <v>,(23,2,1,1)</v>
       </c>
     </row>
@@ -13946,7 +13947,7 @@
         <v>1</v>
       </c>
       <c r="AA145" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="5"/>
         <v>,(24,2,1,1)</v>
       </c>
     </row>
@@ -13967,7 +13968,7 @@
         <v>1</v>
       </c>
       <c r="AA146" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="5"/>
         <v>,(25,2,1,1)</v>
       </c>
     </row>
@@ -13988,7 +13989,7 @@
         <v>1</v>
       </c>
       <c r="AA147" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="5"/>
         <v>,(26,2,1,1)</v>
       </c>
     </row>
@@ -14009,7 +14010,7 @@
         <v>1</v>
       </c>
       <c r="AA148" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="5"/>
         <v>,(27,2,1,1)</v>
       </c>
     </row>
@@ -14030,7 +14031,7 @@
         <v>1</v>
       </c>
       <c r="AA149" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="5"/>
         <v>,(28,2,1,1)</v>
       </c>
     </row>
@@ -14051,7 +14052,7 @@
         <v>1</v>
       </c>
       <c r="AA150" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="5"/>
         <v>,(29,2,1,1)</v>
       </c>
     </row>
@@ -14072,7 +14073,7 @@
         <v>1</v>
       </c>
       <c r="AA151" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="5"/>
         <v>,(30,2,1,1)</v>
       </c>
     </row>
@@ -14093,7 +14094,7 @@
         <v>1</v>
       </c>
       <c r="AA152" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="5"/>
         <v>,(31,2,1,1)</v>
       </c>
     </row>
@@ -14114,7 +14115,7 @@
         <v>1</v>
       </c>
       <c r="AA153" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="5"/>
         <v>,(32,2,1,1)</v>
       </c>
     </row>
@@ -14135,7 +14136,7 @@
         <v>1</v>
       </c>
       <c r="AA154" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="5"/>
         <v>,(33,2,1,1)</v>
       </c>
     </row>
@@ -14156,7 +14157,7 @@
         <v>1</v>
       </c>
       <c r="AA155" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="5"/>
         <v>,(34,2,1,1)</v>
       </c>
     </row>
@@ -14177,7 +14178,7 @@
         <v>1</v>
       </c>
       <c r="AA156" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="5"/>
         <v>,(35,2,1,1)</v>
       </c>
     </row>
@@ -14198,7 +14199,7 @@
         <v>1</v>
       </c>
       <c r="AA157" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="5"/>
         <v>,(36,2,1,1)</v>
       </c>
     </row>
@@ -14219,7 +14220,7 @@
         <v>1</v>
       </c>
       <c r="AA158" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="5"/>
         <v>,(37,2,1,1)</v>
       </c>
     </row>
@@ -14240,7 +14241,7 @@
         <v>1</v>
       </c>
       <c r="AA159" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="5"/>
         <v>,(38,2,1,1)</v>
       </c>
     </row>
@@ -14261,7 +14262,7 @@
         <v>1</v>
       </c>
       <c r="AA160" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="5"/>
         <v>,(39,2,1,1)</v>
       </c>
     </row>
@@ -14282,7 +14283,7 @@
         <v>1</v>
       </c>
       <c r="AA161" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="5"/>
         <v>,(40,2,1,1)</v>
       </c>
     </row>
@@ -14303,7 +14304,7 @@
         <v>1</v>
       </c>
       <c r="AA162" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="5"/>
         <v>,(41,2,1,1)</v>
       </c>
     </row>
@@ -14316,18 +14317,18 @@
       <c r="B164" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C164" s="39" t="s">
+      <c r="C164" s="34" t="s">
         <v>442</v>
       </c>
-      <c r="D164" s="39"/>
-      <c r="E164" s="39"/>
-      <c r="F164" s="39"/>
-      <c r="G164" s="39"/>
-      <c r="H164" s="39"/>
-      <c r="I164" s="39"/>
-      <c r="J164" s="39"/>
-      <c r="K164" s="39"/>
-      <c r="L164" s="39"/>
+      <c r="D164" s="34"/>
+      <c r="E164" s="34"/>
+      <c r="F164" s="34"/>
+      <c r="G164" s="34"/>
+      <c r="H164" s="34"/>
+      <c r="I164" s="34"/>
+      <c r="J164" s="34"/>
+      <c r="K164" s="34"/>
+      <c r="L164" s="34"/>
     </row>
     <row r="165" spans="2:27">
       <c r="B165" s="10" t="s">
@@ -14361,7 +14362,7 @@
         <v>457</v>
       </c>
       <c r="L165" s="5" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="M165" s="12"/>
       <c r="N165" s="12"/>
@@ -14466,7 +14467,7 @@
         <v>1</v>
       </c>
       <c r="AA167" t="str">
-        <f t="shared" ref="AA167:AA215" si="25">_xlfn.CONCAT(IF(B167=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C167:Z167),")")</f>
+        <f t="shared" ref="AA167:AA215" si="6">_xlfn.CONCAT(IF(B167=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C167:Z167),")")</f>
         <v>(1,"캘리포니아센트 스필프루프 코로나도",2970,1,"","캘리포니아센트 스필프루프 코로나도.jpg","03","0301",1,1)</v>
       </c>
     </row>
@@ -14505,7 +14506,7 @@
         <v>1</v>
       </c>
       <c r="AA168" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>,(2,"젠틀 디퓨저 블랙로즈",6100,1,"","젠틀 디퓨저 블랙로즈.jpg","03","0301",1,1)</v>
       </c>
     </row>
@@ -14544,7 +14545,7 @@
         <v>1</v>
       </c>
       <c r="AA169" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>,(3,"에멜시 차량용 방향제 170ml 헤블린 오션",8760,1,"","에멜시 차량용 방향제 170ml 헤블린 오션.jpg","03","0301",1,1)</v>
       </c>
     </row>
@@ -14583,7 +14584,7 @@
         <v>1</v>
       </c>
       <c r="AA170" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>,(4,"그라스 디퓨저 105ml 블랙베리&amp;체리",8990,1,"","그라스 디퓨저 105ml 블랙베리&amp;체리.jpg","03","0301",1,1)</v>
       </c>
     </row>
@@ -14622,7 +14623,7 @@
         <v>1</v>
       </c>
       <c r="AA171" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>,(5,"다우니 프리미엄 세탁세제 액체형 실내건조",6150,1,"","다우니 프리미엄 세탁세제 액체형 실내건조.jpg","03","0302",1,1)</v>
       </c>
     </row>
@@ -14661,7 +14662,7 @@
         <v>1</v>
       </c>
       <c r="AA172" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>,(6,"비트 마사지 건 HMS-12",25280,1,"","비트 마사지 건 HMS-12.jpg","03","0303",1,1)</v>
       </c>
     </row>
@@ -14700,7 +14701,7 @@
         <v>1</v>
       </c>
       <c r="AA173" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>,(7,"질레트 프로쉴드 옐로우 면도날 4입",13280,1,"","질레트 프로쉴드 옐로우 면도날 4입.jpg","03","0304",1,1)</v>
       </c>
     </row>
@@ -14739,7 +14740,7 @@
         <v>1</v>
       </c>
       <c r="AA174" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>,(8,"프링글스양파맛",1250,12,"","프링글스양파맛.jpg","01","0101",1,1)</v>
       </c>
     </row>
@@ -14778,7 +14779,7 @@
         <v>1</v>
       </c>
       <c r="AA175" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>,(9,"프링글스 리치치즈갈릭",1400,12,"","프링글스 리치치즈갈릭.jpg","01","0101",1,1)</v>
       </c>
     </row>
@@ -14817,7 +14818,7 @@
         <v>1</v>
       </c>
       <c r="AA176" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>,(10,"프링글스 버터카라멜",1250,12,"","프링글스 버터카라멜.jpg","01","0101",1,1)</v>
       </c>
     </row>
@@ -14856,7 +14857,7 @@
         <v>1</v>
       </c>
       <c r="AA177" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>,(11,"프링글스 핫앤스파이시",1250,12,"","프링글스 핫앤스파이시.jpg","01","0101",1,1)</v>
       </c>
     </row>
@@ -14895,7 +14896,7 @@
         <v>1</v>
       </c>
       <c r="AA178" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>,(12,"키커바",450,15,"","키커바.png","01","0101",1,1)</v>
       </c>
     </row>
@@ -14934,7 +14935,7 @@
         <v>1</v>
       </c>
       <c r="AA179" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>,(13,"코주부 CLASSIC 육포 Mild 130g",7130,1,"","코주부 CLASSIC 육포 Mild 130g.jpg","01","0101",1,1)</v>
       </c>
     </row>
@@ -14973,7 +14974,7 @@
         <v>1</v>
       </c>
       <c r="AA180" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>,(14,"코주부 CLASSIC 육포 HOT &amp; SPICY 130g",6040,1,"","코주부 CLASSIC 육포 HOT &amp; SPICY 130g.jpg","01","0101",1,1)</v>
       </c>
     </row>
@@ -15012,7 +15013,7 @@
         <v>1</v>
       </c>
       <c r="AA181" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>,(15,"펩시제로슈거라임 500ml",680,20,"","펩시제로슈거라임 500ml.jpg","01","0102",1,1)</v>
       </c>
     </row>
@@ -15051,7 +15052,7 @@
         <v>1</v>
       </c>
       <c r="AA182" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>,(16,"핫식스더킹러쉬 355ml",710,24,"","핫식스더킹러쉬 355ml.jpg","01","0102",1,1)</v>
       </c>
     </row>
@@ -15090,7 +15091,7 @@
         <v>1</v>
       </c>
       <c r="AA183" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>,(17,"핫식스더킹파워 355ml",740,24,"","핫식스더킹파워 355ml.jpg","01","0102",1,1)</v>
       </c>
     </row>
@@ -15129,7 +15130,7 @@
         <v>1</v>
       </c>
       <c r="AA184" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>,(18,"몬스터에너지 울트라 355ml",1420,24,"","몬스터에너지 울트라 355ml.jpg","01","0102",1,1)</v>
       </c>
     </row>
@@ -15168,7 +15169,7 @@
         <v>1</v>
       </c>
       <c r="AA185" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>,(19,"햇반 130g",620,36,"","햇반 130g.jpg","01","0103",1,1)</v>
       </c>
     </row>
@@ -15207,7 +15208,7 @@
         <v>1</v>
       </c>
       <c r="AA186" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>,(20,"햇반 210g",1100,24,"","햇반 210g.jpg","01","0103",1,1)</v>
       </c>
     </row>
@@ -15246,7 +15247,7 @@
         <v>1</v>
       </c>
       <c r="AA187" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>,(21,"맛있는 오뚜기밥 210g",850,24,"","맛있는 오뚜기밥 210g.png","01","0103",1,1)</v>
       </c>
     </row>
@@ -15285,7 +15286,7 @@
         <v>1</v>
       </c>
       <c r="AA188" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>,(22,"햇반흑미밥 130g",800,24,"","햇반흑미밥 130g.jpg","01","0103",1,1)</v>
       </c>
     </row>
@@ -15324,7 +15325,7 @@
         <v>1</v>
       </c>
       <c r="AA189" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>,(23,"햇반 매일잡곡밥 210g",1010,24,"","햇반 매일잡곡밥 210g.jpg","01","0103",1,1)</v>
       </c>
     </row>
@@ -15363,7 +15364,7 @@
         <v>1</v>
       </c>
       <c r="AA190" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>,(24,"오뚜기 컵누들 매콤한 맛",530,15,"","오뚜기 컵누들 매콤한 맛.jpg","01","0104",1,1)</v>
       </c>
     </row>
@@ -15402,7 +15403,7 @@
         <v>1</v>
       </c>
       <c r="AA191" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>,(25,"쟈뎅 아워티 콤푸차 레몬 10p",2550,1,"","쟈뎅 아워티 콤푸차 레몬 10p.jpg","01","0105",1,1)</v>
       </c>
     </row>
@@ -15441,7 +15442,7 @@
         <v>1</v>
       </c>
       <c r="AA192" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>,(26,"쟈뎅 아워티 콤푸차 베리 10p",2550,1,"","쟈뎅 아워티 콤푸차 베리 10p.jpg","01","0105",1,1)</v>
       </c>
     </row>
@@ -15480,7 +15481,7 @@
         <v>1</v>
       </c>
       <c r="AA193" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>,(27,"쟈뎅 아워티 콤푸차 자몽 10p",2550,1,"","쟈뎅 아워티 콤푸차 자몽 10p.png","01","0105",1,1)</v>
       </c>
     </row>
@@ -15519,7 +15520,7 @@
         <v>1</v>
       </c>
       <c r="AA194" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>,(28,"박카스맛젤리",570,8,"","박카스맛젤리.jpg","01","0106",1,1)</v>
       </c>
     </row>
@@ -15558,7 +15559,7 @@
         <v>1</v>
       </c>
       <c r="AA195" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>,(29,"이클립스 페퍼민트향 34g",960,8,"","이클립스 페퍼민트향 34g.jpg","01","0106",1,1)</v>
       </c>
     </row>
@@ -15597,7 +15598,7 @@
         <v>1</v>
       </c>
       <c r="AA196" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>,(30,"이클립스 피치향 34g",990,8,"","이클립스 피치향 34g.jpg","01","0106",1,1)</v>
       </c>
     </row>
@@ -15636,7 +15637,7 @@
         <v>1</v>
       </c>
       <c r="AA197" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>,(31,"맥스빌더",36960,1,"","맥스빌더.jpg","01","0107",1,1)</v>
       </c>
     </row>
@@ -15675,7 +15676,7 @@
         <v>1</v>
       </c>
       <c r="AA198" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>,(32,"롯데햄 키스틱 더블치즈 소시지",440,12,"","롯데햄 키스틱 더블치즈 소시지.jpg","01","0108",1,1)</v>
       </c>
     </row>
@@ -15714,7 +15715,7 @@
         <v>1</v>
       </c>
       <c r="AA199" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>,(33,"키스틱",660,12,"","키스틱.jpg","01","0108",1,1)</v>
       </c>
     </row>
@@ -15753,7 +15754,7 @@
         <v>1</v>
       </c>
       <c r="AA200" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>,(34,"퀘이커 마시는오트밀 오트&amp;그레인, 50g",960,10,"","퀘이커 마시는오트밀 오트&amp;그레인, 50g.jpg","01","0109",1,1)</v>
       </c>
     </row>
@@ -15792,7 +15793,7 @@
         <v>1</v>
       </c>
       <c r="AA201" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>,(35,"퀘이커 마시는 오트밀 오트&amp;우리쌀, 50g",940,10,"","퀘이커 마시는 오트밀 오트&amp;우리쌀, 50g.jpg","01","0109",1,1)</v>
       </c>
     </row>
@@ -15831,7 +15832,7 @@
         <v>1</v>
       </c>
       <c r="AA202" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>,(36,"퀘이커 마시는 오트밀 단백질, 80g",1390,10,"","퀘이커 마시는 오트밀 단백질, 80g.jpg","01","0109",1,1)</v>
       </c>
     </row>
@@ -15870,7 +15871,7 @@
         <v>1</v>
       </c>
       <c r="AA203" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>,(37,"퀘이커 마시는 오트밀 찰옥수수, 50g",1080,10,"","퀘이커 마시는 오트밀 찰옥수수, 50g.jpg","01","0109",1,1)</v>
       </c>
     </row>
@@ -15909,7 +15910,7 @@
         <v>1</v>
       </c>
       <c r="AA204" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>,(38,"SNP 골드 콜라겐 앰플 마스크",480,10,"","SNP 골드 콜라겐 앰플 마스크.jpg","02","0201",1,1)</v>
       </c>
     </row>
@@ -15948,7 +15949,7 @@
         <v>1</v>
       </c>
       <c r="AA205" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>,(39,"메디힐 디엔에이 프로아틴 마스크",700,10,"","메디힐 디엔에이 프로아틴 마스크.jpg","02","0201",1,1)</v>
       </c>
     </row>
@@ -15987,7 +15988,7 @@
         <v>1</v>
       </c>
       <c r="AA206" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>,(40,"닥터지 메디유브이 울트라 선 50ml",4750,1,"","닥터지 메디유브이 울트라 선 50ml.jpg","02","0202",1,1)</v>
       </c>
     </row>
@@ -16026,7 +16027,7 @@
         <v>1</v>
       </c>
       <c r="AA207" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>,(41,"AHC 내추럴 퍼펙션 프레쉬선스틱",8800,1,"","AHC 내추럴 퍼펙션 프레쉬선스틱.jpg","02","0202",1,1)</v>
       </c>
     </row>
@@ -16065,7 +16066,7 @@
         <v>1</v>
       </c>
       <c r="AA208" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>,(42,"AHC프라이빗 리얼아이크림기프트세트",5560,1,"","AHC프라이빗 리얼아이크림기프트세트.jpg","02","0203",1,1)</v>
       </c>
     </row>
@@ -16104,7 +16105,7 @@
         <v>1</v>
       </c>
       <c r="AA209" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>,(43,"마녀공장 비피다 바이옴 수분 장벽 강화 크림 기획세트",4710,1,"","마녀공장 비피다 바이옴 수분 장벽 강화 크림 기획세트.jpg","02","0204",1,1)</v>
       </c>
     </row>
@@ -16143,7 +16144,7 @@
         <v>1</v>
       </c>
       <c r="AA210" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>,(44,"이니스프리 퍼펙트9인텐시브 크림",7900,1,"","이니스프리 퍼펙트9인텐시브 크림.jpg","02","0204",1,1)</v>
       </c>
     </row>
@@ -16182,7 +16183,7 @@
         <v>1</v>
       </c>
       <c r="AA211" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>,(45,"닥터지 로얄 블랙스네일 크림",10080,1,"","닥터지 로얄 블랙스네일 크림.jpg","02","0204",1,1)</v>
       </c>
     </row>
@@ -16221,7 +16222,7 @@
         <v>1</v>
       </c>
       <c r="AA212" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>,(46,"아이소이 탄력크림EX",14090,1,"","아이소이 탄력크림EX.jpg","02","0204",1,1)</v>
       </c>
     </row>
@@ -16260,7 +16261,7 @@
         <v>1</v>
       </c>
       <c r="AA213" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>,(47,"다이아몬드 리페어 퍼펙트 세트",38930,1,"","다이아몬드 리페어 퍼펙트 세트.jpg","02","0204",1,1)</v>
       </c>
     </row>
@@ -16299,7 +16300,7 @@
         <v>1</v>
       </c>
       <c r="AA214" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>,(48,"닥터지 레드 블레미쉬 모이스처 클렌징 폼",4320,1,"","닥터지 레드 블레미쉬 모이스처 클렌징 폼.jpg","02","0205",1,1)</v>
       </c>
     </row>
@@ -16338,7 +16339,7 @@
         <v>1</v>
       </c>
       <c r="AA215" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="6"/>
         <v>,(49,"뉴트로지나 딥클린 아크네 포밍",4390,1,"","뉴트로지나 딥클린 아크네 포밍.jpg","02","0205",1,1)</v>
       </c>
     </row>
@@ -16368,25 +16369,25 @@
   <dimension ref="B1:AA42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="3.19921875" customWidth="1"/>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="62.69921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="50.796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="62.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="50.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.25" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.5" bestFit="1" customWidth="1"/>
     <col min="19" max="26" width="12.5" hidden="1" customWidth="1"/>
@@ -16411,20 +16412,20 @@
       <c r="B2" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
     </row>
     <row r="3" spans="2:27">
       <c r="B3" s="10" t="s">
@@ -16434,13 +16435,13 @@
         <v>222</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>286</v>
+        <v>713</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>200</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>680</v>
@@ -16467,7 +16468,7 @@
         <v>456</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="R3" s="13"/>
       <c r="S3" s="13"/>
@@ -16497,7 +16498,7 @@
         <v>201</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>679</v>
@@ -16548,16 +16549,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>228</v>
+        <v>647</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>709</v>
+        <v>647</v>
       </c>
       <c r="H5" s="8">
         <v>0</v>
@@ -16575,7 +16576,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N5" s="1">
         <v>1</v>
@@ -16584,8 +16585,8 @@
         <v>1</v>
       </c>
       <c r="AA5" t="str">
-        <f t="shared" ref="AA5" si="0">_xlfn.CONCAT(IF(B5=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C5:Z5),")")</f>
-        <v>(1,"market/item","마켓","market","item",0,"Y","Y",1,1,"상품 관련 대메뉴",1,1)</v>
+        <f>_xlfn.CONCAT(IF(B5=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C5:Z5),")")</f>
+        <v>(1,"/market","마켓","","",0,"Y","Y",1,1,"상품 관련 대메뉴",1,1)</v>
       </c>
     </row>
     <row r="6" spans="2:27">
@@ -16596,7 +16597,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>670</v>
@@ -16605,7 +16606,7 @@
         <v>228</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H6" s="8">
         <v>1</v>
@@ -16620,10 +16621,10 @@
         <v>2</v>
       </c>
       <c r="L6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="N6" s="1">
         <v>1</v>
@@ -16632,8 +16633,8 @@
         <v>1</v>
       </c>
       <c r="AA6" t="str">
-        <f t="shared" ref="AA6" si="1">_xlfn.CONCAT(IF(B6=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C6:Z6),")")</f>
-        <v>,(2,"market/item","상품","market","item",1,"Y","Y",2,1,"상품 정보를 조회할 수 있는 메뉴입니다.",1,1)</v>
+        <f>_xlfn.CONCAT(IF(B6=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C6:Z6),")")</f>
+        <v>,(2,"/market/item","상품","market","item",1,"Y","Y",2,2,"상품 정보를 조회할 수 있는 메뉴입니다.",1,1)</v>
       </c>
     </row>
     <row r="7" spans="2:27">
@@ -16644,16 +16645,16 @@
         <v>3</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>687</v>
+        <v>716</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>233</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>181</v>
+        <v>647</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>691</v>
+        <v>647</v>
       </c>
       <c r="H7" s="8">
         <v>0</v>
@@ -16680,8 +16681,8 @@
         <v>1</v>
       </c>
       <c r="AA7" t="str">
-        <f t="shared" ref="AA7:AA8" si="2">_xlfn.CONCAT(IF(B7=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C7:Z7),")")</f>
-        <v>,(3,"admin/admin-home","관리자","admin","admin-home",0,"Y","Y",1,1,"관리자 관련 대메뉴",1,1)</v>
+        <f>_xlfn.CONCAT(IF(B7=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C7:Z7),")")</f>
+        <v>,(3,"/admin","관리자","","",0,"Y","Y",1,1,"관리자 관련 대메뉴",1,1)</v>
       </c>
     </row>
     <row r="8" spans="2:27">
@@ -16692,7 +16693,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>687</v>
+        <v>717</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>238</v>
@@ -16701,10 +16702,10 @@
         <v>181</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H8" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>206</v>
@@ -16716,7 +16717,7 @@
         <v>2</v>
       </c>
       <c r="L8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>430</v>
@@ -16728,8 +16729,8 @@
         <v>1</v>
       </c>
       <c r="AA8" t="str">
-        <f t="shared" si="2"/>
-        <v>,(4,"admin/admin-home","관리자홈","admin","admin-home",2,"Y","Y",2,1,"관리자가 사이트 현황을 조회할 수 있는 메뉴입니다.",1,1)</v>
+        <f>_xlfn.CONCAT(IF(B8=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C8:Z8),")")</f>
+        <v>,(4,"/admin/admin-home","관리자홈","admin","admin-home",3,"Y","Y",2,2,"관리자가 사이트 현황을 조회할 수 있는 메뉴입니다.",1,1)</v>
       </c>
     </row>
     <row r="9" spans="2:27">
@@ -16741,14 +16742,14 @@
       <c r="B10" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="34" t="s">
         <v>257</v>
       </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
     </row>
     <row r="11" spans="2:27">
       <c r="B11" s="17" t="s">
@@ -16770,7 +16771,7 @@
         <v>456</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
@@ -16917,14 +16918,14 @@
       <c r="B16" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
       <c r="AA16" t="s">
         <v>161</v>
       </c>
@@ -16933,14 +16934,14 @@
       <c r="B17" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="38" t="s">
         <v>424</v>
       </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
       <c r="AA17" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,"UPDATE TB_AUTH T1 SET T1.AUTH_GRADE = 0, T1.AUTH_NM = '권한없음' WHERE T1.ROLE_SEQ = 1 AND EXISTS (SELECT 1 FROM TB_MNU WHERE MNU_SEQ = T1.MNU_SEQ AND URL LIKE 'admin%')")</f>
         <v>UPDATE TB_AUTH T1 SET T1.AUTH_GRADE = 0, T1.AUTH_NM = '권한없음' WHERE T1.ROLE_SEQ = 1 AND EXISTS (SELECT 1 FROM TB_MNU WHERE MNU_SEQ = T1.MNU_SEQ AND URL LIKE 'admin%')</v>
@@ -16958,20 +16959,20 @@
       <c r="B23" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="34" t="s">
         <v>684</v>
       </c>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
     </row>
     <row r="24" spans="2:27">
       <c r="B24" s="10" t="s">
@@ -17014,7 +17015,7 @@
         <v>456</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="R24" s="13"/>
       <c r="S24" s="13"/>
@@ -17129,7 +17130,7 @@
         <v>1</v>
       </c>
       <c r="AA26" t="str">
-        <f t="shared" ref="AA26:AA41" si="3">_xlfn.CONCAT(IF(B26=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C26:Z26),")")</f>
+        <f t="shared" ref="AA26:AA41" si="0">_xlfn.CONCAT(IF(B26=1,"",","),"(",_xlfn.TEXTJOIN(",",TRUE,C26:Z26),")")</f>
         <v>(1,"admin","관리자","admin/adminHome","#","Y","Y",1,"관리자 관련 대메뉴",1,1,1)</v>
       </c>
     </row>
@@ -17175,7 +17176,7 @@
         <v>1</v>
       </c>
       <c r="AA27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>,(2,"admin/adminHome","관리자홈","admin/adminHome","admin","Y","Y",2,"관리자가 사이트 현황을 조회할 수 있는 메뉴입니다.",1,1,1)</v>
       </c>
     </row>
@@ -17221,7 +17222,7 @@
         <v>1</v>
       </c>
       <c r="AA28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>,(3,"admin/loginLog","접속기록조회","admin/adminHome","admin","Y","Y",2,"관리자가 사용자의 접속 기록을 조회할 수 있는 메뉴입니다.",2,1,1)</v>
       </c>
     </row>
@@ -17267,7 +17268,7 @@
         <v>1</v>
       </c>
       <c r="AA29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>,(4,"admin/requestLog","요청기록조회","admin/adminHome","admin","Y","Y",2,"관리자가 서버에 발생한 요청 기록을 조회할 수 있는 메뉴입니다.",3,1,1)</v>
       </c>
     </row>
@@ -17313,7 +17314,7 @@
         <v>1</v>
       </c>
       <c r="AA30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>,(5,"admin/manageRole","권한그룹관리","admin/adminHome","admin","Y","Y",2,"관리자가 권한그룹 정보를 조회 및 관리할 수 있는 메뉴입니다.",4,1,1)</v>
       </c>
     </row>
@@ -17359,7 +17360,7 @@
         <v>1</v>
       </c>
       <c r="AA31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>,(6,"admin/manageAuth","권한관리","admin/adminHome","admin","Y","Y",2,"관리자가 권한 정보를 조회 및 관리할 수 있는 메뉴입니다.",5,1,1)</v>
       </c>
     </row>
@@ -17405,7 +17406,7 @@
         <v>1</v>
       </c>
       <c r="AA32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>,(7,"admin/manageMnu","메뉴관리","admin/adminHome","admin","Y","Y",2,"관리자가 메뉴 정보를 조회 및 관리할 수 있는 메뉴입니다.",6,1,1)</v>
       </c>
     </row>
@@ -17451,7 +17452,7 @@
         <v>1</v>
       </c>
       <c r="AA33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>,(8,"admin/manageUser","사용자관리","admin/adminHome","admin","Y","Y",2,"관리자가 사용자 정보를 조회 및 관리할 수 있는 메뉴입니다.",7,1,1)</v>
       </c>
     </row>
@@ -17497,7 +17498,7 @@
         <v>1</v>
       </c>
       <c r="AA34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>,(9,"mart","마트","mart/cart","#","N","Y",1,"마트 관련 대메뉴",3,1,1)</v>
       </c>
     </row>
@@ -17543,7 +17544,7 @@
         <v>1</v>
       </c>
       <c r="AA35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>,(10,"mart/item","상품","mart/item","mart","N","Y",2,"상품 목록을 조회 및 관리하는 메뉴입니다.",1,1,1)</v>
       </c>
     </row>
@@ -17589,7 +17590,7 @@
         <v>1</v>
       </c>
       <c r="AA36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>,(11,"mart/cart","장바구니","mart/cart","mart","N","Y",2,"장바구니에 추가한 상품 목록을 관리하는 메뉴입니다.",2,1,1)</v>
       </c>
     </row>
@@ -17635,7 +17636,7 @@
         <v>1</v>
       </c>
       <c r="AA37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>,(12,"mart/request","상품요청","mart/request","mart","Y","Y",2,"신규 상품 추가를 요청하는 메뉴입니다.",3,1,1)</v>
       </c>
     </row>
@@ -17681,7 +17682,7 @@
         <v>1</v>
       </c>
       <c r="AA38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>,(13,"info","정보","info/notice","#","Y","Y",1,"정보 관련 대메뉴",6,1,1)</v>
       </c>
     </row>
@@ -17727,7 +17728,7 @@
         <v>1</v>
       </c>
       <c r="AA39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>,(14,"info/notice","공지사항","info/notice","info","Y","Y",2,"공지사항 목록을 조회하는 메뉴입니다.",1,1,1)</v>
       </c>
     </row>
@@ -17773,7 +17774,7 @@
         <v>1</v>
       </c>
       <c r="AA40" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>,(15,"user","사용자","user/myPage","#","N","Y",1,"사용자 관련 대메뉴",7,1,1)</v>
       </c>
     </row>
@@ -17819,7 +17820,7 @@
         <v>1</v>
       </c>
       <c r="AA41" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>,(16,"user/myPage","마이페이지","user/myPage","user","N","Y",2,"자신의 정보를 조회 및 관리할 수 있는 메뉴입니다.",1,1,1)</v>
       </c>
     </row>
@@ -17837,29 +17838,24 @@
     <mergeCell ref="C2:N2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D7:O8">
-    <cfRule type="expression" dxfId="4" priority="8">
-      <formula>$I7 = 1</formula>
+  <conditionalFormatting sqref="B5:O8">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>$I5 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:O41">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>$J26 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:L8">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$I53 = 1</formula>
+  <conditionalFormatting sqref="K5:L6">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$I52 = 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:O6 B5:C8">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$I5 = 1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5:L6">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$I52 = 1</formula>
+  <conditionalFormatting sqref="K7:L8">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>$I53 = 1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17875,15 +17871,15 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="2" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7">

--- a/산출물/테이블 명세서/MiniPX_테이블 명세서_V0.2.xlsx
+++ b/산출물/테이블 명세서/MiniPX_테이블 명세서_V0.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangMin\git\miniPX\산출물\테이블 명세서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA881CF-7348-47BD-A72E-57F3096C1FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D4CF47-354C-48E3-A62E-69C32A2196E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="571" activeTab="3" xr2:uid="{C65CB968-5333-48BF-B9BC-AA4409770CFC}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="571" activeTab="2" xr2:uid="{C65CB968-5333-48BF-B9BC-AA4409770CFC}"/>
   </bookViews>
   <sheets>
     <sheet name="개정이력" sheetId="7" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="720">
   <si>
     <t>의미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2633,6 +2633,14 @@
   </si>
   <si>
     <t>"/admin/admin-home"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MODIFY_YN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DETAIL_ORDER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3528,8 +3536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3FA1B2-35B2-404A-91D2-564CF6C84D17}">
   <dimension ref="B2:J270"/>
   <sheetViews>
-    <sheetView topLeftCell="A199" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I272" sqref="I272"/>
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4625,7 +4633,7 @@
         <v>4</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>283</v>
+        <v>718</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>176</v>
@@ -4651,7 +4659,7 @@
         <v>5</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>284</v>
+        <v>719</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>100</v>
@@ -10106,8 +10114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A446E8-EBD3-49BD-80EC-225302354102}">
   <dimension ref="B2:AA216"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G167" sqref="G167"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -14632,7 +14640,7 @@
         <v>6</v>
       </c>
       <c r="C172" s="20">
-        <v>6</v>
+        <v>410</v>
       </c>
       <c r="D172" s="26" t="s">
         <v>554</v>
@@ -14663,7 +14671,7 @@
       </c>
       <c r="AA172" t="str">
         <f t="shared" si="6"/>
-        <v>,(6,"비트 마사지 건 HMS-12",25280,1,"","비트 마사지 건 HMS-12.jpg","03","0303",1,1)</v>
+        <v>,(410,"비트 마사지 건 HMS-12",25280,1,"","비트 마사지 건 HMS-12.jpg","03","0303",1,1)</v>
       </c>
     </row>
     <row r="173" spans="2:27">
@@ -16368,8 +16376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCCE5D6-4248-4400-A48F-6A536530056C}">
   <dimension ref="B1:AA42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
